--- a/docs/content_sample/problems.xlsx
+++ b/docs/content_sample/problems.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3572" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3543" uniqueCount="724">
   <si>
     <t>URL</t>
   </si>
@@ -1552,6 +1552,229 @@
     <t>print(num1 + num2)</t>
   </si>
   <si>
+    <t>str1 = input()
+str2 = input()
+if len(str1) &gt; len(str2):
+    print(str1)
+else:
+    print(str2)</t>
+  </si>
+  <si>
+    <t>N = int(input())
+for i in range(N, 0, -1):
+    print("*" * i)</t>
+  </si>
+  <si>
+    <t>str = input()
+print("\"" + str + "\"")</t>
+  </si>
+  <si>
+    <t>n = int(input())
+print(abs(n))</t>
+  </si>
+  <si>
+    <t>a, b = map(int, input().split())
+if a == b:
+    print(a + b)
+else:
+    print(b - a)</t>
+  </si>
+  <si>
+    <t>n = int(input())
+i = 1
+while i &lt;= n:
+    print(i)
+    i += 1</t>
+  </si>
+  <si>
+    <t>n = int(input())
+arr = []
+arr = input().split()
+for i in range(n):
+    arr[i] = int(arr[i])
+for i in range(n - 1):
+    print(arr[i] - arr[i + 1])</t>
+  </si>
+  <si>
+    <t>n = input()
+for i in range(len(n)):
+    print(n[len(n) - i - 1])</t>
+  </si>
+  <si>
+    <t>n = input()
+for i in range(len(n)):
+    print(n[len(n)-1-i])</t>
+  </si>
+  <si>
+    <t>a, b, c = map(int, input().split())
+hap = a + b + c
+ave = hap / 3
+print("sum =", hap)
+print("avg = {:.2f}".format(ave))</t>
+  </si>
+  <si>
+    <t>str1 = input()
+str2 = input()
+print(len(str1) + len(str2))</t>
+  </si>
+  <si>
+    <t>N = int(input())
+for i in range(1, N+1):
+    print("*" * i)</t>
+  </si>
+  <si>
+    <t>s = input()
+print("'" + s + "'")</t>
+  </si>
+  <si>
+    <t>n = int(input())
+if n % 2 == 0:
+    print("짝수")
+else:
+    print("홀수")</t>
+  </si>
+  <si>
+    <t>a, b = map(int, input().split())
+print(abs(a - b))</t>
+  </si>
+  <si>
+    <t>n = int(input())
+while n &gt; 0:
+    print(n)
+    n -= 1</t>
+  </si>
+  <si>
+    <t>n = int(input())
+arr = list(map(int, input().split()))
+odd_count = 0
+even_count = 0
+for num in arr:
+    if num % 2 == 0:
+        even_count += 1
+    else:
+        odd_count += 1
+print(odd_count, even_count)</t>
+  </si>
+  <si>
+    <t>n = int(input())
+arr = []
+arr = input().split()
+hap = 0
+avg = 0
+for i in range(n):
+    arr[i] = int(arr[i])
+for x in arr:
+    hap += x
+print(hap)
+print("{:.1f}".format(hap / n))</t>
+  </si>
+  <si>
+    <t>s = input()
+cnt = 0
+for x in s:
+    if x == 'p' or x == 'P':
+        cnt += 1
+print(cnt)</t>
+  </si>
+  <si>
+    <t>a, b = map(int, input().split())
+if a &lt; b:
+    print(f"{a} + {b} = {a + b}")
+elif a &gt; b:
+    print(f"{a} - {b} = {a - b}")
+else:
+    print(f"{a} = {b}")</t>
+  </si>
+  <si>
+    <t>c = input()
+if c.isupper():
+    print(c.lower())
+else:
+    print(c.upper())</t>
+  </si>
+  <si>
+    <t>N = int(input())
+for i in range(1, N+1):
+    spaces = " " * (N - i)
+    stars = "*" * (2 * i - 1)
+    print(spaces + stars)</t>
+  </si>
+  <si>
+    <t>print('"Python\\test"')</t>
+  </si>
+  <si>
+    <t>seconds = int(input())
+minutes = seconds // 60
+remaining_seconds = seconds % 60
+print(minutes, remaining_seconds)</t>
+  </si>
+  <si>
+    <t>hap = 0
+i = 1
+n = int(input())
+while i &lt;= n:
+    if i % 3 == 0:
+        hap += i
+    i += 1
+print(hap)</t>
+  </si>
+  <si>
+    <t>n, m = map(int, input().split())
+for i in range(n):
+    print("*" * m)</t>
+  </si>
+  <si>
+    <t>n = int(input())
+arr = []
+arr = input().split()
+for i in range(n):
+    arr[i] = int(arr[i])
+print(max(arr) - min(arr))</t>
+  </si>
+  <si>
+    <t>n = int(input())
+arr = []
+arr = input().split()
+for i in range(n):
+    arr[i] = int(arr[i])
+for i in range(n):
+    if i % 2 == 0:
+        print(arr[i], end=" ")
+print()
+for i in range(n):
+    if i % 2 == 1:
+        print(arr[i], end=" ")</t>
+  </si>
+  <si>
+    <t>n = int(input())
+arr = list(map(int, input().split()))
+odd_numbers = []
+even_numbers = []
+odd_sum = 0
+even_sum = 0
+for num in arr:
+    if num % 2 == 1:  # 홀수
+        odd_numbers.append(num)
+        odd_sum += num
+    else:  # 짝수
+        even_numbers.append(num)
+        even_sum += num
+# 홀수 출력
+for i, num in enumerate(odd_numbers):
+    if i &gt; 0:
+        print(" ", end="")
+    print(num, end="")
+print()
+# 짝수 출력
+for i, num in enumerate(even_numbers):
+    if i &gt; 0:
+        print(" ", end="")
+    print(num, end="")
+print()
+# 홀수 합과 짝수 합 출력
+print(odd_sum, even_sum)</t>
+  </si>
+  <si>
     <t>{"answer":"3","choices":["①","②","③","④","⑤"]}</t>
   </si>
   <si>
@@ -1744,6 +1967,15 @@
     <t>[{"input": "5 3", "output": "8"}, {"input": "1 4", "output": "5"}]</t>
   </si>
   <si>
+    <t>[{"input": "HelloWorld\nProgrammingisfun", "output": "Programmingisfun"}, {"input": "LongerStringIsHere\nShort", "output": "LongerStringIsHere"}]</t>
+  </si>
+  <si>
+    <t>[{"input": "5", "output": "*****\n****\n***\n**\n*"}, {"input": "3", "output": "***\n**\n*"}]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>없음</t>
   </si>
   <si>
@@ -1754,6 +1986,30 @@
   </si>
   <si>
     <t>input,output,sum</t>
+  </si>
+  <si>
+    <t>string,len,if</t>
+  </si>
+  <si>
+    <t>loop,print,range</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>if,print</t>
+  </si>
+  <si>
+    <t>loop,print</t>
+  </si>
+  <si>
+    <t>loop,len,print</t>
+  </si>
+  <si>
+    <t>len,print</t>
+  </si>
+  <si>
+    <t>if,loop,print</t>
   </si>
   <si>
     <t>한붓그리기, 도형, 사고력</t>
@@ -3385,16 +3641,16 @@
         <v>511</v>
       </c>
       <c r="K22" t="s">
-        <v>575</v>
+        <v>604</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="N22" t="s">
-        <v>579</v>
+        <v>611</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -3423,22 +3679,22 @@
         <v>503</v>
       </c>
       <c r="I23" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J23" t="s">
-        <v>380</v>
+        <v>512</v>
       </c>
       <c r="K23" t="s">
-        <v>380</v>
-      </c>
-      <c r="L23" t="s">
-        <v>380</v>
+        <v>605</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="N23" t="s">
-        <v>380</v>
+        <v>612</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -3467,22 +3723,22 @@
         <v>503</v>
       </c>
       <c r="I24" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J24" t="s">
-        <v>380</v>
+        <v>513</v>
       </c>
       <c r="K24" t="s">
-        <v>380</v>
-      </c>
-      <c r="L24" t="s">
-        <v>380</v>
+        <v>606</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="N24" t="s">
-        <v>380</v>
+        <v>613</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -3511,22 +3767,22 @@
         <v>503</v>
       </c>
       <c r="I25" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J25" t="s">
-        <v>380</v>
+        <v>514</v>
       </c>
       <c r="K25" t="s">
-        <v>380</v>
-      </c>
-      <c r="L25" t="s">
-        <v>380</v>
+        <v>607</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="N25" t="s">
-        <v>380</v>
+        <v>614</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -3555,22 +3811,22 @@
         <v>503</v>
       </c>
       <c r="I26" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J26" t="s">
-        <v>380</v>
+        <v>515</v>
       </c>
       <c r="K26" t="s">
-        <v>380</v>
-      </c>
-      <c r="L26" t="s">
-        <v>380</v>
+        <v>607</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="N26" t="s">
-        <v>380</v>
+        <v>614</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -3599,22 +3855,22 @@
         <v>503</v>
       </c>
       <c r="I27" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J27" t="s">
-        <v>380</v>
+        <v>516</v>
       </c>
       <c r="K27" t="s">
-        <v>380</v>
-      </c>
-      <c r="L27" t="s">
-        <v>380</v>
+        <v>607</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="N27" t="s">
-        <v>380</v>
+        <v>615</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -3643,22 +3899,22 @@
         <v>503</v>
       </c>
       <c r="I28" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J28" t="s">
-        <v>380</v>
+        <v>517</v>
       </c>
       <c r="K28" t="s">
-        <v>380</v>
-      </c>
-      <c r="L28" t="s">
-        <v>380</v>
+        <v>607</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="N28" t="s">
-        <v>380</v>
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -3687,22 +3943,22 @@
         <v>503</v>
       </c>
       <c r="I29" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J29" t="s">
-        <v>380</v>
+        <v>518</v>
       </c>
       <c r="K29" t="s">
-        <v>380</v>
-      </c>
-      <c r="L29" t="s">
-        <v>380</v>
+        <v>607</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="N29" t="s">
-        <v>380</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -3731,22 +3987,22 @@
         <v>503</v>
       </c>
       <c r="I30" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J30" t="s">
-        <v>380</v>
+        <v>519</v>
       </c>
       <c r="K30" t="s">
-        <v>380</v>
-      </c>
-      <c r="L30" t="s">
-        <v>380</v>
+        <v>607</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="N30" t="s">
-        <v>380</v>
+        <v>617</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -3775,22 +4031,22 @@
         <v>503</v>
       </c>
       <c r="I31" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J31" t="s">
-        <v>380</v>
+        <v>520</v>
       </c>
       <c r="K31" t="s">
-        <v>380</v>
-      </c>
-      <c r="L31" t="s">
-        <v>380</v>
+        <v>607</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="N31" t="s">
-        <v>380</v>
+        <v>617</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -3863,22 +4119,22 @@
         <v>503</v>
       </c>
       <c r="I33" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J33" t="s">
-        <v>380</v>
+        <v>521</v>
       </c>
       <c r="K33" t="s">
-        <v>380</v>
-      </c>
-      <c r="L33" t="s">
-        <v>380</v>
+        <v>607</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="N33" t="s">
-        <v>380</v>
+        <v>616</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -3907,22 +4163,22 @@
         <v>503</v>
       </c>
       <c r="I34" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J34" t="s">
-        <v>380</v>
+        <v>522</v>
       </c>
       <c r="K34" t="s">
-        <v>380</v>
-      </c>
-      <c r="L34" t="s">
-        <v>380</v>
+        <v>607</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="N34" t="s">
-        <v>380</v>
+        <v>618</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -3951,22 +4207,22 @@
         <v>503</v>
       </c>
       <c r="I35" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J35" t="s">
-        <v>380</v>
+        <v>523</v>
       </c>
       <c r="K35" t="s">
-        <v>380</v>
-      </c>
-      <c r="L35" t="s">
-        <v>380</v>
+        <v>607</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
       </c>
       <c r="M35" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="N35" t="s">
-        <v>380</v>
+        <v>616</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -3995,22 +4251,22 @@
         <v>503</v>
       </c>
       <c r="I36" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J36" t="s">
-        <v>380</v>
+        <v>524</v>
       </c>
       <c r="K36" t="s">
-        <v>380</v>
-      </c>
-      <c r="L36" t="s">
-        <v>380</v>
+        <v>607</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
       </c>
       <c r="M36" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="N36" t="s">
-        <v>380</v>
+        <v>614</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -4039,22 +4295,22 @@
         <v>503</v>
       </c>
       <c r="I37" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J37" t="s">
-        <v>380</v>
+        <v>525</v>
       </c>
       <c r="K37" t="s">
-        <v>380</v>
-      </c>
-      <c r="L37" t="s">
-        <v>380</v>
+        <v>607</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
       </c>
       <c r="M37" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="N37" t="s">
-        <v>380</v>
+        <v>615</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -4083,22 +4339,22 @@
         <v>503</v>
       </c>
       <c r="I38" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J38" t="s">
-        <v>380</v>
+        <v>526</v>
       </c>
       <c r="K38" t="s">
-        <v>380</v>
-      </c>
-      <c r="L38" t="s">
-        <v>380</v>
+        <v>607</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
       </c>
       <c r="M38" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="N38" t="s">
-        <v>380</v>
+        <v>614</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -4127,22 +4383,22 @@
         <v>503</v>
       </c>
       <c r="I39" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J39" t="s">
-        <v>380</v>
+        <v>527</v>
       </c>
       <c r="K39" t="s">
-        <v>380</v>
-      </c>
-      <c r="L39" t="s">
-        <v>380</v>
+        <v>607</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
       </c>
       <c r="M39" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="N39" t="s">
-        <v>380</v>
+        <v>616</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -4171,22 +4427,22 @@
         <v>503</v>
       </c>
       <c r="I40" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J40" t="s">
-        <v>380</v>
+        <v>528</v>
       </c>
       <c r="K40" t="s">
-        <v>380</v>
-      </c>
-      <c r="L40" t="s">
-        <v>380</v>
+        <v>607</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="N40" t="s">
-        <v>380</v>
+        <v>619</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -4215,22 +4471,22 @@
         <v>503</v>
       </c>
       <c r="I41" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J41" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
       <c r="K41" t="s">
-        <v>380</v>
-      </c>
-      <c r="L41" t="s">
-        <v>380</v>
+        <v>607</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
       </c>
       <c r="M41" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="N41" t="s">
-        <v>380</v>
+        <v>616</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -4259,22 +4515,22 @@
         <v>503</v>
       </c>
       <c r="I42" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J42" t="s">
-        <v>380</v>
+        <v>530</v>
       </c>
       <c r="K42" t="s">
-        <v>380</v>
-      </c>
-      <c r="L42" t="s">
-        <v>380</v>
+        <v>607</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
       </c>
       <c r="M42" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="N42" t="s">
-        <v>380</v>
+        <v>619</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -4303,22 +4559,22 @@
         <v>503</v>
       </c>
       <c r="I43" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J43" t="s">
-        <v>380</v>
+        <v>531</v>
       </c>
       <c r="K43" t="s">
-        <v>380</v>
-      </c>
-      <c r="L43" t="s">
-        <v>380</v>
+        <v>607</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="N43" t="s">
-        <v>380</v>
+        <v>615</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -4347,22 +4603,22 @@
         <v>503</v>
       </c>
       <c r="I44" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J44" t="s">
-        <v>380</v>
+        <v>532</v>
       </c>
       <c r="K44" t="s">
-        <v>380</v>
-      </c>
-      <c r="L44" t="s">
-        <v>380</v>
+        <v>607</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="N44" t="s">
-        <v>380</v>
+        <v>615</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -4391,22 +4647,22 @@
         <v>503</v>
       </c>
       <c r="I45" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J45" t="s">
-        <v>380</v>
+        <v>533</v>
       </c>
       <c r="K45" t="s">
-        <v>380</v>
-      </c>
-      <c r="L45" t="s">
-        <v>380</v>
+        <v>607</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
       </c>
       <c r="M45" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="N45" t="s">
-        <v>380</v>
+        <v>616</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -4435,22 +4691,22 @@
         <v>503</v>
       </c>
       <c r="I46" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J46" t="s">
-        <v>380</v>
+        <v>534</v>
       </c>
       <c r="K46" t="s">
-        <v>380</v>
-      </c>
-      <c r="L46" t="s">
-        <v>380</v>
+        <v>607</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
       </c>
       <c r="M46" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="N46" t="s">
-        <v>380</v>
+        <v>614</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -4479,22 +4735,22 @@
         <v>503</v>
       </c>
       <c r="I47" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J47" t="s">
-        <v>380</v>
+        <v>535</v>
       </c>
       <c r="K47" t="s">
-        <v>380</v>
-      </c>
-      <c r="L47" t="s">
-        <v>380</v>
+        <v>607</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="N47" t="s">
-        <v>380</v>
+        <v>614</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -4523,22 +4779,22 @@
         <v>503</v>
       </c>
       <c r="I48" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J48" t="s">
-        <v>380</v>
+        <v>536</v>
       </c>
       <c r="K48" t="s">
-        <v>380</v>
-      </c>
-      <c r="L48" t="s">
-        <v>380</v>
+        <v>607</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
       </c>
       <c r="M48" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="N48" t="s">
-        <v>380</v>
+        <v>619</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -4567,22 +4823,22 @@
         <v>503</v>
       </c>
       <c r="I49" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J49" t="s">
-        <v>380</v>
+        <v>537</v>
       </c>
       <c r="K49" t="s">
-        <v>380</v>
-      </c>
-      <c r="L49" t="s">
-        <v>380</v>
+        <v>607</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
       </c>
       <c r="M49" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="N49" t="s">
-        <v>380</v>
+        <v>616</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -4611,22 +4867,22 @@
         <v>503</v>
       </c>
       <c r="I50" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J50" t="s">
-        <v>380</v>
+        <v>538</v>
       </c>
       <c r="K50" t="s">
-        <v>380</v>
-      </c>
-      <c r="L50" t="s">
-        <v>380</v>
+        <v>607</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
       </c>
       <c r="M50" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="N50" t="s">
-        <v>380</v>
+        <v>616</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -4655,22 +4911,22 @@
         <v>503</v>
       </c>
       <c r="I51" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J51" t="s">
-        <v>380</v>
+        <v>539</v>
       </c>
       <c r="K51" t="s">
-        <v>380</v>
-      </c>
-      <c r="L51" t="s">
-        <v>380</v>
+        <v>607</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
       </c>
       <c r="M51" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="N51" t="s">
-        <v>380</v>
+        <v>619</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -4699,22 +4955,22 @@
         <v>503</v>
       </c>
       <c r="I52" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J52" t="s">
-        <v>380</v>
+        <v>540</v>
       </c>
       <c r="K52" t="s">
-        <v>380</v>
-      </c>
-      <c r="L52" t="s">
-        <v>380</v>
+        <v>607</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
       </c>
       <c r="M52" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="N52" t="s">
-        <v>380</v>
+        <v>619</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -7286,19 +7542,19 @@
         <v>506</v>
       </c>
       <c r="J111" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="K111" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L111">
         <v>1</v>
       </c>
       <c r="M111" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N111" t="s">
-        <v>580</v>
+        <v>620</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -7318,19 +7574,19 @@
         <v>506</v>
       </c>
       <c r="J112" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="K112" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L112">
         <v>1</v>
       </c>
       <c r="M112" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N112" t="s">
-        <v>581</v>
+        <v>621</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -7350,19 +7606,19 @@
         <v>507</v>
       </c>
       <c r="J113" t="s">
-        <v>514</v>
+        <v>543</v>
       </c>
       <c r="K113" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L113">
         <v>1</v>
       </c>
       <c r="M113" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="N113" t="s">
-        <v>582</v>
+        <v>622</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -7382,19 +7638,19 @@
         <v>507</v>
       </c>
       <c r="J114" t="s">
-        <v>515</v>
+        <v>544</v>
       </c>
       <c r="K114" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L114">
         <v>1</v>
       </c>
       <c r="M114" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="N114" t="s">
-        <v>583</v>
+        <v>623</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -7414,19 +7670,19 @@
         <v>506</v>
       </c>
       <c r="J115" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="K115" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L115">
         <v>1</v>
       </c>
       <c r="M115" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N115" t="s">
-        <v>584</v>
+        <v>624</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -7446,19 +7702,19 @@
         <v>506</v>
       </c>
       <c r="J116" t="s">
-        <v>516</v>
+        <v>545</v>
       </c>
       <c r="K116" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L116">
         <v>1</v>
       </c>
       <c r="M116" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N116" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -7478,19 +7734,19 @@
         <v>506</v>
       </c>
       <c r="J117" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="K117" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L117">
         <v>1</v>
       </c>
       <c r="M117" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N117" t="s">
-        <v>586</v>
+        <v>626</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -7510,19 +7766,19 @@
         <v>506</v>
       </c>
       <c r="J118" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="K118" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L118">
         <v>1</v>
       </c>
       <c r="M118" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N118" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -7542,19 +7798,19 @@
         <v>506</v>
       </c>
       <c r="J119" t="s">
-        <v>516</v>
+        <v>545</v>
       </c>
       <c r="K119" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L119">
         <v>1</v>
       </c>
       <c r="M119" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N119" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -7574,19 +7830,19 @@
         <v>506</v>
       </c>
       <c r="J120" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="K120" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L120">
         <v>1</v>
       </c>
       <c r="M120" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N120" t="s">
-        <v>589</v>
+        <v>629</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -7606,19 +7862,19 @@
         <v>506</v>
       </c>
       <c r="J121" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="K121" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L121">
         <v>1</v>
       </c>
       <c r="M121" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N121" t="s">
-        <v>590</v>
+        <v>630</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -7638,19 +7894,19 @@
         <v>506</v>
       </c>
       <c r="J122" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="K122" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L122">
         <v>1</v>
       </c>
       <c r="M122" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N122" t="s">
-        <v>591</v>
+        <v>631</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -7670,19 +7926,19 @@
         <v>506</v>
       </c>
       <c r="J123" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="K123" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L123">
         <v>1</v>
       </c>
       <c r="M123" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N123" t="s">
-        <v>592</v>
+        <v>632</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -7702,19 +7958,19 @@
         <v>506</v>
       </c>
       <c r="J124" t="s">
-        <v>516</v>
+        <v>545</v>
       </c>
       <c r="K124" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L124">
         <v>1</v>
       </c>
       <c r="M124" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N124" t="s">
-        <v>593</v>
+        <v>633</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -7734,19 +7990,19 @@
         <v>506</v>
       </c>
       <c r="J125" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="K125" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L125">
         <v>1</v>
       </c>
       <c r="M125" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N125" t="s">
-        <v>594</v>
+        <v>634</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -7766,19 +8022,19 @@
         <v>506</v>
       </c>
       <c r="J126" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="K126" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L126">
         <v>1</v>
       </c>
       <c r="M126" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N126" t="s">
-        <v>595</v>
+        <v>635</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -7798,19 +8054,19 @@
         <v>506</v>
       </c>
       <c r="J127" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="K127" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L127">
         <v>1</v>
       </c>
       <c r="M127" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N127" t="s">
-        <v>596</v>
+        <v>636</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -7830,19 +8086,19 @@
         <v>506</v>
       </c>
       <c r="J128" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="K128" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L128">
         <v>1</v>
       </c>
       <c r="M128" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N128" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -7862,19 +8118,19 @@
         <v>506</v>
       </c>
       <c r="J129" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="K129" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L129">
         <v>1</v>
       </c>
       <c r="M129" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N129" t="s">
-        <v>598</v>
+        <v>638</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -7894,19 +8150,19 @@
         <v>506</v>
       </c>
       <c r="J130" t="s">
-        <v>516</v>
+        <v>545</v>
       </c>
       <c r="K130" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L130">
         <v>1</v>
       </c>
       <c r="M130" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N130" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -7926,19 +8182,19 @@
         <v>506</v>
       </c>
       <c r="J131" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="K131" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L131">
         <v>1</v>
       </c>
       <c r="M131" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N131" t="s">
-        <v>600</v>
+        <v>640</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -7958,19 +8214,19 @@
         <v>506</v>
       </c>
       <c r="J132" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="K132" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L132">
         <v>1</v>
       </c>
       <c r="M132" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N132" t="s">
-        <v>601</v>
+        <v>641</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -7990,19 +8246,19 @@
         <v>506</v>
       </c>
       <c r="J133" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="K133" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L133">
         <v>1</v>
       </c>
       <c r="M133" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N133" t="s">
-        <v>602</v>
+        <v>642</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -8022,19 +8278,19 @@
         <v>506</v>
       </c>
       <c r="J134" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="K134" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L134">
         <v>1</v>
       </c>
       <c r="M134" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N134" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -8054,19 +8310,19 @@
         <v>506</v>
       </c>
       <c r="J135" t="s">
-        <v>516</v>
+        <v>545</v>
       </c>
       <c r="K135" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L135">
         <v>1</v>
       </c>
       <c r="M135" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N135" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -8086,19 +8342,19 @@
         <v>506</v>
       </c>
       <c r="J136" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="K136" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L136">
         <v>1</v>
       </c>
       <c r="M136" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N136" t="s">
-        <v>595</v>
+        <v>635</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -8118,19 +8374,19 @@
         <v>506</v>
       </c>
       <c r="J137" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="K137" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L137">
         <v>1</v>
       </c>
       <c r="M137" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N137" t="s">
-        <v>604</v>
+        <v>644</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -8150,19 +8406,19 @@
         <v>506</v>
       </c>
       <c r="J138" t="s">
-        <v>516</v>
+        <v>545</v>
       </c>
       <c r="K138" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L138">
         <v>1</v>
       </c>
       <c r="M138" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N138" t="s">
-        <v>605</v>
+        <v>645</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -8182,19 +8438,19 @@
         <v>506</v>
       </c>
       <c r="J139" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="K139" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L139">
         <v>1</v>
       </c>
       <c r="M139" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N139" t="s">
-        <v>606</v>
+        <v>646</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -8214,19 +8470,19 @@
         <v>506</v>
       </c>
       <c r="J140" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="K140" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L140">
         <v>1</v>
       </c>
       <c r="M140" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N140" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -10414,19 +10670,19 @@
         <v>506</v>
       </c>
       <c r="J190" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="K190" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L190">
         <v>1</v>
       </c>
       <c r="M190" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N190" t="s">
-        <v>608</v>
+        <v>648</v>
       </c>
     </row>
     <row r="191" spans="1:14">
@@ -10458,19 +10714,19 @@
         <v>506</v>
       </c>
       <c r="J191" t="s">
-        <v>519</v>
+        <v>548</v>
       </c>
       <c r="K191" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L191">
         <v>1</v>
       </c>
       <c r="M191" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N191" t="s">
-        <v>609</v>
+        <v>649</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -10502,19 +10758,19 @@
         <v>506</v>
       </c>
       <c r="J192" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="K192" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L192">
         <v>1</v>
       </c>
       <c r="M192" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N192" t="s">
-        <v>610</v>
+        <v>650</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -10546,19 +10802,19 @@
         <v>506</v>
       </c>
       <c r="J193" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="K193" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L193">
         <v>1</v>
       </c>
       <c r="M193" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N193" t="s">
-        <v>611</v>
+        <v>651</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -10590,19 +10846,19 @@
         <v>506</v>
       </c>
       <c r="J194" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="K194" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L194">
         <v>1</v>
       </c>
       <c r="M194" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N194" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -10634,19 +10890,19 @@
         <v>506</v>
       </c>
       <c r="J195" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="K195" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L195">
         <v>1</v>
       </c>
       <c r="M195" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N195" t="s">
-        <v>613</v>
+        <v>653</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -10678,19 +10934,19 @@
         <v>506</v>
       </c>
       <c r="J196" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="K196" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L196">
         <v>1</v>
       </c>
       <c r="M196" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N196" t="s">
-        <v>614</v>
+        <v>654</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -10722,19 +10978,19 @@
         <v>506</v>
       </c>
       <c r="J197" t="s">
-        <v>522</v>
+        <v>551</v>
       </c>
       <c r="K197" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L197">
         <v>1</v>
       </c>
       <c r="M197" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N197" t="s">
-        <v>615</v>
+        <v>655</v>
       </c>
     </row>
     <row r="198" spans="1:14">
@@ -10766,19 +11022,19 @@
         <v>506</v>
       </c>
       <c r="J198" t="s">
-        <v>523</v>
+        <v>552</v>
       </c>
       <c r="K198" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L198">
         <v>1</v>
       </c>
       <c r="M198" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N198" t="s">
-        <v>616</v>
+        <v>656</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -10810,19 +11066,19 @@
         <v>506</v>
       </c>
       <c r="J199" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
       <c r="K199" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L199">
         <v>1</v>
       </c>
       <c r="M199" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N199" t="s">
-        <v>617</v>
+        <v>657</v>
       </c>
     </row>
     <row r="200" spans="1:14">
@@ -10854,19 +11110,19 @@
         <v>506</v>
       </c>
       <c r="J200" t="s">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="K200" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L200">
         <v>1</v>
       </c>
       <c r="M200" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N200" t="s">
-        <v>618</v>
+        <v>658</v>
       </c>
     </row>
     <row r="201" spans="1:14">
@@ -10898,19 +11154,19 @@
         <v>506</v>
       </c>
       <c r="J201" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="K201" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L201">
         <v>1</v>
       </c>
       <c r="M201" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N201" t="s">
-        <v>619</v>
+        <v>659</v>
       </c>
     </row>
     <row r="202" spans="1:14">
@@ -10942,19 +11198,19 @@
         <v>506</v>
       </c>
       <c r="J202" t="s">
-        <v>526</v>
+        <v>555</v>
       </c>
       <c r="K202" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L202">
         <v>1</v>
       </c>
       <c r="M202" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N202" t="s">
-        <v>620</v>
+        <v>660</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -10986,19 +11242,19 @@
         <v>506</v>
       </c>
       <c r="J203" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="K203" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L203">
         <v>1</v>
       </c>
       <c r="M203" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N203" t="s">
-        <v>620</v>
+        <v>660</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -11030,19 +11286,19 @@
         <v>506</v>
       </c>
       <c r="J204" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="K204" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L204">
         <v>1</v>
       </c>
       <c r="M204" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N204" t="s">
-        <v>621</v>
+        <v>661</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -11074,19 +11330,19 @@
         <v>506</v>
       </c>
       <c r="J205" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="K205" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L205">
         <v>1</v>
       </c>
       <c r="M205" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N205" t="s">
-        <v>622</v>
+        <v>662</v>
       </c>
     </row>
     <row r="206" spans="1:14">
@@ -11118,19 +11374,19 @@
         <v>506</v>
       </c>
       <c r="J206" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="K206" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L206">
         <v>1</v>
       </c>
       <c r="M206" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N206" t="s">
-        <v>623</v>
+        <v>663</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -11162,19 +11418,19 @@
         <v>506</v>
       </c>
       <c r="J207" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="K207" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L207">
         <v>1</v>
       </c>
       <c r="M207" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N207" t="s">
-        <v>624</v>
+        <v>664</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -11206,19 +11462,19 @@
         <v>506</v>
       </c>
       <c r="J208" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="K208" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L208">
         <v>1</v>
       </c>
       <c r="M208" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N208" t="s">
-        <v>625</v>
+        <v>665</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -11250,19 +11506,19 @@
         <v>506</v>
       </c>
       <c r="J209" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="K209" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L209">
         <v>1</v>
       </c>
       <c r="M209" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N209" t="s">
-        <v>626</v>
+        <v>666</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -11294,19 +11550,19 @@
         <v>506</v>
       </c>
       <c r="J210" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="K210" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L210">
         <v>1</v>
       </c>
       <c r="M210" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N210" t="s">
-        <v>627</v>
+        <v>667</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -11338,19 +11594,19 @@
         <v>506</v>
       </c>
       <c r="J211" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="K211" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L211">
         <v>1</v>
       </c>
       <c r="M211" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N211" t="s">
-        <v>628</v>
+        <v>668</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -11382,13 +11638,13 @@
         <v>506</v>
       </c>
       <c r="K212" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L212">
         <v>1</v>
       </c>
       <c r="M212" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N212" t="s">
         <v>380</v>
@@ -11423,13 +11679,13 @@
         <v>506</v>
       </c>
       <c r="K213" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L213">
         <v>1</v>
       </c>
       <c r="M213" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N213" t="s">
         <v>380</v>
@@ -11464,19 +11720,19 @@
         <v>506</v>
       </c>
       <c r="J214" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="K214" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L214">
         <v>1</v>
       </c>
       <c r="M214" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N214" t="s">
-        <v>629</v>
+        <v>669</v>
       </c>
     </row>
     <row r="215" spans="1:14">
@@ -11508,19 +11764,19 @@
         <v>506</v>
       </c>
       <c r="J215" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="K215" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L215">
         <v>1</v>
       </c>
       <c r="M215" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N215" t="s">
-        <v>630</v>
+        <v>670</v>
       </c>
     </row>
     <row r="216" spans="1:14">
@@ -11552,19 +11808,19 @@
         <v>506</v>
       </c>
       <c r="J216" t="s">
-        <v>527</v>
+        <v>556</v>
       </c>
       <c r="K216" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L216">
         <v>1</v>
       </c>
       <c r="M216" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N216" t="s">
-        <v>631</v>
+        <v>671</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -11596,19 +11852,19 @@
         <v>506</v>
       </c>
       <c r="J217" t="s">
-        <v>516</v>
+        <v>545</v>
       </c>
       <c r="K217" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L217">
         <v>1</v>
       </c>
       <c r="M217" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N217" t="s">
-        <v>632</v>
+        <v>672</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -11640,19 +11896,19 @@
         <v>506</v>
       </c>
       <c r="J218" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="K218" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L218">
         <v>1</v>
       </c>
       <c r="M218" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N218" t="s">
-        <v>633</v>
+        <v>673</v>
       </c>
     </row>
     <row r="219" spans="1:14">
@@ -11684,19 +11940,19 @@
         <v>506</v>
       </c>
       <c r="J219" t="s">
-        <v>528</v>
+        <v>557</v>
       </c>
       <c r="K219" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L219">
         <v>1</v>
       </c>
       <c r="M219" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N219" t="s">
-        <v>634</v>
+        <v>674</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -11728,19 +11984,19 @@
         <v>506</v>
       </c>
       <c r="J220" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="K220" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L220">
         <v>1</v>
       </c>
       <c r="M220" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N220" t="s">
-        <v>635</v>
+        <v>675</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -11772,19 +12028,19 @@
         <v>506</v>
       </c>
       <c r="J221" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="K221" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L221">
         <v>1</v>
       </c>
       <c r="M221" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N221" t="s">
-        <v>636</v>
+        <v>676</v>
       </c>
     </row>
     <row r="222" spans="1:14">
@@ -11816,19 +12072,19 @@
         <v>506</v>
       </c>
       <c r="J222" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="K222" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L222">
         <v>1</v>
       </c>
       <c r="M222" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N222" t="s">
-        <v>637</v>
+        <v>677</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -11860,19 +12116,19 @@
         <v>506</v>
       </c>
       <c r="J223" t="s">
-        <v>529</v>
+        <v>558</v>
       </c>
       <c r="K223" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L223">
         <v>1</v>
       </c>
       <c r="M223" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N223" t="s">
-        <v>638</v>
+        <v>678</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -11904,19 +12160,19 @@
         <v>506</v>
       </c>
       <c r="J224" t="s">
-        <v>530</v>
+        <v>559</v>
       </c>
       <c r="K224" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L224">
         <v>1</v>
       </c>
       <c r="M224" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N224" t="s">
-        <v>639</v>
+        <v>679</v>
       </c>
     </row>
     <row r="225" spans="1:14">
@@ -11948,19 +12204,19 @@
         <v>506</v>
       </c>
       <c r="J225" t="s">
-        <v>531</v>
+        <v>560</v>
       </c>
       <c r="K225" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L225">
         <v>1</v>
       </c>
       <c r="M225" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N225" t="s">
-        <v>640</v>
+        <v>680</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -11992,19 +12248,19 @@
         <v>506</v>
       </c>
       <c r="J226" t="s">
-        <v>532</v>
+        <v>561</v>
       </c>
       <c r="K226" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L226">
         <v>2</v>
       </c>
       <c r="M226" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N226" t="s">
-        <v>641</v>
+        <v>681</v>
       </c>
     </row>
     <row r="227" spans="1:14">
@@ -12036,19 +12292,19 @@
         <v>506</v>
       </c>
       <c r="J227" t="s">
-        <v>533</v>
+        <v>562</v>
       </c>
       <c r="K227" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L227">
         <v>2</v>
       </c>
       <c r="M227" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N227" t="s">
-        <v>642</v>
+        <v>682</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -12080,19 +12336,19 @@
         <v>506</v>
       </c>
       <c r="J228" t="s">
-        <v>534</v>
+        <v>563</v>
       </c>
       <c r="K228" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L228">
         <v>2</v>
       </c>
       <c r="M228" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N228" t="s">
-        <v>643</v>
+        <v>683</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -12124,19 +12380,19 @@
         <v>506</v>
       </c>
       <c r="J229" t="s">
-        <v>535</v>
+        <v>564</v>
       </c>
       <c r="K229" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L229">
         <v>2</v>
       </c>
       <c r="M229" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N229" t="s">
-        <v>644</v>
+        <v>684</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -12168,19 +12424,19 @@
         <v>506</v>
       </c>
       <c r="J230" t="s">
-        <v>536</v>
+        <v>565</v>
       </c>
       <c r="K230" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L230">
         <v>2</v>
       </c>
       <c r="M230" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N230" t="s">
-        <v>645</v>
+        <v>685</v>
       </c>
     </row>
     <row r="231" spans="1:14">
@@ -12212,19 +12468,19 @@
         <v>506</v>
       </c>
       <c r="J231" t="s">
-        <v>537</v>
+        <v>566</v>
       </c>
       <c r="K231" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L231">
         <v>2</v>
       </c>
       <c r="M231" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N231" t="s">
-        <v>646</v>
+        <v>686</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -12256,19 +12512,19 @@
         <v>506</v>
       </c>
       <c r="J232" t="s">
-        <v>538</v>
+        <v>567</v>
       </c>
       <c r="K232" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L232">
         <v>2</v>
       </c>
       <c r="M232" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N232" t="s">
-        <v>647</v>
+        <v>687</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -12300,19 +12556,19 @@
         <v>506</v>
       </c>
       <c r="J233" t="s">
-        <v>539</v>
+        <v>568</v>
       </c>
       <c r="K233" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L233">
         <v>2</v>
       </c>
       <c r="M233" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N233" t="s">
-        <v>648</v>
+        <v>688</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -12344,19 +12600,19 @@
         <v>506</v>
       </c>
       <c r="J234" t="s">
-        <v>540</v>
+        <v>569</v>
       </c>
       <c r="K234" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L234">
         <v>2</v>
       </c>
       <c r="M234" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N234" t="s">
-        <v>649</v>
+        <v>689</v>
       </c>
     </row>
     <row r="235" spans="1:14">
@@ -12388,19 +12644,19 @@
         <v>506</v>
       </c>
       <c r="J235" t="s">
-        <v>541</v>
+        <v>570</v>
       </c>
       <c r="K235" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L235">
         <v>2</v>
       </c>
       <c r="M235" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N235" t="s">
-        <v>650</v>
+        <v>690</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -12432,19 +12688,19 @@
         <v>506</v>
       </c>
       <c r="J236" t="s">
-        <v>542</v>
+        <v>571</v>
       </c>
       <c r="K236" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L236">
         <v>2</v>
       </c>
       <c r="M236" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N236" t="s">
-        <v>651</v>
+        <v>691</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -12476,19 +12732,19 @@
         <v>506</v>
       </c>
       <c r="J237" t="s">
-        <v>543</v>
+        <v>572</v>
       </c>
       <c r="K237" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L237">
         <v>3</v>
       </c>
       <c r="M237" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N237" t="s">
-        <v>652</v>
+        <v>692</v>
       </c>
     </row>
     <row r="238" spans="1:14">
@@ -12520,19 +12776,19 @@
         <v>506</v>
       </c>
       <c r="J238" t="s">
-        <v>544</v>
+        <v>573</v>
       </c>
       <c r="K238" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L238">
         <v>3</v>
       </c>
       <c r="M238" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N238" t="s">
-        <v>652</v>
+        <v>692</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -12564,19 +12820,19 @@
         <v>506</v>
       </c>
       <c r="J239" t="s">
-        <v>545</v>
+        <v>574</v>
       </c>
       <c r="K239" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L239">
         <v>3</v>
       </c>
       <c r="M239" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N239" t="s">
-        <v>653</v>
+        <v>693</v>
       </c>
     </row>
     <row r="240" spans="1:14">
@@ -12608,19 +12864,19 @@
         <v>506</v>
       </c>
       <c r="J240" t="s">
-        <v>546</v>
+        <v>575</v>
       </c>
       <c r="K240" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L240">
         <v>3</v>
       </c>
       <c r="M240" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N240" t="s">
-        <v>654</v>
+        <v>694</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -12652,19 +12908,19 @@
         <v>506</v>
       </c>
       <c r="J241" t="s">
-        <v>547</v>
+        <v>576</v>
       </c>
       <c r="K241" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L241">
         <v>3</v>
       </c>
       <c r="M241" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N241" t="s">
-        <v>655</v>
+        <v>695</v>
       </c>
     </row>
     <row r="242" spans="1:14">
@@ -12696,19 +12952,19 @@
         <v>506</v>
       </c>
       <c r="J242" t="s">
-        <v>548</v>
+        <v>577</v>
       </c>
       <c r="K242" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L242">
         <v>3</v>
       </c>
       <c r="M242" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N242" t="s">
-        <v>652</v>
+        <v>692</v>
       </c>
     </row>
     <row r="243" spans="1:14">
@@ -12740,19 +12996,19 @@
         <v>508</v>
       </c>
       <c r="J243" t="s">
-        <v>549</v>
+        <v>578</v>
       </c>
       <c r="K243" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L243">
         <v>3</v>
       </c>
       <c r="M243" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="N243" t="s">
-        <v>656</v>
+        <v>696</v>
       </c>
     </row>
     <row r="244" spans="1:14">
@@ -12784,19 +13040,19 @@
         <v>508</v>
       </c>
       <c r="J244" t="s">
-        <v>550</v>
+        <v>579</v>
       </c>
       <c r="K244" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L244">
         <v>3</v>
       </c>
       <c r="M244" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="N244" t="s">
-        <v>657</v>
+        <v>697</v>
       </c>
     </row>
     <row r="245" spans="1:14">
@@ -12828,19 +13084,19 @@
         <v>508</v>
       </c>
       <c r="J245" t="s">
-        <v>551</v>
+        <v>580</v>
       </c>
       <c r="K245" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L245">
         <v>3</v>
       </c>
       <c r="M245" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="N245" t="s">
-        <v>658</v>
+        <v>698</v>
       </c>
     </row>
     <row r="246" spans="1:14">
@@ -12872,19 +13128,19 @@
         <v>508</v>
       </c>
       <c r="J246" t="s">
-        <v>552</v>
+        <v>581</v>
       </c>
       <c r="K246" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L246">
         <v>3</v>
       </c>
       <c r="M246" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="N246" t="s">
-        <v>659</v>
+        <v>699</v>
       </c>
     </row>
     <row r="247" spans="1:14">
@@ -12916,19 +13172,19 @@
         <v>508</v>
       </c>
       <c r="J247" t="s">
-        <v>553</v>
+        <v>582</v>
       </c>
       <c r="K247" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L247">
         <v>3</v>
       </c>
       <c r="M247" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="N247" t="s">
-        <v>660</v>
+        <v>700</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -12960,19 +13216,19 @@
         <v>508</v>
       </c>
       <c r="J248" t="s">
-        <v>554</v>
+        <v>583</v>
       </c>
       <c r="K248" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L248">
         <v>3</v>
       </c>
       <c r="M248" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="N248" t="s">
-        <v>661</v>
+        <v>701</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -13004,19 +13260,19 @@
         <v>506</v>
       </c>
       <c r="J249" t="s">
-        <v>555</v>
+        <v>584</v>
       </c>
       <c r="K249" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L249">
         <v>3</v>
       </c>
       <c r="M249" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N249" t="s">
-        <v>662</v>
+        <v>702</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -13048,19 +13304,19 @@
         <v>506</v>
       </c>
       <c r="J250" t="s">
-        <v>556</v>
+        <v>585</v>
       </c>
       <c r="K250" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L250">
         <v>3</v>
       </c>
       <c r="M250" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N250" t="s">
-        <v>663</v>
+        <v>703</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -13092,19 +13348,19 @@
         <v>506</v>
       </c>
       <c r="J251" t="s">
-        <v>557</v>
+        <v>586</v>
       </c>
       <c r="K251" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L251">
         <v>3</v>
       </c>
       <c r="M251" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N251" t="s">
-        <v>664</v>
+        <v>704</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -13136,19 +13392,19 @@
         <v>506</v>
       </c>
       <c r="J252" t="s">
-        <v>558</v>
+        <v>587</v>
       </c>
       <c r="K252" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L252">
         <v>3</v>
       </c>
       <c r="M252" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N252" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
     </row>
     <row r="253" spans="1:14">
@@ -13180,19 +13436,19 @@
         <v>506</v>
       </c>
       <c r="J253" t="s">
-        <v>559</v>
+        <v>588</v>
       </c>
       <c r="K253" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L253">
         <v>3</v>
       </c>
       <c r="M253" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N253" t="s">
-        <v>666</v>
+        <v>706</v>
       </c>
     </row>
     <row r="254" spans="1:14">
@@ -13224,19 +13480,19 @@
         <v>506</v>
       </c>
       <c r="J254" t="s">
-        <v>560</v>
+        <v>589</v>
       </c>
       <c r="K254" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L254">
         <v>3</v>
       </c>
       <c r="M254" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N254" t="s">
-        <v>667</v>
+        <v>707</v>
       </c>
     </row>
     <row r="255" spans="1:14">
@@ -13268,19 +13524,19 @@
         <v>507</v>
       </c>
       <c r="J255" t="s">
-        <v>561</v>
+        <v>590</v>
       </c>
       <c r="K255" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L255">
         <v>4</v>
       </c>
       <c r="M255" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="N255" t="s">
-        <v>668</v>
+        <v>708</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -13312,19 +13568,19 @@
         <v>507</v>
       </c>
       <c r="J256" t="s">
-        <v>561</v>
+        <v>590</v>
       </c>
       <c r="K256" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L256">
         <v>4</v>
       </c>
       <c r="M256" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="N256" t="s">
-        <v>669</v>
+        <v>709</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -13356,19 +13612,19 @@
         <v>507</v>
       </c>
       <c r="J257" t="s">
-        <v>562</v>
+        <v>591</v>
       </c>
       <c r="K257" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L257">
         <v>4</v>
       </c>
       <c r="M257" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="N257" t="s">
-        <v>670</v>
+        <v>710</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -13400,19 +13656,19 @@
         <v>507</v>
       </c>
       <c r="J258" t="s">
-        <v>561</v>
+        <v>590</v>
       </c>
       <c r="K258" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L258">
         <v>4</v>
       </c>
       <c r="M258" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="N258" t="s">
-        <v>669</v>
+        <v>709</v>
       </c>
     </row>
     <row r="259" spans="1:14">
@@ -13444,19 +13700,19 @@
         <v>507</v>
       </c>
       <c r="J259" t="s">
-        <v>562</v>
+        <v>591</v>
       </c>
       <c r="K259" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L259">
         <v>4</v>
       </c>
       <c r="M259" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="N259" t="s">
-        <v>670</v>
+        <v>710</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -13488,19 +13744,19 @@
         <v>507</v>
       </c>
       <c r="J260" t="s">
-        <v>563</v>
+        <v>592</v>
       </c>
       <c r="K260" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L260">
         <v>4</v>
       </c>
       <c r="M260" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="N260" t="s">
-        <v>671</v>
+        <v>711</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -13532,19 +13788,19 @@
         <v>509</v>
       </c>
       <c r="J261" t="s">
-        <v>564</v>
+        <v>593</v>
       </c>
       <c r="K261" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L261">
         <v>4</v>
       </c>
       <c r="M261" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="N261" t="s">
-        <v>672</v>
+        <v>712</v>
       </c>
     </row>
     <row r="262" spans="1:14">
@@ -13576,19 +13832,19 @@
         <v>506</v>
       </c>
       <c r="J262" t="s">
-        <v>565</v>
+        <v>594</v>
       </c>
       <c r="K262" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L262">
         <v>4</v>
       </c>
       <c r="M262" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N262" t="s">
-        <v>673</v>
+        <v>713</v>
       </c>
     </row>
     <row r="263" spans="1:14">
@@ -13620,19 +13876,19 @@
         <v>506</v>
       </c>
       <c r="J263" t="s">
-        <v>566</v>
+        <v>595</v>
       </c>
       <c r="K263" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L263">
         <v>4</v>
       </c>
       <c r="M263" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N263" t="s">
-        <v>674</v>
+        <v>714</v>
       </c>
     </row>
     <row r="264" spans="1:14">
@@ -13664,19 +13920,19 @@
         <v>506</v>
       </c>
       <c r="J264" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="K264" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L264">
         <v>4</v>
       </c>
       <c r="M264" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N264" t="s">
-        <v>675</v>
+        <v>715</v>
       </c>
     </row>
     <row r="265" spans="1:14">
@@ -13708,19 +13964,19 @@
         <v>507</v>
       </c>
       <c r="J265" t="s">
-        <v>567</v>
+        <v>596</v>
       </c>
       <c r="K265" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L265">
         <v>4</v>
       </c>
       <c r="M265" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="N265" t="s">
-        <v>676</v>
+        <v>716</v>
       </c>
     </row>
     <row r="266" spans="1:14">
@@ -13752,19 +14008,19 @@
         <v>507</v>
       </c>
       <c r="J266" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
       <c r="K266" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L266">
         <v>4</v>
       </c>
       <c r="M266" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="N266" t="s">
-        <v>677</v>
+        <v>717</v>
       </c>
     </row>
     <row r="267" spans="1:14">
@@ -13796,19 +14052,19 @@
         <v>506</v>
       </c>
       <c r="J267" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
       <c r="K267" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L267">
         <v>4</v>
       </c>
       <c r="M267" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N267" t="s">
-        <v>678</v>
+        <v>718</v>
       </c>
     </row>
     <row r="268" spans="1:14">
@@ -13840,19 +14096,19 @@
         <v>506</v>
       </c>
       <c r="J268" t="s">
-        <v>570</v>
+        <v>599</v>
       </c>
       <c r="K268" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L268">
         <v>4</v>
       </c>
       <c r="M268" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="N268" t="s">
-        <v>679</v>
+        <v>719</v>
       </c>
     </row>
     <row r="269" spans="1:14">
@@ -13884,19 +14140,19 @@
         <v>507</v>
       </c>
       <c r="J269" t="s">
-        <v>571</v>
+        <v>600</v>
       </c>
       <c r="K269" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L269">
         <v>4</v>
       </c>
       <c r="M269" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="N269" t="s">
-        <v>680</v>
+        <v>720</v>
       </c>
     </row>
     <row r="270" spans="1:14">
@@ -13928,19 +14184,19 @@
         <v>510</v>
       </c>
       <c r="J270" t="s">
-        <v>572</v>
+        <v>601</v>
       </c>
       <c r="K270" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L270">
         <v>4</v>
       </c>
       <c r="M270" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="N270" t="s">
-        <v>681</v>
+        <v>721</v>
       </c>
     </row>
     <row r="271" spans="1:14">
@@ -13972,19 +14228,19 @@
         <v>507</v>
       </c>
       <c r="J271" t="s">
-        <v>573</v>
+        <v>602</v>
       </c>
       <c r="K271" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L271">
         <v>4</v>
       </c>
       <c r="M271" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="N271" t="s">
-        <v>682</v>
+        <v>722</v>
       </c>
     </row>
     <row r="272" spans="1:14">
@@ -14016,19 +14272,19 @@
         <v>510</v>
       </c>
       <c r="J272" t="s">
-        <v>574</v>
+        <v>603</v>
       </c>
       <c r="K272" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="L272">
         <v>4</v>
       </c>
       <c r="M272" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="N272" t="s">
-        <v>683</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>

--- a/docs/content_sample/problems.xlsx
+++ b/docs/content_sample/problems.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3543" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="743">
   <si>
     <t>URL</t>
   </si>
@@ -1775,6 +1775,76 @@
 print(odd_sum, even_sum)</t>
   </si>
   <si>
+    <t>print(f"{'name':&gt;10}{'kor':&gt;10}{'mat':&gt;10}{'tot':&gt;10}{'avg':&gt;10}")
+print(f"{'aaa':&gt;10}{55:&gt;10}{95:&gt;10}{150:&gt;10}{75:&gt;10}")
+print(f"{'bbb':&gt;10}{100:&gt;10}{90:&gt;10}{190:&gt;10}{95:&gt;10}")
+print(f"{'ggg':&gt;10}{88:&gt;10}{100:&gt;10}{188:&gt;10}{94:&gt;10}")</t>
+  </si>
+  <si>
+    <t>s = input()
+upper_count = 0
+lower_count = 0
+digit_count = 0
+for char in s:
+    if char.isupper():
+        upper_count += 1
+    elif char.islower():
+        lower_count += 1
+    elif char.isdigit():
+        digit_count += 1
+print(upper_count, lower_count, digit_count)</t>
+  </si>
+  <si>
+    <t>N = int(input())
+for i in range(1, N+1):
+    spaces = " " * (N - i)
+    stars = "*" * i
+    print(spaces + stars)</t>
+  </si>
+  <si>
+    <t>a,b,c,d = map(int, input().split())
+sum = a+b+c+d
+avg = sum/4
+print("sum =", sum)
+print("avg = {:.1f}".format(avg))</t>
+  </si>
+  <si>
+    <t>a,b = map(int, input().split())
+if a%2==0 and b%2==0:
+    print(a+b)
+else:
+    if a%2==0:
+        print(a-b)
+    else:
+        print(b-a)</t>
+  </si>
+  <si>
+    <t>n = int(input())
+a = 1
+while a &lt;= n:
+    if a % 3 == 0 or a % 7 == 0:
+        print(a, end=' ')
+    a += 1</t>
+  </si>
+  <si>
+    <t>n = int(input())
+a = 1
+while a&lt;=9:
+    print( )   # ← 여기에 출력 코드가 들어가야 합니다
+    a += 1</t>
+  </si>
+  <si>
+    <t>n, m = map(int, input().split())
+for i in range(n):
+    for j in range(m):
+        print(i + j + 1, end=' ')
+    print()</t>
+  </si>
+  <si>
+    <t>arr = list(map(int, input().split()))
+print(max(arr), min(arr))</t>
+  </si>
+  <si>
     <t>{"answer":"3","choices":["①","②","③","④","⑤"]}</t>
   </si>
   <si>
@@ -1976,6 +2046,33 @@
     <t>[]</t>
   </si>
   <si>
+    <t>[{"input": "", "output": "name       kor       mat       tot       avg\n       aaa        55        95       150        75\n       bbb       100        90       190        95\n       ggg        88       100       188        94", "desc": "자동 생성된 예시"}]</t>
+  </si>
+  <si>
+    <t>[{"input": "5", "output": "0 0 1", "desc": "자동 생성된 예시"}]</t>
+  </si>
+  <si>
+    <t>[{"input": "5", "output": "*\n   **\n  ***\n ****\n*****", "desc": "자동 생성된 예시"}]</t>
+  </si>
+  <si>
+    <t>[{"input": "확인 필요", "output": "실행 오류", "desc": "입력값 탐색 실패"}]</t>
+  </si>
+  <si>
+    <t>[{"input": "5 3", "output": "-2", "desc": "자동 생성된 예시"}]</t>
+  </si>
+  <si>
+    <t>[{"input": "5", "output": "3", "desc": "자동 생성된 예시"}]</t>
+  </si>
+  <si>
+    <t>[{"input": "5", "output": "", "desc": "자동 생성된 예시"}]</t>
+  </si>
+  <si>
+    <t>[{"input": "5 3", "output": "1 2 3 \n2 3 4 \n3 4 5 \n4 5 6 \n5 6 7", "desc": "자동 생성된 예시"}]</t>
+  </si>
+  <si>
+    <t>[{"input": "5", "output": "5 5", "desc": "자동 생성된 예시"}]</t>
+  </si>
+  <si>
     <t>없음</t>
   </si>
   <si>
@@ -2010,6 +2107,9 @@
   </si>
   <si>
     <t>if,loop,print</t>
+  </si>
+  <si>
+    <t>basic</t>
   </si>
   <si>
     <t>한붓그리기, 도형, 사고력</t>
@@ -3641,16 +3741,16 @@
         <v>511</v>
       </c>
       <c r="K22" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N22" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -3685,16 +3785,16 @@
         <v>512</v>
       </c>
       <c r="K23" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N23" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -3729,16 +3829,16 @@
         <v>513</v>
       </c>
       <c r="K24" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N24" t="s">
-        <v>613</v>
+        <v>631</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -3773,16 +3873,16 @@
         <v>514</v>
       </c>
       <c r="K25" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N25" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -3817,16 +3917,16 @@
         <v>515</v>
       </c>
       <c r="K26" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N26" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -3861,16 +3961,16 @@
         <v>516</v>
       </c>
       <c r="K27" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N27" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -3905,16 +4005,16 @@
         <v>517</v>
       </c>
       <c r="K28" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N28" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -3949,16 +4049,16 @@
         <v>518</v>
       </c>
       <c r="K29" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N29" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -3993,16 +4093,16 @@
         <v>519</v>
       </c>
       <c r="K30" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N30" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -4037,16 +4137,16 @@
         <v>520</v>
       </c>
       <c r="K31" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N31" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -4125,16 +4225,16 @@
         <v>521</v>
       </c>
       <c r="K33" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N33" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -4169,16 +4269,16 @@
         <v>522</v>
       </c>
       <c r="K34" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N34" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -4213,16 +4313,16 @@
         <v>523</v>
       </c>
       <c r="K35" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N35" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -4257,16 +4357,16 @@
         <v>524</v>
       </c>
       <c r="K36" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N36" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -4301,16 +4401,16 @@
         <v>525</v>
       </c>
       <c r="K37" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N37" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -4345,16 +4445,16 @@
         <v>526</v>
       </c>
       <c r="K38" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
       <c r="M38" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N38" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -4389,16 +4489,16 @@
         <v>527</v>
       </c>
       <c r="K39" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
       <c r="M39" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N39" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -4433,16 +4533,16 @@
         <v>528</v>
       </c>
       <c r="K40" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="L40">
         <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N40" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -4477,16 +4577,16 @@
         <v>529</v>
       </c>
       <c r="K41" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
       <c r="M41" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N41" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -4521,16 +4621,16 @@
         <v>530</v>
       </c>
       <c r="K42" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="L42">
         <v>1</v>
       </c>
       <c r="M42" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N42" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -4565,16 +4665,16 @@
         <v>531</v>
       </c>
       <c r="K43" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="L43">
         <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N43" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -4609,16 +4709,16 @@
         <v>532</v>
       </c>
       <c r="K44" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="L44">
         <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N44" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -4653,16 +4753,16 @@
         <v>533</v>
       </c>
       <c r="K45" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="L45">
         <v>1</v>
       </c>
       <c r="M45" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N45" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -4697,16 +4797,16 @@
         <v>534</v>
       </c>
       <c r="K46" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="L46">
         <v>1</v>
       </c>
       <c r="M46" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N46" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -4741,16 +4841,16 @@
         <v>535</v>
       </c>
       <c r="K47" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="L47">
         <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N47" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -4785,16 +4885,16 @@
         <v>536</v>
       </c>
       <c r="K48" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="L48">
         <v>1</v>
       </c>
       <c r="M48" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N48" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -4829,16 +4929,16 @@
         <v>537</v>
       </c>
       <c r="K49" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="L49">
         <v>1</v>
       </c>
       <c r="M49" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N49" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -4873,16 +4973,16 @@
         <v>538</v>
       </c>
       <c r="K50" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="L50">
         <v>1</v>
       </c>
       <c r="M50" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N50" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -4917,16 +5017,16 @@
         <v>539</v>
       </c>
       <c r="K51" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="L51">
         <v>1</v>
       </c>
       <c r="M51" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N51" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -4961,16 +5061,16 @@
         <v>540</v>
       </c>
       <c r="K52" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="L52">
         <v>1</v>
       </c>
       <c r="M52" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N52" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -4999,22 +5099,22 @@
         <v>503</v>
       </c>
       <c r="I53" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J53" t="s">
-        <v>380</v>
+        <v>541</v>
       </c>
       <c r="K53" t="s">
-        <v>380</v>
-      </c>
-      <c r="L53" t="s">
-        <v>380</v>
+        <v>617</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
       </c>
       <c r="M53" t="s">
-        <v>380</v>
+        <v>627</v>
       </c>
       <c r="N53" t="s">
-        <v>380</v>
+        <v>632</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -5043,22 +5143,22 @@
         <v>503</v>
       </c>
       <c r="I54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J54" t="s">
-        <v>380</v>
+        <v>542</v>
       </c>
       <c r="K54" t="s">
-        <v>380</v>
-      </c>
-      <c r="L54" t="s">
-        <v>380</v>
+        <v>618</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
       </c>
       <c r="M54" t="s">
-        <v>380</v>
+        <v>627</v>
       </c>
       <c r="N54" t="s">
-        <v>380</v>
+        <v>637</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -5087,22 +5187,22 @@
         <v>503</v>
       </c>
       <c r="I55" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J55" t="s">
-        <v>380</v>
+        <v>543</v>
       </c>
       <c r="K55" t="s">
-        <v>380</v>
-      </c>
-      <c r="L55" t="s">
-        <v>380</v>
+        <v>619</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
       </c>
       <c r="M55" t="s">
-        <v>380</v>
+        <v>627</v>
       </c>
       <c r="N55" t="s">
-        <v>380</v>
+        <v>634</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -5131,22 +5231,22 @@
         <v>503</v>
       </c>
       <c r="I56" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J56" t="s">
-        <v>380</v>
+        <v>544</v>
       </c>
       <c r="K56" t="s">
-        <v>380</v>
-      </c>
-      <c r="L56" t="s">
-        <v>380</v>
+        <v>620</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
       </c>
       <c r="M56" t="s">
-        <v>380</v>
+        <v>627</v>
       </c>
       <c r="N56" t="s">
-        <v>380</v>
+        <v>634</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -5175,22 +5275,22 @@
         <v>503</v>
       </c>
       <c r="I57" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J57" t="s">
-        <v>380</v>
+        <v>545</v>
       </c>
       <c r="K57" t="s">
-        <v>380</v>
-      </c>
-      <c r="L57" t="s">
-        <v>380</v>
+        <v>621</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
       </c>
       <c r="M57" t="s">
-        <v>380</v>
+        <v>627</v>
       </c>
       <c r="N57" t="s">
-        <v>380</v>
+        <v>633</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -5219,22 +5319,22 @@
         <v>503</v>
       </c>
       <c r="I58" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J58" t="s">
-        <v>380</v>
+        <v>546</v>
       </c>
       <c r="K58" t="s">
-        <v>380</v>
-      </c>
-      <c r="L58" t="s">
-        <v>380</v>
+        <v>622</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>380</v>
+        <v>627</v>
       </c>
       <c r="N58" t="s">
-        <v>380</v>
+        <v>637</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -5263,22 +5363,22 @@
         <v>503</v>
       </c>
       <c r="I59" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J59" t="s">
-        <v>380</v>
+        <v>547</v>
       </c>
       <c r="K59" t="s">
-        <v>380</v>
-      </c>
-      <c r="L59" t="s">
-        <v>380</v>
+        <v>623</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
       </c>
       <c r="M59" t="s">
-        <v>380</v>
+        <v>627</v>
       </c>
       <c r="N59" t="s">
-        <v>380</v>
+        <v>634</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -5307,22 +5407,22 @@
         <v>503</v>
       </c>
       <c r="I60" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J60" t="s">
-        <v>380</v>
+        <v>548</v>
       </c>
       <c r="K60" t="s">
-        <v>380</v>
-      </c>
-      <c r="L60" t="s">
-        <v>380</v>
+        <v>624</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
       </c>
       <c r="M60" t="s">
-        <v>380</v>
+        <v>627</v>
       </c>
       <c r="N60" t="s">
-        <v>380</v>
+        <v>634</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -5351,22 +5451,19 @@
         <v>503</v>
       </c>
       <c r="I61" t="s">
-        <v>504</v>
-      </c>
-      <c r="J61" t="s">
-        <v>380</v>
+        <v>505</v>
       </c>
       <c r="K61" t="s">
-        <v>380</v>
-      </c>
-      <c r="L61" t="s">
-        <v>380</v>
+        <v>616</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
       </c>
       <c r="M61" t="s">
-        <v>380</v>
+        <v>627</v>
       </c>
       <c r="N61" t="s">
-        <v>380</v>
+        <v>638</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -5395,22 +5492,22 @@
         <v>503</v>
       </c>
       <c r="I62" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J62" t="s">
-        <v>380</v>
+        <v>549</v>
       </c>
       <c r="K62" t="s">
-        <v>380</v>
-      </c>
-      <c r="L62" t="s">
-        <v>380</v>
+        <v>625</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
       </c>
       <c r="M62" t="s">
-        <v>380</v>
+        <v>627</v>
       </c>
       <c r="N62" t="s">
-        <v>380</v>
+        <v>632</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -7542,19 +7639,19 @@
         <v>506</v>
       </c>
       <c r="J111" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="K111" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L111">
         <v>1</v>
       </c>
       <c r="M111" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N111" t="s">
-        <v>620</v>
+        <v>639</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -7574,19 +7671,19 @@
         <v>506</v>
       </c>
       <c r="J112" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="K112" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L112">
         <v>1</v>
       </c>
       <c r="M112" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N112" t="s">
-        <v>621</v>
+        <v>640</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -7606,19 +7703,19 @@
         <v>507</v>
       </c>
       <c r="J113" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="K113" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L113">
         <v>1</v>
       </c>
       <c r="M113" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N113" t="s">
-        <v>622</v>
+        <v>641</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -7638,19 +7735,19 @@
         <v>507</v>
       </c>
       <c r="J114" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="K114" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L114">
         <v>1</v>
       </c>
       <c r="M114" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N114" t="s">
-        <v>623</v>
+        <v>642</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -7670,19 +7767,19 @@
         <v>506</v>
       </c>
       <c r="J115" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="K115" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L115">
         <v>1</v>
       </c>
       <c r="M115" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N115" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -7702,19 +7799,19 @@
         <v>506</v>
       </c>
       <c r="J116" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="K116" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L116">
         <v>1</v>
       </c>
       <c r="M116" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N116" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -7734,19 +7831,19 @@
         <v>506</v>
       </c>
       <c r="J117" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="K117" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L117">
         <v>1</v>
       </c>
       <c r="M117" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N117" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -7766,19 +7863,19 @@
         <v>506</v>
       </c>
       <c r="J118" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="K118" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L118">
         <v>1</v>
       </c>
       <c r="M118" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N118" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -7798,19 +7895,19 @@
         <v>506</v>
       </c>
       <c r="J119" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="K119" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L119">
         <v>1</v>
       </c>
       <c r="M119" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N119" t="s">
-        <v>628</v>
+        <v>647</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -7830,19 +7927,19 @@
         <v>506</v>
       </c>
       <c r="J120" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="K120" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L120">
         <v>1</v>
       </c>
       <c r="M120" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N120" t="s">
-        <v>629</v>
+        <v>648</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -7862,19 +7959,19 @@
         <v>506</v>
       </c>
       <c r="J121" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="K121" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L121">
         <v>1</v>
       </c>
       <c r="M121" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N121" t="s">
-        <v>630</v>
+        <v>649</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -7894,19 +7991,19 @@
         <v>506</v>
       </c>
       <c r="J122" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="K122" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L122">
         <v>1</v>
       </c>
       <c r="M122" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N122" t="s">
-        <v>631</v>
+        <v>650</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -7926,19 +8023,19 @@
         <v>506</v>
       </c>
       <c r="J123" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="K123" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L123">
         <v>1</v>
       </c>
       <c r="M123" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N123" t="s">
-        <v>632</v>
+        <v>651</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -7958,19 +8055,19 @@
         <v>506</v>
       </c>
       <c r="J124" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="K124" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L124">
         <v>1</v>
       </c>
       <c r="M124" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N124" t="s">
-        <v>633</v>
+        <v>652</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -7990,19 +8087,19 @@
         <v>506</v>
       </c>
       <c r="J125" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="K125" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L125">
         <v>1</v>
       </c>
       <c r="M125" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N125" t="s">
-        <v>634</v>
+        <v>653</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -8022,19 +8119,19 @@
         <v>506</v>
       </c>
       <c r="J126" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="K126" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L126">
         <v>1</v>
       </c>
       <c r="M126" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N126" t="s">
-        <v>635</v>
+        <v>654</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -8054,19 +8151,19 @@
         <v>506</v>
       </c>
       <c r="J127" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="K127" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L127">
         <v>1</v>
       </c>
       <c r="M127" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N127" t="s">
-        <v>636</v>
+        <v>655</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -8086,19 +8183,19 @@
         <v>506</v>
       </c>
       <c r="J128" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="K128" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L128">
         <v>1</v>
       </c>
       <c r="M128" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N128" t="s">
-        <v>637</v>
+        <v>656</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -8118,19 +8215,19 @@
         <v>506</v>
       </c>
       <c r="J129" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="K129" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L129">
         <v>1</v>
       </c>
       <c r="M129" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N129" t="s">
-        <v>638</v>
+        <v>657</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -8150,19 +8247,19 @@
         <v>506</v>
       </c>
       <c r="J130" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="K130" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L130">
         <v>1</v>
       </c>
       <c r="M130" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N130" t="s">
-        <v>639</v>
+        <v>658</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -8182,19 +8279,19 @@
         <v>506</v>
       </c>
       <c r="J131" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="K131" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L131">
         <v>1</v>
       </c>
       <c r="M131" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N131" t="s">
-        <v>640</v>
+        <v>659</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -8214,19 +8311,19 @@
         <v>506</v>
       </c>
       <c r="J132" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="K132" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L132">
         <v>1</v>
       </c>
       <c r="M132" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N132" t="s">
-        <v>641</v>
+        <v>660</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -8246,19 +8343,19 @@
         <v>506</v>
       </c>
       <c r="J133" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="K133" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L133">
         <v>1</v>
       </c>
       <c r="M133" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N133" t="s">
-        <v>642</v>
+        <v>661</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -8278,19 +8375,19 @@
         <v>506</v>
       </c>
       <c r="J134" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="K134" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L134">
         <v>1</v>
       </c>
       <c r="M134" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N134" t="s">
-        <v>643</v>
+        <v>662</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -8310,19 +8407,19 @@
         <v>506</v>
       </c>
       <c r="J135" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="K135" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L135">
         <v>1</v>
       </c>
       <c r="M135" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N135" t="s">
-        <v>639</v>
+        <v>658</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -8342,19 +8439,19 @@
         <v>506</v>
       </c>
       <c r="J136" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="K136" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L136">
         <v>1</v>
       </c>
       <c r="M136" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N136" t="s">
-        <v>635</v>
+        <v>654</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -8374,19 +8471,19 @@
         <v>506</v>
       </c>
       <c r="J137" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="K137" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L137">
         <v>1</v>
       </c>
       <c r="M137" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N137" t="s">
-        <v>644</v>
+        <v>663</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -8406,19 +8503,19 @@
         <v>506</v>
       </c>
       <c r="J138" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="K138" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L138">
         <v>1</v>
       </c>
       <c r="M138" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N138" t="s">
-        <v>645</v>
+        <v>664</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -8438,19 +8535,19 @@
         <v>506</v>
       </c>
       <c r="J139" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="K139" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L139">
         <v>1</v>
       </c>
       <c r="M139" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N139" t="s">
-        <v>646</v>
+        <v>665</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -8470,19 +8567,19 @@
         <v>506</v>
       </c>
       <c r="J140" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="K140" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L140">
         <v>1</v>
       </c>
       <c r="M140" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N140" t="s">
-        <v>647</v>
+        <v>666</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -10670,19 +10767,19 @@
         <v>506</v>
       </c>
       <c r="J190" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="K190" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L190">
         <v>1</v>
       </c>
       <c r="M190" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N190" t="s">
-        <v>648</v>
+        <v>667</v>
       </c>
     </row>
     <row r="191" spans="1:14">
@@ -10714,19 +10811,19 @@
         <v>506</v>
       </c>
       <c r="J191" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="K191" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L191">
         <v>1</v>
       </c>
       <c r="M191" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N191" t="s">
-        <v>649</v>
+        <v>668</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -10758,19 +10855,19 @@
         <v>506</v>
       </c>
       <c r="J192" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="K192" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L192">
         <v>1</v>
       </c>
       <c r="M192" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N192" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -10802,19 +10899,19 @@
         <v>506</v>
       </c>
       <c r="J193" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="K193" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L193">
         <v>1</v>
       </c>
       <c r="M193" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N193" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -10846,19 +10943,19 @@
         <v>506</v>
       </c>
       <c r="J194" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="K194" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L194">
         <v>1</v>
       </c>
       <c r="M194" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N194" t="s">
-        <v>652</v>
+        <v>671</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -10890,19 +10987,19 @@
         <v>506</v>
       </c>
       <c r="J195" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="K195" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L195">
         <v>1</v>
       </c>
       <c r="M195" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N195" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -10934,19 +11031,19 @@
         <v>506</v>
       </c>
       <c r="J196" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="K196" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L196">
         <v>1</v>
       </c>
       <c r="M196" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N196" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -10978,19 +11075,19 @@
         <v>506</v>
       </c>
       <c r="J197" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="K197" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L197">
         <v>1</v>
       </c>
       <c r="M197" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N197" t="s">
-        <v>655</v>
+        <v>674</v>
       </c>
     </row>
     <row r="198" spans="1:14">
@@ -11022,19 +11119,19 @@
         <v>506</v>
       </c>
       <c r="J198" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="K198" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L198">
         <v>1</v>
       </c>
       <c r="M198" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N198" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -11066,19 +11163,19 @@
         <v>506</v>
       </c>
       <c r="J199" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="K199" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L199">
         <v>1</v>
       </c>
       <c r="M199" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N199" t="s">
-        <v>657</v>
+        <v>676</v>
       </c>
     </row>
     <row r="200" spans="1:14">
@@ -11110,19 +11207,19 @@
         <v>506</v>
       </c>
       <c r="J200" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="K200" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L200">
         <v>1</v>
       </c>
       <c r="M200" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N200" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
     </row>
     <row r="201" spans="1:14">
@@ -11154,19 +11251,19 @@
         <v>506</v>
       </c>
       <c r="J201" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="K201" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L201">
         <v>1</v>
       </c>
       <c r="M201" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N201" t="s">
-        <v>659</v>
+        <v>678</v>
       </c>
     </row>
     <row r="202" spans="1:14">
@@ -11198,19 +11295,19 @@
         <v>506</v>
       </c>
       <c r="J202" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="K202" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L202">
         <v>1</v>
       </c>
       <c r="M202" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N202" t="s">
-        <v>660</v>
+        <v>679</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -11242,19 +11339,19 @@
         <v>506</v>
       </c>
       <c r="J203" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="K203" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L203">
         <v>1</v>
       </c>
       <c r="M203" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N203" t="s">
-        <v>660</v>
+        <v>679</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -11286,19 +11383,19 @@
         <v>506</v>
       </c>
       <c r="J204" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="K204" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L204">
         <v>1</v>
       </c>
       <c r="M204" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N204" t="s">
-        <v>661</v>
+        <v>680</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -11330,19 +11427,19 @@
         <v>506</v>
       </c>
       <c r="J205" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="K205" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L205">
         <v>1</v>
       </c>
       <c r="M205" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N205" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
     </row>
     <row r="206" spans="1:14">
@@ -11374,19 +11471,19 @@
         <v>506</v>
       </c>
       <c r="J206" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="K206" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L206">
         <v>1</v>
       </c>
       <c r="M206" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N206" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -11418,19 +11515,19 @@
         <v>506</v>
       </c>
       <c r="J207" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="K207" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L207">
         <v>1</v>
       </c>
       <c r="M207" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N207" t="s">
-        <v>664</v>
+        <v>683</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -11462,19 +11559,19 @@
         <v>506</v>
       </c>
       <c r="J208" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="K208" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L208">
         <v>1</v>
       </c>
       <c r="M208" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N208" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -11506,19 +11603,19 @@
         <v>506</v>
       </c>
       <c r="J209" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="K209" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L209">
         <v>1</v>
       </c>
       <c r="M209" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N209" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -11550,19 +11647,19 @@
         <v>506</v>
       </c>
       <c r="J210" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="K210" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L210">
         <v>1</v>
       </c>
       <c r="M210" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N210" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -11594,19 +11691,19 @@
         <v>506</v>
       </c>
       <c r="J211" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="K211" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L211">
         <v>1</v>
       </c>
       <c r="M211" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N211" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -11638,13 +11735,13 @@
         <v>506</v>
       </c>
       <c r="K212" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L212">
         <v>1</v>
       </c>
       <c r="M212" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N212" t="s">
         <v>380</v>
@@ -11679,13 +11776,13 @@
         <v>506</v>
       </c>
       <c r="K213" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L213">
         <v>1</v>
       </c>
       <c r="M213" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N213" t="s">
         <v>380</v>
@@ -11720,19 +11817,19 @@
         <v>506</v>
       </c>
       <c r="J214" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="K214" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L214">
         <v>1</v>
       </c>
       <c r="M214" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N214" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
     </row>
     <row r="215" spans="1:14">
@@ -11764,19 +11861,19 @@
         <v>506</v>
       </c>
       <c r="J215" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="K215" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L215">
         <v>1</v>
       </c>
       <c r="M215" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N215" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
     </row>
     <row r="216" spans="1:14">
@@ -11808,19 +11905,19 @@
         <v>506</v>
       </c>
       <c r="J216" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="K216" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L216">
         <v>1</v>
       </c>
       <c r="M216" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N216" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -11852,19 +11949,19 @@
         <v>506</v>
       </c>
       <c r="J217" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="K217" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L217">
         <v>1</v>
       </c>
       <c r="M217" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N217" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -11896,19 +11993,19 @@
         <v>506</v>
       </c>
       <c r="J218" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="K218" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L218">
         <v>1</v>
       </c>
       <c r="M218" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N218" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
     </row>
     <row r="219" spans="1:14">
@@ -11940,19 +12037,19 @@
         <v>506</v>
       </c>
       <c r="J219" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="K219" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L219">
         <v>1</v>
       </c>
       <c r="M219" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N219" t="s">
-        <v>674</v>
+        <v>693</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -11984,19 +12081,19 @@
         <v>506</v>
       </c>
       <c r="J220" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="K220" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L220">
         <v>1</v>
       </c>
       <c r="M220" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N220" t="s">
-        <v>675</v>
+        <v>694</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -12028,19 +12125,19 @@
         <v>506</v>
       </c>
       <c r="J221" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="K221" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L221">
         <v>1</v>
       </c>
       <c r="M221" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N221" t="s">
-        <v>676</v>
+        <v>695</v>
       </c>
     </row>
     <row r="222" spans="1:14">
@@ -12072,19 +12169,19 @@
         <v>506</v>
       </c>
       <c r="J222" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="K222" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L222">
         <v>1</v>
       </c>
       <c r="M222" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N222" t="s">
-        <v>677</v>
+        <v>696</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -12116,19 +12213,19 @@
         <v>506</v>
       </c>
       <c r="J223" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="K223" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L223">
         <v>1</v>
       </c>
       <c r="M223" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N223" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -12160,19 +12257,19 @@
         <v>506</v>
       </c>
       <c r="J224" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="K224" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L224">
         <v>1</v>
       </c>
       <c r="M224" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N224" t="s">
-        <v>679</v>
+        <v>698</v>
       </c>
     </row>
     <row r="225" spans="1:14">
@@ -12204,19 +12301,19 @@
         <v>506</v>
       </c>
       <c r="J225" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="K225" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L225">
         <v>1</v>
       </c>
       <c r="M225" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N225" t="s">
-        <v>680</v>
+        <v>699</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -12248,19 +12345,19 @@
         <v>506</v>
       </c>
       <c r="J226" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="K226" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L226">
         <v>2</v>
       </c>
       <c r="M226" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N226" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
     </row>
     <row r="227" spans="1:14">
@@ -12292,19 +12389,19 @@
         <v>506</v>
       </c>
       <c r="J227" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="K227" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L227">
         <v>2</v>
       </c>
       <c r="M227" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N227" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -12336,19 +12433,19 @@
         <v>506</v>
       </c>
       <c r="J228" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="K228" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L228">
         <v>2</v>
       </c>
       <c r="M228" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N228" t="s">
-        <v>683</v>
+        <v>702</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -12380,19 +12477,19 @@
         <v>506</v>
       </c>
       <c r="J229" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="K229" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L229">
         <v>2</v>
       </c>
       <c r="M229" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N229" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -12424,19 +12521,19 @@
         <v>506</v>
       </c>
       <c r="J230" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="K230" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L230">
         <v>2</v>
       </c>
       <c r="M230" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N230" t="s">
-        <v>685</v>
+        <v>704</v>
       </c>
     </row>
     <row r="231" spans="1:14">
@@ -12468,19 +12565,19 @@
         <v>506</v>
       </c>
       <c r="J231" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="K231" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L231">
         <v>2</v>
       </c>
       <c r="M231" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N231" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -12512,19 +12609,19 @@
         <v>506</v>
       </c>
       <c r="J232" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="K232" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L232">
         <v>2</v>
       </c>
       <c r="M232" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N232" t="s">
-        <v>687</v>
+        <v>706</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -12556,19 +12653,19 @@
         <v>506</v>
       </c>
       <c r="J233" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="K233" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L233">
         <v>2</v>
       </c>
       <c r="M233" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N233" t="s">
-        <v>688</v>
+        <v>707</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -12600,19 +12697,19 @@
         <v>506</v>
       </c>
       <c r="J234" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="K234" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L234">
         <v>2</v>
       </c>
       <c r="M234" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N234" t="s">
-        <v>689</v>
+        <v>708</v>
       </c>
     </row>
     <row r="235" spans="1:14">
@@ -12644,19 +12741,19 @@
         <v>506</v>
       </c>
       <c r="J235" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="K235" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L235">
         <v>2</v>
       </c>
       <c r="M235" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N235" t="s">
-        <v>690</v>
+        <v>709</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -12688,19 +12785,19 @@
         <v>506</v>
       </c>
       <c r="J236" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="K236" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L236">
         <v>2</v>
       </c>
       <c r="M236" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N236" t="s">
-        <v>691</v>
+        <v>710</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -12732,19 +12829,19 @@
         <v>506</v>
       </c>
       <c r="J237" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="K237" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L237">
         <v>3</v>
       </c>
       <c r="M237" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N237" t="s">
-        <v>692</v>
+        <v>711</v>
       </c>
     </row>
     <row r="238" spans="1:14">
@@ -12776,19 +12873,19 @@
         <v>506</v>
       </c>
       <c r="J238" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="K238" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L238">
         <v>3</v>
       </c>
       <c r="M238" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N238" t="s">
-        <v>692</v>
+        <v>711</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -12820,19 +12917,19 @@
         <v>506</v>
       </c>
       <c r="J239" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="K239" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L239">
         <v>3</v>
       </c>
       <c r="M239" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N239" t="s">
-        <v>693</v>
+        <v>712</v>
       </c>
     </row>
     <row r="240" spans="1:14">
@@ -12864,19 +12961,19 @@
         <v>506</v>
       </c>
       <c r="J240" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="K240" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L240">
         <v>3</v>
       </c>
       <c r="M240" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N240" t="s">
-        <v>694</v>
+        <v>713</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -12908,19 +13005,19 @@
         <v>506</v>
       </c>
       <c r="J241" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="K241" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L241">
         <v>3</v>
       </c>
       <c r="M241" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N241" t="s">
-        <v>695</v>
+        <v>714</v>
       </c>
     </row>
     <row r="242" spans="1:14">
@@ -12952,19 +13049,19 @@
         <v>506</v>
       </c>
       <c r="J242" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="K242" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L242">
         <v>3</v>
       </c>
       <c r="M242" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N242" t="s">
-        <v>692</v>
+        <v>711</v>
       </c>
     </row>
     <row r="243" spans="1:14">
@@ -12996,19 +13093,19 @@
         <v>508</v>
       </c>
       <c r="J243" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="K243" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L243">
         <v>3</v>
       </c>
       <c r="M243" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N243" t="s">
-        <v>696</v>
+        <v>715</v>
       </c>
     </row>
     <row r="244" spans="1:14">
@@ -13040,19 +13137,19 @@
         <v>508</v>
       </c>
       <c r="J244" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="K244" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L244">
         <v>3</v>
       </c>
       <c r="M244" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N244" t="s">
-        <v>697</v>
+        <v>716</v>
       </c>
     </row>
     <row r="245" spans="1:14">
@@ -13084,19 +13181,19 @@
         <v>508</v>
       </c>
       <c r="J245" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="K245" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L245">
         <v>3</v>
       </c>
       <c r="M245" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N245" t="s">
-        <v>698</v>
+        <v>717</v>
       </c>
     </row>
     <row r="246" spans="1:14">
@@ -13128,19 +13225,19 @@
         <v>508</v>
       </c>
       <c r="J246" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="K246" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L246">
         <v>3</v>
       </c>
       <c r="M246" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N246" t="s">
-        <v>699</v>
+        <v>718</v>
       </c>
     </row>
     <row r="247" spans="1:14">
@@ -13172,19 +13269,19 @@
         <v>508</v>
       </c>
       <c r="J247" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="K247" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L247">
         <v>3</v>
       </c>
       <c r="M247" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N247" t="s">
-        <v>700</v>
+        <v>719</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -13216,19 +13313,19 @@
         <v>508</v>
       </c>
       <c r="J248" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="K248" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L248">
         <v>3</v>
       </c>
       <c r="M248" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N248" t="s">
-        <v>701</v>
+        <v>720</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -13260,19 +13357,19 @@
         <v>506</v>
       </c>
       <c r="J249" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="K249" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L249">
         <v>3</v>
       </c>
       <c r="M249" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N249" t="s">
-        <v>702</v>
+        <v>721</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -13304,19 +13401,19 @@
         <v>506</v>
       </c>
       <c r="J250" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="K250" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L250">
         <v>3</v>
       </c>
       <c r="M250" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N250" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -13348,19 +13445,19 @@
         <v>506</v>
       </c>
       <c r="J251" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="K251" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L251">
         <v>3</v>
       </c>
       <c r="M251" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N251" t="s">
-        <v>704</v>
+        <v>723</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -13392,19 +13489,19 @@
         <v>506</v>
       </c>
       <c r="J252" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="K252" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L252">
         <v>3</v>
       </c>
       <c r="M252" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N252" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
     </row>
     <row r="253" spans="1:14">
@@ -13436,19 +13533,19 @@
         <v>506</v>
       </c>
       <c r="J253" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="K253" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L253">
         <v>3</v>
       </c>
       <c r="M253" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N253" t="s">
-        <v>706</v>
+        <v>725</v>
       </c>
     </row>
     <row r="254" spans="1:14">
@@ -13480,19 +13577,19 @@
         <v>506</v>
       </c>
       <c r="J254" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="K254" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L254">
         <v>3</v>
       </c>
       <c r="M254" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N254" t="s">
-        <v>707</v>
+        <v>726</v>
       </c>
     </row>
     <row r="255" spans="1:14">
@@ -13524,19 +13621,19 @@
         <v>507</v>
       </c>
       <c r="J255" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="K255" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L255">
         <v>4</v>
       </c>
       <c r="M255" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N255" t="s">
-        <v>708</v>
+        <v>727</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -13568,19 +13665,19 @@
         <v>507</v>
       </c>
       <c r="J256" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="K256" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L256">
         <v>4</v>
       </c>
       <c r="M256" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N256" t="s">
-        <v>709</v>
+        <v>728</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -13612,19 +13709,19 @@
         <v>507</v>
       </c>
       <c r="J257" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="K257" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L257">
         <v>4</v>
       </c>
       <c r="M257" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N257" t="s">
-        <v>710</v>
+        <v>729</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -13656,19 +13753,19 @@
         <v>507</v>
       </c>
       <c r="J258" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="K258" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L258">
         <v>4</v>
       </c>
       <c r="M258" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N258" t="s">
-        <v>709</v>
+        <v>728</v>
       </c>
     </row>
     <row r="259" spans="1:14">
@@ -13700,19 +13797,19 @@
         <v>507</v>
       </c>
       <c r="J259" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="K259" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L259">
         <v>4</v>
       </c>
       <c r="M259" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N259" t="s">
-        <v>710</v>
+        <v>729</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -13744,19 +13841,19 @@
         <v>507</v>
       </c>
       <c r="J260" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="K260" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L260">
         <v>4</v>
       </c>
       <c r="M260" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N260" t="s">
-        <v>711</v>
+        <v>730</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -13788,19 +13885,19 @@
         <v>509</v>
       </c>
       <c r="J261" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="K261" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L261">
         <v>4</v>
       </c>
       <c r="M261" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N261" t="s">
-        <v>712</v>
+        <v>731</v>
       </c>
     </row>
     <row r="262" spans="1:14">
@@ -13832,19 +13929,19 @@
         <v>506</v>
       </c>
       <c r="J262" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="K262" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L262">
         <v>4</v>
       </c>
       <c r="M262" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N262" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
     </row>
     <row r="263" spans="1:14">
@@ -13876,19 +13973,19 @@
         <v>506</v>
       </c>
       <c r="J263" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="K263" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L263">
         <v>4</v>
       </c>
       <c r="M263" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N263" t="s">
-        <v>714</v>
+        <v>733</v>
       </c>
     </row>
     <row r="264" spans="1:14">
@@ -13920,19 +14017,19 @@
         <v>506</v>
       </c>
       <c r="J264" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="K264" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L264">
         <v>4</v>
       </c>
       <c r="M264" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N264" t="s">
-        <v>715</v>
+        <v>734</v>
       </c>
     </row>
     <row r="265" spans="1:14">
@@ -13964,19 +14061,19 @@
         <v>507</v>
       </c>
       <c r="J265" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="K265" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L265">
         <v>4</v>
       </c>
       <c r="M265" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N265" t="s">
-        <v>716</v>
+        <v>735</v>
       </c>
     </row>
     <row r="266" spans="1:14">
@@ -14008,19 +14105,19 @@
         <v>507</v>
       </c>
       <c r="J266" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="K266" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L266">
         <v>4</v>
       </c>
       <c r="M266" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N266" t="s">
-        <v>717</v>
+        <v>736</v>
       </c>
     </row>
     <row r="267" spans="1:14">
@@ -14052,19 +14149,19 @@
         <v>506</v>
       </c>
       <c r="J267" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="K267" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L267">
         <v>4</v>
       </c>
       <c r="M267" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N267" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
     </row>
     <row r="268" spans="1:14">
@@ -14096,19 +14193,19 @@
         <v>506</v>
       </c>
       <c r="J268" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="K268" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L268">
         <v>4</v>
       </c>
       <c r="M268" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="N268" t="s">
-        <v>719</v>
+        <v>738</v>
       </c>
     </row>
     <row r="269" spans="1:14">
@@ -14140,19 +14237,19 @@
         <v>507</v>
       </c>
       <c r="J269" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="K269" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L269">
         <v>4</v>
       </c>
       <c r="M269" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N269" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
     </row>
     <row r="270" spans="1:14">
@@ -14184,19 +14281,19 @@
         <v>510</v>
       </c>
       <c r="J270" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="K270" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L270">
         <v>4</v>
       </c>
       <c r="M270" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N270" t="s">
-        <v>721</v>
+        <v>740</v>
       </c>
     </row>
     <row r="271" spans="1:14">
@@ -14228,19 +14325,19 @@
         <v>507</v>
       </c>
       <c r="J271" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="K271" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L271">
         <v>4</v>
       </c>
       <c r="M271" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N271" t="s">
-        <v>722</v>
+        <v>741</v>
       </c>
     </row>
     <row r="272" spans="1:14">
@@ -14272,19 +14369,19 @@
         <v>510</v>
       </c>
       <c r="J272" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="K272" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L272">
         <v>4</v>
       </c>
       <c r="M272" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="N272" t="s">
-        <v>723</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>

--- a/docs/content_sample/problems.xlsx
+++ b/docs/content_sample/problems.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="745">
   <si>
     <t>URL</t>
   </si>
@@ -2043,6 +2043,9 @@
     <t>[{"input": "5", "output": "*****\n****\n***\n**\n*"}, {"input": "3", "output": "***\n**\n*"}]</t>
   </si>
   <si>
+    <t>[{"input": "HelloWorld", "output": "\"HelloWorld\""}, {"input": "Quote", "output": "\"Quote\""}]</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
@@ -2089,6 +2092,9 @@
   </si>
   <si>
     <t>loop,print,range</t>
+  </si>
+  <si>
+    <t>string,print</t>
   </si>
   <si>
     <t>print</t>
@@ -3747,10 +3753,10 @@
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N22" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -3791,10 +3797,10 @@
         <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N23" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -3835,10 +3841,10 @@
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N24" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -3879,10 +3885,10 @@
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N25" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -3917,16 +3923,16 @@
         <v>515</v>
       </c>
       <c r="K26" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N26" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -3961,16 +3967,16 @@
         <v>516</v>
       </c>
       <c r="K27" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N27" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -4005,16 +4011,16 @@
         <v>517</v>
       </c>
       <c r="K28" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N28" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -4049,16 +4055,16 @@
         <v>518</v>
       </c>
       <c r="K29" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N29" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -4093,16 +4099,16 @@
         <v>519</v>
       </c>
       <c r="K30" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N30" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -4137,16 +4143,16 @@
         <v>520</v>
       </c>
       <c r="K31" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N31" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -4225,16 +4231,16 @@
         <v>521</v>
       </c>
       <c r="K33" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N33" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -4269,16 +4275,16 @@
         <v>522</v>
       </c>
       <c r="K34" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N34" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -4313,16 +4319,16 @@
         <v>523</v>
       </c>
       <c r="K35" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N35" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -4357,16 +4363,16 @@
         <v>524</v>
       </c>
       <c r="K36" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N36" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -4401,16 +4407,16 @@
         <v>525</v>
       </c>
       <c r="K37" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N37" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -4445,16 +4451,16 @@
         <v>526</v>
       </c>
       <c r="K38" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
       <c r="M38" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N38" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -4489,16 +4495,16 @@
         <v>527</v>
       </c>
       <c r="K39" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
       <c r="M39" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N39" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -4533,16 +4539,16 @@
         <v>528</v>
       </c>
       <c r="K40" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L40">
         <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N40" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -4577,16 +4583,16 @@
         <v>529</v>
       </c>
       <c r="K41" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
       <c r="M41" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N41" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -4621,16 +4627,16 @@
         <v>530</v>
       </c>
       <c r="K42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L42">
         <v>1</v>
       </c>
       <c r="M42" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N42" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -4665,16 +4671,16 @@
         <v>531</v>
       </c>
       <c r="K43" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L43">
         <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N43" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -4709,16 +4715,16 @@
         <v>532</v>
       </c>
       <c r="K44" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L44">
         <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N44" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -4753,16 +4759,16 @@
         <v>533</v>
       </c>
       <c r="K45" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L45">
         <v>1</v>
       </c>
       <c r="M45" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N45" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -4797,16 +4803,16 @@
         <v>534</v>
       </c>
       <c r="K46" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L46">
         <v>1</v>
       </c>
       <c r="M46" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N46" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -4841,16 +4847,16 @@
         <v>535</v>
       </c>
       <c r="K47" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L47">
         <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N47" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -4885,16 +4891,16 @@
         <v>536</v>
       </c>
       <c r="K48" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L48">
         <v>1</v>
       </c>
       <c r="M48" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N48" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -4929,16 +4935,16 @@
         <v>537</v>
       </c>
       <c r="K49" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L49">
         <v>1</v>
       </c>
       <c r="M49" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N49" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -4973,16 +4979,16 @@
         <v>538</v>
       </c>
       <c r="K50" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L50">
         <v>1</v>
       </c>
       <c r="M50" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N50" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -5017,16 +5023,16 @@
         <v>539</v>
       </c>
       <c r="K51" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L51">
         <v>1</v>
       </c>
       <c r="M51" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N51" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -5061,16 +5067,16 @@
         <v>540</v>
       </c>
       <c r="K52" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L52">
         <v>1</v>
       </c>
       <c r="M52" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N52" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -5105,16 +5111,16 @@
         <v>541</v>
       </c>
       <c r="K53" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L53">
         <v>1</v>
       </c>
       <c r="M53" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N53" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -5149,16 +5155,16 @@
         <v>542</v>
       </c>
       <c r="K54" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L54">
         <v>1</v>
       </c>
       <c r="M54" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N54" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -5193,16 +5199,16 @@
         <v>543</v>
       </c>
       <c r="K55" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="L55">
         <v>1</v>
       </c>
       <c r="M55" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N55" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -5237,16 +5243,16 @@
         <v>544</v>
       </c>
       <c r="K56" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="L56">
         <v>1</v>
       </c>
       <c r="M56" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N56" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -5281,16 +5287,16 @@
         <v>545</v>
       </c>
       <c r="K57" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="L57">
         <v>1</v>
       </c>
       <c r="M57" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N57" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -5325,16 +5331,16 @@
         <v>546</v>
       </c>
       <c r="K58" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="L58">
         <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N58" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -5369,16 +5375,16 @@
         <v>547</v>
       </c>
       <c r="K59" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L59">
         <v>1</v>
       </c>
       <c r="M59" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N59" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -5413,16 +5419,16 @@
         <v>548</v>
       </c>
       <c r="K60" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L60">
         <v>1</v>
       </c>
       <c r="M60" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N60" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -5454,16 +5460,16 @@
         <v>505</v>
       </c>
       <c r="K61" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L61">
         <v>1</v>
       </c>
       <c r="M61" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N61" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -5498,16 +5504,16 @@
         <v>549</v>
       </c>
       <c r="K62" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="L62">
         <v>1</v>
       </c>
       <c r="M62" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N62" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -7642,16 +7648,16 @@
         <v>550</v>
       </c>
       <c r="K111" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L111">
         <v>1</v>
       </c>
       <c r="M111" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N111" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -7674,16 +7680,16 @@
         <v>551</v>
       </c>
       <c r="K112" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L112">
         <v>1</v>
       </c>
       <c r="M112" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N112" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -7706,16 +7712,16 @@
         <v>552</v>
       </c>
       <c r="K113" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L113">
         <v>1</v>
       </c>
       <c r="M113" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N113" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -7738,16 +7744,16 @@
         <v>553</v>
       </c>
       <c r="K114" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L114">
         <v>1</v>
       </c>
       <c r="M114" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N114" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -7770,16 +7776,16 @@
         <v>550</v>
       </c>
       <c r="K115" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L115">
         <v>1</v>
       </c>
       <c r="M115" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N115" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -7802,16 +7808,16 @@
         <v>554</v>
       </c>
       <c r="K116" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L116">
         <v>1</v>
       </c>
       <c r="M116" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N116" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -7834,16 +7840,16 @@
         <v>551</v>
       </c>
       <c r="K117" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L117">
         <v>1</v>
       </c>
       <c r="M117" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N117" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -7866,16 +7872,16 @@
         <v>555</v>
       </c>
       <c r="K118" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L118">
         <v>1</v>
       </c>
       <c r="M118" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N118" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -7898,16 +7904,16 @@
         <v>554</v>
       </c>
       <c r="K119" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L119">
         <v>1</v>
       </c>
       <c r="M119" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N119" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -7930,16 +7936,16 @@
         <v>556</v>
       </c>
       <c r="K120" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L120">
         <v>1</v>
       </c>
       <c r="M120" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N120" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -7962,16 +7968,16 @@
         <v>550</v>
       </c>
       <c r="K121" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L121">
         <v>1</v>
       </c>
       <c r="M121" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N121" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -7994,16 +8000,16 @@
         <v>551</v>
       </c>
       <c r="K122" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L122">
         <v>1</v>
       </c>
       <c r="M122" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N122" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -8026,16 +8032,16 @@
         <v>556</v>
       </c>
       <c r="K123" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L123">
         <v>1</v>
       </c>
       <c r="M123" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N123" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -8058,16 +8064,16 @@
         <v>554</v>
       </c>
       <c r="K124" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L124">
         <v>1</v>
       </c>
       <c r="M124" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N124" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -8090,16 +8096,16 @@
         <v>555</v>
       </c>
       <c r="K125" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L125">
         <v>1</v>
       </c>
       <c r="M125" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N125" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -8122,16 +8128,16 @@
         <v>556</v>
       </c>
       <c r="K126" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L126">
         <v>1</v>
       </c>
       <c r="M126" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N126" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -8154,16 +8160,16 @@
         <v>550</v>
       </c>
       <c r="K127" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L127">
         <v>1</v>
       </c>
       <c r="M127" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N127" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -8186,16 +8192,16 @@
         <v>556</v>
       </c>
       <c r="K128" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L128">
         <v>1</v>
       </c>
       <c r="M128" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N128" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -8218,16 +8224,16 @@
         <v>551</v>
       </c>
       <c r="K129" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L129">
         <v>1</v>
       </c>
       <c r="M129" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N129" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -8250,16 +8256,16 @@
         <v>554</v>
       </c>
       <c r="K130" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L130">
         <v>1</v>
       </c>
       <c r="M130" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N130" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -8282,16 +8288,16 @@
         <v>555</v>
       </c>
       <c r="K131" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L131">
         <v>1</v>
       </c>
       <c r="M131" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N131" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -8314,16 +8320,16 @@
         <v>556</v>
       </c>
       <c r="K132" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L132">
         <v>1</v>
       </c>
       <c r="M132" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N132" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -8346,16 +8352,16 @@
         <v>551</v>
       </c>
       <c r="K133" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L133">
         <v>1</v>
       </c>
       <c r="M133" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N133" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -8378,16 +8384,16 @@
         <v>550</v>
       </c>
       <c r="K134" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L134">
         <v>1</v>
       </c>
       <c r="M134" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N134" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -8410,16 +8416,16 @@
         <v>554</v>
       </c>
       <c r="K135" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L135">
         <v>1</v>
       </c>
       <c r="M135" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N135" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -8442,16 +8448,16 @@
         <v>550</v>
       </c>
       <c r="K136" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L136">
         <v>1</v>
       </c>
       <c r="M136" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N136" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -8474,16 +8480,16 @@
         <v>551</v>
       </c>
       <c r="K137" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L137">
         <v>1</v>
       </c>
       <c r="M137" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N137" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -8506,16 +8512,16 @@
         <v>554</v>
       </c>
       <c r="K138" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L138">
         <v>1</v>
       </c>
       <c r="M138" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N138" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -8538,16 +8544,16 @@
         <v>555</v>
       </c>
       <c r="K139" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L139">
         <v>1</v>
       </c>
       <c r="M139" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N139" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -8570,16 +8576,16 @@
         <v>551</v>
       </c>
       <c r="K140" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L140">
         <v>1</v>
       </c>
       <c r="M140" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N140" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -10770,16 +10776,16 @@
         <v>550</v>
       </c>
       <c r="K190" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L190">
         <v>1</v>
       </c>
       <c r="M190" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N190" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="191" spans="1:14">
@@ -10814,16 +10820,16 @@
         <v>557</v>
       </c>
       <c r="K191" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L191">
         <v>1</v>
       </c>
       <c r="M191" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N191" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -10858,16 +10864,16 @@
         <v>555</v>
       </c>
       <c r="K192" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L192">
         <v>1</v>
       </c>
       <c r="M192" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N192" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -10902,16 +10908,16 @@
         <v>551</v>
       </c>
       <c r="K193" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L193">
         <v>1</v>
       </c>
       <c r="M193" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N193" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -10946,16 +10952,16 @@
         <v>558</v>
       </c>
       <c r="K194" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L194">
         <v>1</v>
       </c>
       <c r="M194" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N194" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -10990,16 +10996,16 @@
         <v>550</v>
       </c>
       <c r="K195" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L195">
         <v>1</v>
       </c>
       <c r="M195" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N195" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -11034,16 +11040,16 @@
         <v>559</v>
       </c>
       <c r="K196" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L196">
         <v>1</v>
       </c>
       <c r="M196" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N196" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -11078,16 +11084,16 @@
         <v>560</v>
       </c>
       <c r="K197" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L197">
         <v>1</v>
       </c>
       <c r="M197" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N197" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="198" spans="1:14">
@@ -11122,16 +11128,16 @@
         <v>561</v>
       </c>
       <c r="K198" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L198">
         <v>1</v>
       </c>
       <c r="M198" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N198" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -11166,16 +11172,16 @@
         <v>562</v>
       </c>
       <c r="K199" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L199">
         <v>1</v>
       </c>
       <c r="M199" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N199" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="200" spans="1:14">
@@ -11210,16 +11216,16 @@
         <v>563</v>
       </c>
       <c r="K200" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L200">
         <v>1</v>
       </c>
       <c r="M200" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N200" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="201" spans="1:14">
@@ -11254,16 +11260,16 @@
         <v>551</v>
       </c>
       <c r="K201" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L201">
         <v>1</v>
       </c>
       <c r="M201" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N201" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="202" spans="1:14">
@@ -11298,16 +11304,16 @@
         <v>564</v>
       </c>
       <c r="K202" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L202">
         <v>1</v>
       </c>
       <c r="M202" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N202" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -11342,16 +11348,16 @@
         <v>555</v>
       </c>
       <c r="K203" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L203">
         <v>1</v>
       </c>
       <c r="M203" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N203" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -11386,16 +11392,16 @@
         <v>550</v>
       </c>
       <c r="K204" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L204">
         <v>1</v>
       </c>
       <c r="M204" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N204" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -11430,16 +11436,16 @@
         <v>556</v>
       </c>
       <c r="K205" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L205">
         <v>1</v>
       </c>
       <c r="M205" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N205" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="206" spans="1:14">
@@ -11474,16 +11480,16 @@
         <v>551</v>
       </c>
       <c r="K206" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L206">
         <v>1</v>
       </c>
       <c r="M206" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N206" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -11518,16 +11524,16 @@
         <v>550</v>
       </c>
       <c r="K207" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L207">
         <v>1</v>
       </c>
       <c r="M207" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N207" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -11562,16 +11568,16 @@
         <v>551</v>
       </c>
       <c r="K208" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L208">
         <v>1</v>
       </c>
       <c r="M208" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N208" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -11606,16 +11612,16 @@
         <v>556</v>
       </c>
       <c r="K209" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L209">
         <v>1</v>
       </c>
       <c r="M209" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N209" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -11650,16 +11656,16 @@
         <v>551</v>
       </c>
       <c r="K210" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L210">
         <v>1</v>
       </c>
       <c r="M210" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N210" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -11694,16 +11700,16 @@
         <v>550</v>
       </c>
       <c r="K211" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L211">
         <v>1</v>
       </c>
       <c r="M211" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N211" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -11735,13 +11741,13 @@
         <v>506</v>
       </c>
       <c r="K212" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L212">
         <v>1</v>
       </c>
       <c r="M212" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N212" t="s">
         <v>380</v>
@@ -11776,13 +11782,13 @@
         <v>506</v>
       </c>
       <c r="K213" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L213">
         <v>1</v>
       </c>
       <c r="M213" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N213" t="s">
         <v>380</v>
@@ -11820,16 +11826,16 @@
         <v>555</v>
       </c>
       <c r="K214" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L214">
         <v>1</v>
       </c>
       <c r="M214" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N214" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="215" spans="1:14">
@@ -11864,16 +11870,16 @@
         <v>550</v>
       </c>
       <c r="K215" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L215">
         <v>1</v>
       </c>
       <c r="M215" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N215" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="216" spans="1:14">
@@ -11908,16 +11914,16 @@
         <v>565</v>
       </c>
       <c r="K216" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L216">
         <v>1</v>
       </c>
       <c r="M216" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N216" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -11952,16 +11958,16 @@
         <v>554</v>
       </c>
       <c r="K217" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L217">
         <v>1</v>
       </c>
       <c r="M217" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N217" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -11996,16 +12002,16 @@
         <v>555</v>
       </c>
       <c r="K218" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L218">
         <v>1</v>
       </c>
       <c r="M218" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N218" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="219" spans="1:14">
@@ -12040,16 +12046,16 @@
         <v>566</v>
       </c>
       <c r="K219" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L219">
         <v>1</v>
       </c>
       <c r="M219" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N219" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -12084,16 +12090,16 @@
         <v>556</v>
       </c>
       <c r="K220" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L220">
         <v>1</v>
       </c>
       <c r="M220" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N220" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -12128,16 +12134,16 @@
         <v>551</v>
       </c>
       <c r="K221" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L221">
         <v>1</v>
       </c>
       <c r="M221" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N221" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="222" spans="1:14">
@@ -12172,16 +12178,16 @@
         <v>555</v>
       </c>
       <c r="K222" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L222">
         <v>1</v>
       </c>
       <c r="M222" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N222" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -12216,16 +12222,16 @@
         <v>567</v>
       </c>
       <c r="K223" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L223">
         <v>1</v>
       </c>
       <c r="M223" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N223" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -12260,16 +12266,16 @@
         <v>568</v>
       </c>
       <c r="K224" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L224">
         <v>1</v>
       </c>
       <c r="M224" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N224" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="225" spans="1:14">
@@ -12304,16 +12310,16 @@
         <v>569</v>
       </c>
       <c r="K225" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L225">
         <v>1</v>
       </c>
       <c r="M225" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N225" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -12348,16 +12354,16 @@
         <v>570</v>
       </c>
       <c r="K226" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L226">
         <v>2</v>
       </c>
       <c r="M226" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N226" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="227" spans="1:14">
@@ -12392,16 +12398,16 @@
         <v>571</v>
       </c>
       <c r="K227" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L227">
         <v>2</v>
       </c>
       <c r="M227" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N227" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -12436,16 +12442,16 @@
         <v>572</v>
       </c>
       <c r="K228" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L228">
         <v>2</v>
       </c>
       <c r="M228" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N228" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -12480,16 +12486,16 @@
         <v>573</v>
       </c>
       <c r="K229" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L229">
         <v>2</v>
       </c>
       <c r="M229" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N229" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -12524,16 +12530,16 @@
         <v>574</v>
       </c>
       <c r="K230" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L230">
         <v>2</v>
       </c>
       <c r="M230" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N230" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="231" spans="1:14">
@@ -12568,16 +12574,16 @@
         <v>575</v>
       </c>
       <c r="K231" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L231">
         <v>2</v>
       </c>
       <c r="M231" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N231" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -12612,16 +12618,16 @@
         <v>576</v>
       </c>
       <c r="K232" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L232">
         <v>2</v>
       </c>
       <c r="M232" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N232" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -12656,16 +12662,16 @@
         <v>577</v>
       </c>
       <c r="K233" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L233">
         <v>2</v>
       </c>
       <c r="M233" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N233" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -12700,16 +12706,16 @@
         <v>578</v>
       </c>
       <c r="K234" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L234">
         <v>2</v>
       </c>
       <c r="M234" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N234" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="235" spans="1:14">
@@ -12744,16 +12750,16 @@
         <v>579</v>
       </c>
       <c r="K235" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L235">
         <v>2</v>
       </c>
       <c r="M235" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N235" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -12788,16 +12794,16 @@
         <v>580</v>
       </c>
       <c r="K236" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L236">
         <v>2</v>
       </c>
       <c r="M236" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N236" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -12832,16 +12838,16 @@
         <v>581</v>
       </c>
       <c r="K237" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L237">
         <v>3</v>
       </c>
       <c r="M237" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N237" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="238" spans="1:14">
@@ -12876,16 +12882,16 @@
         <v>582</v>
       </c>
       <c r="K238" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L238">
         <v>3</v>
       </c>
       <c r="M238" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N238" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -12920,16 +12926,16 @@
         <v>583</v>
       </c>
       <c r="K239" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L239">
         <v>3</v>
       </c>
       <c r="M239" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N239" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="240" spans="1:14">
@@ -12964,16 +12970,16 @@
         <v>584</v>
       </c>
       <c r="K240" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L240">
         <v>3</v>
       </c>
       <c r="M240" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N240" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -13008,16 +13014,16 @@
         <v>585</v>
       </c>
       <c r="K241" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L241">
         <v>3</v>
       </c>
       <c r="M241" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N241" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="242" spans="1:14">
@@ -13052,16 +13058,16 @@
         <v>586</v>
       </c>
       <c r="K242" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L242">
         <v>3</v>
       </c>
       <c r="M242" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N242" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="243" spans="1:14">
@@ -13096,16 +13102,16 @@
         <v>587</v>
       </c>
       <c r="K243" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L243">
         <v>3</v>
       </c>
       <c r="M243" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N243" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="244" spans="1:14">
@@ -13140,16 +13146,16 @@
         <v>588</v>
       </c>
       <c r="K244" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L244">
         <v>3</v>
       </c>
       <c r="M244" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N244" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="245" spans="1:14">
@@ -13184,16 +13190,16 @@
         <v>589</v>
       </c>
       <c r="K245" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L245">
         <v>3</v>
       </c>
       <c r="M245" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N245" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="246" spans="1:14">
@@ -13228,16 +13234,16 @@
         <v>590</v>
       </c>
       <c r="K246" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L246">
         <v>3</v>
       </c>
       <c r="M246" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N246" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="247" spans="1:14">
@@ -13272,16 +13278,16 @@
         <v>591</v>
       </c>
       <c r="K247" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L247">
         <v>3</v>
       </c>
       <c r="M247" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N247" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -13316,16 +13322,16 @@
         <v>592</v>
       </c>
       <c r="K248" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L248">
         <v>3</v>
       </c>
       <c r="M248" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N248" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -13360,16 +13366,16 @@
         <v>593</v>
       </c>
       <c r="K249" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L249">
         <v>3</v>
       </c>
       <c r="M249" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N249" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -13404,16 +13410,16 @@
         <v>594</v>
       </c>
       <c r="K250" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L250">
         <v>3</v>
       </c>
       <c r="M250" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N250" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -13448,16 +13454,16 @@
         <v>595</v>
       </c>
       <c r="K251" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L251">
         <v>3</v>
       </c>
       <c r="M251" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N251" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -13492,16 +13498,16 @@
         <v>596</v>
       </c>
       <c r="K252" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L252">
         <v>3</v>
       </c>
       <c r="M252" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N252" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="253" spans="1:14">
@@ -13536,16 +13542,16 @@
         <v>597</v>
       </c>
       <c r="K253" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L253">
         <v>3</v>
       </c>
       <c r="M253" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N253" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="254" spans="1:14">
@@ -13580,16 +13586,16 @@
         <v>598</v>
       </c>
       <c r="K254" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L254">
         <v>3</v>
       </c>
       <c r="M254" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N254" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="255" spans="1:14">
@@ -13624,16 +13630,16 @@
         <v>599</v>
       </c>
       <c r="K255" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L255">
         <v>4</v>
       </c>
       <c r="M255" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N255" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -13668,16 +13674,16 @@
         <v>599</v>
       </c>
       <c r="K256" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L256">
         <v>4</v>
       </c>
       <c r="M256" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N256" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -13712,16 +13718,16 @@
         <v>600</v>
       </c>
       <c r="K257" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L257">
         <v>4</v>
       </c>
       <c r="M257" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N257" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -13756,16 +13762,16 @@
         <v>599</v>
       </c>
       <c r="K258" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L258">
         <v>4</v>
       </c>
       <c r="M258" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N258" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="259" spans="1:14">
@@ -13800,16 +13806,16 @@
         <v>600</v>
       </c>
       <c r="K259" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L259">
         <v>4</v>
       </c>
       <c r="M259" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N259" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -13844,16 +13850,16 @@
         <v>601</v>
       </c>
       <c r="K260" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L260">
         <v>4</v>
       </c>
       <c r="M260" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N260" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -13888,16 +13894,16 @@
         <v>602</v>
       </c>
       <c r="K261" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L261">
         <v>4</v>
       </c>
       <c r="M261" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N261" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="262" spans="1:14">
@@ -13932,16 +13938,16 @@
         <v>603</v>
       </c>
       <c r="K262" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L262">
         <v>4</v>
       </c>
       <c r="M262" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N262" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="263" spans="1:14">
@@ -13976,16 +13982,16 @@
         <v>604</v>
       </c>
       <c r="K263" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L263">
         <v>4</v>
       </c>
       <c r="M263" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N263" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="264" spans="1:14">
@@ -14020,16 +14026,16 @@
         <v>551</v>
       </c>
       <c r="K264" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L264">
         <v>4</v>
       </c>
       <c r="M264" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N264" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="265" spans="1:14">
@@ -14064,16 +14070,16 @@
         <v>605</v>
       </c>
       <c r="K265" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L265">
         <v>4</v>
       </c>
       <c r="M265" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N265" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="266" spans="1:14">
@@ -14108,16 +14114,16 @@
         <v>606</v>
       </c>
       <c r="K266" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L266">
         <v>4</v>
       </c>
       <c r="M266" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N266" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="267" spans="1:14">
@@ -14152,16 +14158,16 @@
         <v>607</v>
       </c>
       <c r="K267" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L267">
         <v>4</v>
       </c>
       <c r="M267" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N267" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="268" spans="1:14">
@@ -14196,16 +14202,16 @@
         <v>608</v>
       </c>
       <c r="K268" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L268">
         <v>4</v>
       </c>
       <c r="M268" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N268" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="269" spans="1:14">
@@ -14240,16 +14246,16 @@
         <v>609</v>
       </c>
       <c r="K269" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L269">
         <v>4</v>
       </c>
       <c r="M269" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N269" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="270" spans="1:14">
@@ -14284,16 +14290,16 @@
         <v>610</v>
       </c>
       <c r="K270" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L270">
         <v>4</v>
       </c>
       <c r="M270" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N270" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="271" spans="1:14">
@@ -14328,16 +14334,16 @@
         <v>611</v>
       </c>
       <c r="K271" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L271">
         <v>4</v>
       </c>
       <c r="M271" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N271" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="272" spans="1:14">
@@ -14372,16 +14378,16 @@
         <v>612</v>
       </c>
       <c r="K272" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L272">
         <v>4</v>
       </c>
       <c r="M272" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N272" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>

--- a/docs/content_sample/problems.xlsx
+++ b/docs/content_sample/problems.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="752">
   <si>
     <t>URL</t>
   </si>
@@ -2046,10 +2046,19 @@
     <t>[{"input": "HelloWorld", "output": "\"HelloWorld\""}, {"input": "Quote", "output": "\"Quote\""}]</t>
   </si>
   <si>
+    <t>[{"input": "-13", "output": "13"}, {"input": "7", "output": "7"}]</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>[{"input": "", "output": "name       kor       mat       tot       avg\n       aaa        55        95       150        75\n       bbb       100        90       190        95\n       ggg        88       100       188        94", "desc": "자동 생성된 예시"}]</t>
+    <t>[{"input": "5 3 6", "output": "sum = 14\navg = 4.67"}, {"input": "1 4 2", "output": "sum = 7\navg = 2.33"}]</t>
+  </si>
+  <si>
+    <t>[{"input": "5 3", "output": "5 - 3 = 2"}, {"input": "2 9", "output": "2 + 9 = 11"}, {"input": "5 5", "output": "5 = 5"}]</t>
+  </si>
+  <si>
+    <t>[{"input": "", "output": "      name       kor       mat       tot       avg\n       aaa        55        95       150        75\n       bbb       100        90       190        95\n       ggg        88       100       188        94"}]</t>
   </si>
   <si>
     <t>[{"input": "5", "output": "0 0 1", "desc": "자동 생성된 예시"}]</t>
@@ -2097,22 +2106,34 @@
     <t>string,print</t>
   </si>
   <si>
+    <t>math,abs</t>
+  </si>
+  <si>
+    <t>if,print</t>
+  </si>
+  <si>
+    <t>loop,print</t>
+  </si>
+  <si>
+    <t>loop,len,print</t>
+  </si>
+  <si>
+    <t>math,input,print,format</t>
+  </si>
+  <si>
+    <t>len,print</t>
+  </si>
+  <si>
     <t>print</t>
   </si>
   <si>
-    <t>if,print</t>
-  </si>
-  <si>
-    <t>loop,print</t>
-  </si>
-  <si>
-    <t>loop,len,print</t>
-  </si>
-  <si>
-    <t>len,print</t>
-  </si>
-  <si>
     <t>if,loop,print</t>
+  </si>
+  <si>
+    <t>condition,operator,print</t>
+  </si>
+  <si>
+    <t>print,format</t>
   </si>
   <si>
     <t>basic</t>
@@ -3753,10 +3774,10 @@
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N22" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -3797,10 +3818,10 @@
         <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N23" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -3841,10 +3862,10 @@
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N24" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -3885,10 +3906,10 @@
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N25" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -3929,10 +3950,10 @@
         <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N26" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -3967,16 +3988,16 @@
         <v>516</v>
       </c>
       <c r="K27" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N27" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -4011,16 +4032,16 @@
         <v>517</v>
       </c>
       <c r="K28" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N28" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -4055,16 +4076,16 @@
         <v>518</v>
       </c>
       <c r="K29" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N29" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -4099,16 +4120,16 @@
         <v>519</v>
       </c>
       <c r="K30" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N30" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -4143,16 +4164,16 @@
         <v>520</v>
       </c>
       <c r="K31" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N31" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -4231,16 +4252,16 @@
         <v>521</v>
       </c>
       <c r="K33" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N33" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -4275,16 +4296,16 @@
         <v>522</v>
       </c>
       <c r="K34" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N34" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -4319,16 +4340,16 @@
         <v>523</v>
       </c>
       <c r="K35" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N35" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -4363,16 +4384,16 @@
         <v>524</v>
       </c>
       <c r="K36" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N36" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -4407,16 +4428,16 @@
         <v>525</v>
       </c>
       <c r="K37" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N37" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -4451,16 +4472,16 @@
         <v>526</v>
       </c>
       <c r="K38" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
       <c r="M38" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N38" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -4495,16 +4516,16 @@
         <v>527</v>
       </c>
       <c r="K39" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
       <c r="M39" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N39" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -4539,16 +4560,16 @@
         <v>528</v>
       </c>
       <c r="K40" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L40">
         <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N40" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -4583,16 +4604,16 @@
         <v>529</v>
       </c>
       <c r="K41" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
       <c r="M41" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N41" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -4627,16 +4648,16 @@
         <v>530</v>
       </c>
       <c r="K42" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L42">
         <v>1</v>
       </c>
       <c r="M42" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N42" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -4671,16 +4692,16 @@
         <v>531</v>
       </c>
       <c r="K43" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="L43">
         <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N43" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -4715,16 +4736,16 @@
         <v>532</v>
       </c>
       <c r="K44" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L44">
         <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N44" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -4759,16 +4780,16 @@
         <v>533</v>
       </c>
       <c r="K45" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L45">
         <v>1</v>
       </c>
       <c r="M45" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N45" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -4803,16 +4824,16 @@
         <v>534</v>
       </c>
       <c r="K46" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L46">
         <v>1</v>
       </c>
       <c r="M46" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N46" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -4847,16 +4868,16 @@
         <v>535</v>
       </c>
       <c r="K47" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L47">
         <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N47" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -4891,16 +4912,16 @@
         <v>536</v>
       </c>
       <c r="K48" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L48">
         <v>1</v>
       </c>
       <c r="M48" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N48" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -4935,16 +4956,16 @@
         <v>537</v>
       </c>
       <c r="K49" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L49">
         <v>1</v>
       </c>
       <c r="M49" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N49" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -4979,16 +5000,16 @@
         <v>538</v>
       </c>
       <c r="K50" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L50">
         <v>1</v>
       </c>
       <c r="M50" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N50" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -5023,16 +5044,16 @@
         <v>539</v>
       </c>
       <c r="K51" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L51">
         <v>1</v>
       </c>
       <c r="M51" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N51" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -5067,16 +5088,16 @@
         <v>540</v>
       </c>
       <c r="K52" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L52">
         <v>1</v>
       </c>
       <c r="M52" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N52" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -5111,16 +5132,16 @@
         <v>541</v>
       </c>
       <c r="K53" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="L53">
         <v>1</v>
       </c>
       <c r="M53" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N53" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -5155,16 +5176,16 @@
         <v>542</v>
       </c>
       <c r="K54" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="L54">
         <v>1</v>
       </c>
       <c r="M54" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N54" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -5199,16 +5220,16 @@
         <v>543</v>
       </c>
       <c r="K55" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="L55">
         <v>1</v>
       </c>
       <c r="M55" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N55" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -5243,16 +5264,16 @@
         <v>544</v>
       </c>
       <c r="K56" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="L56">
         <v>1</v>
       </c>
       <c r="M56" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N56" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -5287,16 +5308,16 @@
         <v>545</v>
       </c>
       <c r="K57" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="L57">
         <v>1</v>
       </c>
       <c r="M57" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N57" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -5331,16 +5352,16 @@
         <v>546</v>
       </c>
       <c r="K58" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="L58">
         <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N58" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -5375,16 +5396,16 @@
         <v>547</v>
       </c>
       <c r="K59" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="L59">
         <v>1</v>
       </c>
       <c r="M59" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N59" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -5419,16 +5440,16 @@
         <v>548</v>
       </c>
       <c r="K60" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="L60">
         <v>1</v>
       </c>
       <c r="M60" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N60" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -5460,16 +5481,16 @@
         <v>505</v>
       </c>
       <c r="K61" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L61">
         <v>1</v>
       </c>
       <c r="M61" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N61" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -5504,16 +5525,16 @@
         <v>549</v>
       </c>
       <c r="K62" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="L62">
         <v>1</v>
       </c>
       <c r="M62" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N62" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -7648,16 +7669,16 @@
         <v>550</v>
       </c>
       <c r="K111" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L111">
         <v>1</v>
       </c>
       <c r="M111" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N111" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -7680,16 +7701,16 @@
         <v>551</v>
       </c>
       <c r="K112" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L112">
         <v>1</v>
       </c>
       <c r="M112" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N112" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -7712,16 +7733,16 @@
         <v>552</v>
       </c>
       <c r="K113" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L113">
         <v>1</v>
       </c>
       <c r="M113" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N113" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -7744,16 +7765,16 @@
         <v>553</v>
       </c>
       <c r="K114" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L114">
         <v>1</v>
       </c>
       <c r="M114" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N114" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -7776,16 +7797,16 @@
         <v>550</v>
       </c>
       <c r="K115" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L115">
         <v>1</v>
       </c>
       <c r="M115" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N115" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -7808,16 +7829,16 @@
         <v>554</v>
       </c>
       <c r="K116" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L116">
         <v>1</v>
       </c>
       <c r="M116" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N116" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -7840,16 +7861,16 @@
         <v>551</v>
       </c>
       <c r="K117" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L117">
         <v>1</v>
       </c>
       <c r="M117" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N117" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -7872,16 +7893,16 @@
         <v>555</v>
       </c>
       <c r="K118" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L118">
         <v>1</v>
       </c>
       <c r="M118" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N118" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -7904,16 +7925,16 @@
         <v>554</v>
       </c>
       <c r="K119" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L119">
         <v>1</v>
       </c>
       <c r="M119" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N119" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -7936,16 +7957,16 @@
         <v>556</v>
       </c>
       <c r="K120" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L120">
         <v>1</v>
       </c>
       <c r="M120" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N120" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -7968,16 +7989,16 @@
         <v>550</v>
       </c>
       <c r="K121" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L121">
         <v>1</v>
       </c>
       <c r="M121" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N121" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -8000,16 +8021,16 @@
         <v>551</v>
       </c>
       <c r="K122" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L122">
         <v>1</v>
       </c>
       <c r="M122" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N122" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -8032,16 +8053,16 @@
         <v>556</v>
       </c>
       <c r="K123" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L123">
         <v>1</v>
       </c>
       <c r="M123" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N123" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -8064,16 +8085,16 @@
         <v>554</v>
       </c>
       <c r="K124" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L124">
         <v>1</v>
       </c>
       <c r="M124" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N124" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -8096,16 +8117,16 @@
         <v>555</v>
       </c>
       <c r="K125" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L125">
         <v>1</v>
       </c>
       <c r="M125" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N125" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -8128,16 +8149,16 @@
         <v>556</v>
       </c>
       <c r="K126" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L126">
         <v>1</v>
       </c>
       <c r="M126" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N126" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -8160,16 +8181,16 @@
         <v>550</v>
       </c>
       <c r="K127" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L127">
         <v>1</v>
       </c>
       <c r="M127" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N127" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -8192,16 +8213,16 @@
         <v>556</v>
       </c>
       <c r="K128" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L128">
         <v>1</v>
       </c>
       <c r="M128" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N128" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -8224,16 +8245,16 @@
         <v>551</v>
       </c>
       <c r="K129" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L129">
         <v>1</v>
       </c>
       <c r="M129" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N129" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -8256,16 +8277,16 @@
         <v>554</v>
       </c>
       <c r="K130" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L130">
         <v>1</v>
       </c>
       <c r="M130" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N130" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -8288,16 +8309,16 @@
         <v>555</v>
       </c>
       <c r="K131" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L131">
         <v>1</v>
       </c>
       <c r="M131" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N131" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -8320,16 +8341,16 @@
         <v>556</v>
       </c>
       <c r="K132" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L132">
         <v>1</v>
       </c>
       <c r="M132" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N132" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -8352,16 +8373,16 @@
         <v>551</v>
       </c>
       <c r="K133" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L133">
         <v>1</v>
       </c>
       <c r="M133" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N133" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -8384,16 +8405,16 @@
         <v>550</v>
       </c>
       <c r="K134" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L134">
         <v>1</v>
       </c>
       <c r="M134" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N134" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -8416,16 +8437,16 @@
         <v>554</v>
       </c>
       <c r="K135" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L135">
         <v>1</v>
       </c>
       <c r="M135" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N135" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -8448,16 +8469,16 @@
         <v>550</v>
       </c>
       <c r="K136" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L136">
         <v>1</v>
       </c>
       <c r="M136" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N136" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -8480,16 +8501,16 @@
         <v>551</v>
       </c>
       <c r="K137" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L137">
         <v>1</v>
       </c>
       <c r="M137" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N137" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -8512,16 +8533,16 @@
         <v>554</v>
       </c>
       <c r="K138" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L138">
         <v>1</v>
       </c>
       <c r="M138" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N138" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -8544,16 +8565,16 @@
         <v>555</v>
       </c>
       <c r="K139" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L139">
         <v>1</v>
       </c>
       <c r="M139" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N139" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -8576,16 +8597,16 @@
         <v>551</v>
       </c>
       <c r="K140" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L140">
         <v>1</v>
       </c>
       <c r="M140" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N140" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -10776,16 +10797,16 @@
         <v>550</v>
       </c>
       <c r="K190" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L190">
         <v>1</v>
       </c>
       <c r="M190" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N190" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
     </row>
     <row r="191" spans="1:14">
@@ -10820,16 +10841,16 @@
         <v>557</v>
       </c>
       <c r="K191" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L191">
         <v>1</v>
       </c>
       <c r="M191" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N191" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -10864,16 +10885,16 @@
         <v>555</v>
       </c>
       <c r="K192" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L192">
         <v>1</v>
       </c>
       <c r="M192" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N192" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -10908,16 +10929,16 @@
         <v>551</v>
       </c>
       <c r="K193" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L193">
         <v>1</v>
       </c>
       <c r="M193" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N193" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -10952,16 +10973,16 @@
         <v>558</v>
       </c>
       <c r="K194" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L194">
         <v>1</v>
       </c>
       <c r="M194" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N194" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -10996,16 +11017,16 @@
         <v>550</v>
       </c>
       <c r="K195" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L195">
         <v>1</v>
       </c>
       <c r="M195" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N195" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -11040,16 +11061,16 @@
         <v>559</v>
       </c>
       <c r="K196" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L196">
         <v>1</v>
       </c>
       <c r="M196" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N196" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -11084,16 +11105,16 @@
         <v>560</v>
       </c>
       <c r="K197" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L197">
         <v>1</v>
       </c>
       <c r="M197" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N197" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
     </row>
     <row r="198" spans="1:14">
@@ -11128,16 +11149,16 @@
         <v>561</v>
       </c>
       <c r="K198" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L198">
         <v>1</v>
       </c>
       <c r="M198" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N198" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -11172,16 +11193,16 @@
         <v>562</v>
       </c>
       <c r="K199" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L199">
         <v>1</v>
       </c>
       <c r="M199" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N199" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
     </row>
     <row r="200" spans="1:14">
@@ -11216,16 +11237,16 @@
         <v>563</v>
       </c>
       <c r="K200" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L200">
         <v>1</v>
       </c>
       <c r="M200" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N200" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
     </row>
     <row r="201" spans="1:14">
@@ -11260,16 +11281,16 @@
         <v>551</v>
       </c>
       <c r="K201" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L201">
         <v>1</v>
       </c>
       <c r="M201" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N201" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
     </row>
     <row r="202" spans="1:14">
@@ -11304,16 +11325,16 @@
         <v>564</v>
       </c>
       <c r="K202" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L202">
         <v>1</v>
       </c>
       <c r="M202" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N202" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -11348,16 +11369,16 @@
         <v>555</v>
       </c>
       <c r="K203" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L203">
         <v>1</v>
       </c>
       <c r="M203" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N203" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -11392,16 +11413,16 @@
         <v>550</v>
       </c>
       <c r="K204" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L204">
         <v>1</v>
       </c>
       <c r="M204" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N204" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -11436,16 +11457,16 @@
         <v>556</v>
       </c>
       <c r="K205" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L205">
         <v>1</v>
       </c>
       <c r="M205" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N205" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
     </row>
     <row r="206" spans="1:14">
@@ -11480,16 +11501,16 @@
         <v>551</v>
       </c>
       <c r="K206" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L206">
         <v>1</v>
       </c>
       <c r="M206" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N206" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -11524,16 +11545,16 @@
         <v>550</v>
       </c>
       <c r="K207" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L207">
         <v>1</v>
       </c>
       <c r="M207" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N207" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -11568,16 +11589,16 @@
         <v>551</v>
       </c>
       <c r="K208" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L208">
         <v>1</v>
       </c>
       <c r="M208" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N208" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -11612,16 +11633,16 @@
         <v>556</v>
       </c>
       <c r="K209" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L209">
         <v>1</v>
       </c>
       <c r="M209" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N209" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -11656,16 +11677,16 @@
         <v>551</v>
       </c>
       <c r="K210" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L210">
         <v>1</v>
       </c>
       <c r="M210" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N210" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -11700,16 +11721,16 @@
         <v>550</v>
       </c>
       <c r="K211" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L211">
         <v>1</v>
       </c>
       <c r="M211" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N211" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -11741,13 +11762,13 @@
         <v>506</v>
       </c>
       <c r="K212" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L212">
         <v>1</v>
       </c>
       <c r="M212" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N212" t="s">
         <v>380</v>
@@ -11782,13 +11803,13 @@
         <v>506</v>
       </c>
       <c r="K213" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L213">
         <v>1</v>
       </c>
       <c r="M213" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N213" t="s">
         <v>380</v>
@@ -11826,16 +11847,16 @@
         <v>555</v>
       </c>
       <c r="K214" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L214">
         <v>1</v>
       </c>
       <c r="M214" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N214" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
     </row>
     <row r="215" spans="1:14">
@@ -11870,16 +11891,16 @@
         <v>550</v>
       </c>
       <c r="K215" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L215">
         <v>1</v>
       </c>
       <c r="M215" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N215" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
     </row>
     <row r="216" spans="1:14">
@@ -11914,16 +11935,16 @@
         <v>565</v>
       </c>
       <c r="K216" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L216">
         <v>1</v>
       </c>
       <c r="M216" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N216" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -11958,16 +11979,16 @@
         <v>554</v>
       </c>
       <c r="K217" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L217">
         <v>1</v>
       </c>
       <c r="M217" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N217" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -12002,16 +12023,16 @@
         <v>555</v>
       </c>
       <c r="K218" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L218">
         <v>1</v>
       </c>
       <c r="M218" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N218" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
     </row>
     <row r="219" spans="1:14">
@@ -12046,16 +12067,16 @@
         <v>566</v>
       </c>
       <c r="K219" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L219">
         <v>1</v>
       </c>
       <c r="M219" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N219" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -12090,16 +12111,16 @@
         <v>556</v>
       </c>
       <c r="K220" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L220">
         <v>1</v>
       </c>
       <c r="M220" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N220" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -12134,16 +12155,16 @@
         <v>551</v>
       </c>
       <c r="K221" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L221">
         <v>1</v>
       </c>
       <c r="M221" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N221" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
     </row>
     <row r="222" spans="1:14">
@@ -12178,16 +12199,16 @@
         <v>555</v>
       </c>
       <c r="K222" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L222">
         <v>1</v>
       </c>
       <c r="M222" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N222" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -12222,16 +12243,16 @@
         <v>567</v>
       </c>
       <c r="K223" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L223">
         <v>1</v>
       </c>
       <c r="M223" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N223" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -12266,16 +12287,16 @@
         <v>568</v>
       </c>
       <c r="K224" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L224">
         <v>1</v>
       </c>
       <c r="M224" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N224" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
     </row>
     <row r="225" spans="1:14">
@@ -12310,16 +12331,16 @@
         <v>569</v>
       </c>
       <c r="K225" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L225">
         <v>1</v>
       </c>
       <c r="M225" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N225" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -12354,16 +12375,16 @@
         <v>570</v>
       </c>
       <c r="K226" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L226">
         <v>2</v>
       </c>
       <c r="M226" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N226" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
     </row>
     <row r="227" spans="1:14">
@@ -12398,16 +12419,16 @@
         <v>571</v>
       </c>
       <c r="K227" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L227">
         <v>2</v>
       </c>
       <c r="M227" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N227" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -12442,16 +12463,16 @@
         <v>572</v>
       </c>
       <c r="K228" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L228">
         <v>2</v>
       </c>
       <c r="M228" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N228" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -12486,16 +12507,16 @@
         <v>573</v>
       </c>
       <c r="K229" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L229">
         <v>2</v>
       </c>
       <c r="M229" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N229" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -12530,16 +12551,16 @@
         <v>574</v>
       </c>
       <c r="K230" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L230">
         <v>2</v>
       </c>
       <c r="M230" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N230" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
     </row>
     <row r="231" spans="1:14">
@@ -12574,16 +12595,16 @@
         <v>575</v>
       </c>
       <c r="K231" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L231">
         <v>2</v>
       </c>
       <c r="M231" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N231" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -12618,16 +12639,16 @@
         <v>576</v>
       </c>
       <c r="K232" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L232">
         <v>2</v>
       </c>
       <c r="M232" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N232" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -12662,16 +12683,16 @@
         <v>577</v>
       </c>
       <c r="K233" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L233">
         <v>2</v>
       </c>
       <c r="M233" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N233" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -12706,16 +12727,16 @@
         <v>578</v>
       </c>
       <c r="K234" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L234">
         <v>2</v>
       </c>
       <c r="M234" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N234" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="235" spans="1:14">
@@ -12750,16 +12771,16 @@
         <v>579</v>
       </c>
       <c r="K235" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L235">
         <v>2</v>
       </c>
       <c r="M235" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N235" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -12794,16 +12815,16 @@
         <v>580</v>
       </c>
       <c r="K236" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L236">
         <v>2</v>
       </c>
       <c r="M236" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N236" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -12838,16 +12859,16 @@
         <v>581</v>
       </c>
       <c r="K237" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L237">
         <v>3</v>
       </c>
       <c r="M237" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N237" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="238" spans="1:14">
@@ -12882,16 +12903,16 @@
         <v>582</v>
       </c>
       <c r="K238" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L238">
         <v>3</v>
       </c>
       <c r="M238" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N238" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -12926,16 +12947,16 @@
         <v>583</v>
       </c>
       <c r="K239" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L239">
         <v>3</v>
       </c>
       <c r="M239" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N239" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
     </row>
     <row r="240" spans="1:14">
@@ -12970,16 +12991,16 @@
         <v>584</v>
       </c>
       <c r="K240" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L240">
         <v>3</v>
       </c>
       <c r="M240" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N240" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -13014,16 +13035,16 @@
         <v>585</v>
       </c>
       <c r="K241" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L241">
         <v>3</v>
       </c>
       <c r="M241" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N241" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
     </row>
     <row r="242" spans="1:14">
@@ -13058,16 +13079,16 @@
         <v>586</v>
       </c>
       <c r="K242" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L242">
         <v>3</v>
       </c>
       <c r="M242" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N242" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="243" spans="1:14">
@@ -13102,16 +13123,16 @@
         <v>587</v>
       </c>
       <c r="K243" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L243">
         <v>3</v>
       </c>
       <c r="M243" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N243" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
     </row>
     <row r="244" spans="1:14">
@@ -13146,16 +13167,16 @@
         <v>588</v>
       </c>
       <c r="K244" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L244">
         <v>3</v>
       </c>
       <c r="M244" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N244" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
     </row>
     <row r="245" spans="1:14">
@@ -13190,16 +13211,16 @@
         <v>589</v>
       </c>
       <c r="K245" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L245">
         <v>3</v>
       </c>
       <c r="M245" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N245" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
     </row>
     <row r="246" spans="1:14">
@@ -13234,16 +13255,16 @@
         <v>590</v>
       </c>
       <c r="K246" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L246">
         <v>3</v>
       </c>
       <c r="M246" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N246" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="247" spans="1:14">
@@ -13278,16 +13299,16 @@
         <v>591</v>
       </c>
       <c r="K247" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L247">
         <v>3</v>
       </c>
       <c r="M247" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N247" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -13322,16 +13343,16 @@
         <v>592</v>
       </c>
       <c r="K248" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L248">
         <v>3</v>
       </c>
       <c r="M248" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N248" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -13366,16 +13387,16 @@
         <v>593</v>
       </c>
       <c r="K249" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L249">
         <v>3</v>
       </c>
       <c r="M249" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N249" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -13410,16 +13431,16 @@
         <v>594</v>
       </c>
       <c r="K250" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L250">
         <v>3</v>
       </c>
       <c r="M250" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N250" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -13454,16 +13475,16 @@
         <v>595</v>
       </c>
       <c r="K251" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L251">
         <v>3</v>
       </c>
       <c r="M251" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N251" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -13498,16 +13519,16 @@
         <v>596</v>
       </c>
       <c r="K252" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L252">
         <v>3</v>
       </c>
       <c r="M252" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N252" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="253" spans="1:14">
@@ -13542,16 +13563,16 @@
         <v>597</v>
       </c>
       <c r="K253" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L253">
         <v>3</v>
       </c>
       <c r="M253" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N253" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
     </row>
     <row r="254" spans="1:14">
@@ -13586,16 +13607,16 @@
         <v>598</v>
       </c>
       <c r="K254" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L254">
         <v>3</v>
       </c>
       <c r="M254" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N254" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
     </row>
     <row r="255" spans="1:14">
@@ -13630,16 +13651,16 @@
         <v>599</v>
       </c>
       <c r="K255" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L255">
         <v>4</v>
       </c>
       <c r="M255" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N255" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -13674,16 +13695,16 @@
         <v>599</v>
       </c>
       <c r="K256" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L256">
         <v>4</v>
       </c>
       <c r="M256" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N256" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -13718,16 +13739,16 @@
         <v>600</v>
       </c>
       <c r="K257" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L257">
         <v>4</v>
       </c>
       <c r="M257" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N257" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -13762,16 +13783,16 @@
         <v>599</v>
       </c>
       <c r="K258" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L258">
         <v>4</v>
       </c>
       <c r="M258" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N258" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
     </row>
     <row r="259" spans="1:14">
@@ -13806,16 +13827,16 @@
         <v>600</v>
       </c>
       <c r="K259" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L259">
         <v>4</v>
       </c>
       <c r="M259" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N259" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -13850,16 +13871,16 @@
         <v>601</v>
       </c>
       <c r="K260" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L260">
         <v>4</v>
       </c>
       <c r="M260" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N260" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -13894,16 +13915,16 @@
         <v>602</v>
       </c>
       <c r="K261" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L261">
         <v>4</v>
       </c>
       <c r="M261" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N261" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
     </row>
     <row r="262" spans="1:14">
@@ -13938,16 +13959,16 @@
         <v>603</v>
       </c>
       <c r="K262" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L262">
         <v>4</v>
       </c>
       <c r="M262" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N262" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
     </row>
     <row r="263" spans="1:14">
@@ -13982,16 +14003,16 @@
         <v>604</v>
       </c>
       <c r="K263" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L263">
         <v>4</v>
       </c>
       <c r="M263" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N263" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
     </row>
     <row r="264" spans="1:14">
@@ -14026,16 +14047,16 @@
         <v>551</v>
       </c>
       <c r="K264" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L264">
         <v>4</v>
       </c>
       <c r="M264" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N264" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
     </row>
     <row r="265" spans="1:14">
@@ -14070,16 +14091,16 @@
         <v>605</v>
       </c>
       <c r="K265" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L265">
         <v>4</v>
       </c>
       <c r="M265" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N265" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
     </row>
     <row r="266" spans="1:14">
@@ -14114,16 +14135,16 @@
         <v>606</v>
       </c>
       <c r="K266" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L266">
         <v>4</v>
       </c>
       <c r="M266" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N266" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
     </row>
     <row r="267" spans="1:14">
@@ -14158,16 +14179,16 @@
         <v>607</v>
       </c>
       <c r="K267" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L267">
         <v>4</v>
       </c>
       <c r="M267" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N267" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
     </row>
     <row r="268" spans="1:14">
@@ -14202,16 +14223,16 @@
         <v>608</v>
       </c>
       <c r="K268" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L268">
         <v>4</v>
       </c>
       <c r="M268" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N268" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
     </row>
     <row r="269" spans="1:14">
@@ -14246,16 +14267,16 @@
         <v>609</v>
       </c>
       <c r="K269" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L269">
         <v>4</v>
       </c>
       <c r="M269" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N269" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
     </row>
     <row r="270" spans="1:14">
@@ -14290,16 +14311,16 @@
         <v>610</v>
       </c>
       <c r="K270" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L270">
         <v>4</v>
       </c>
       <c r="M270" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N270" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
     </row>
     <row r="271" spans="1:14">
@@ -14334,16 +14355,16 @@
         <v>611</v>
       </c>
       <c r="K271" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L271">
         <v>4</v>
       </c>
       <c r="M271" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N271" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
     </row>
     <row r="272" spans="1:14">
@@ -14378,16 +14399,16 @@
         <v>612</v>
       </c>
       <c r="K272" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L272">
         <v>4</v>
       </c>
       <c r="M272" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N272" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
     </row>
   </sheetData>

--- a/docs/content_sample/problems.xlsx
+++ b/docs/content_sample/problems.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="761">
   <si>
     <t>URL</t>
   </si>
@@ -2055,16 +2055,28 @@
     <t>[{"input": "5 3 6", "output": "sum = 14\navg = 4.67"}, {"input": "1 4 2", "output": "sum = 7\navg = 2.33"}]</t>
   </si>
   <si>
+    <t>[{"input": "HelloWorld\nProgrammingisfun", "output": "26"}]</t>
+  </si>
+  <si>
+    <t>[{"input": "3", "output": "*\n**\n***"}, {"input": "5", "output": "*\n**\n***\n****\n*****"}]</t>
+  </si>
+  <si>
     <t>[{"input": "5 3", "output": "5 - 3 = 2"}, {"input": "2 9", "output": "2 + 9 = 11"}, {"input": "5 5", "output": "5 = 5"}]</t>
   </si>
   <si>
+    <t>[{"input": "A", "output": "a"}, {"input": "f", "output": "F"}]</t>
+  </si>
+  <si>
+    <t>[{"input": "3", "output": "  *\n ***\n*****"}, {"input": "5", "output": "    *\n   ***\n  *****\n *******\n*********"}]</t>
+  </si>
+  <si>
     <t>[{"input": "", "output": "      name       kor       mat       tot       avg\n       aaa        55        95       150        75\n       bbb       100        90       190        95\n       ggg        88       100       188        94"}]</t>
   </si>
   <si>
-    <t>[{"input": "5", "output": "0 0 1", "desc": "자동 생성된 예시"}]</t>
-  </si>
-  <si>
-    <t>[{"input": "5", "output": "*\n   **\n  ***\n ****\n*****", "desc": "자동 생성된 예시"}]</t>
+    <t>[{"input": "Coding-C++/Python", "output": "3 10 0"}, {"input": "C++456Programming!!!", "output": "2 10 3"}]</t>
+  </si>
+  <si>
+    <t>[{"input": "3", "output": "  *\n **\n***"}, {"input": "5", "output": "    *\n   **\n  ***\n ****\n*****"}]</t>
   </si>
   <si>
     <t>[{"input": "확인 필요", "output": "실행 오류", "desc": "입력값 탐색 실패"}]</t>
@@ -2121,7 +2133,10 @@
     <t>math,input,print,format</t>
   </si>
   <si>
-    <t>len,print</t>
+    <t>string,len,math,input,print</t>
+  </si>
+  <si>
+    <t>loop,print,pattern,input</t>
   </si>
   <si>
     <t>print</t>
@@ -2133,7 +2148,19 @@
     <t>condition,operator,print</t>
   </si>
   <si>
+    <t>string,case,conditional,input,print</t>
+  </si>
+  <si>
+    <t>loop,print,pattern,input,math</t>
+  </si>
+  <si>
     <t>print,format</t>
+  </si>
+  <si>
+    <t>string,loop,conditional,count,input,print</t>
+  </si>
+  <si>
+    <t>loop,print,pattern,input,alignment</t>
   </si>
   <si>
     <t>basic</t>
@@ -3774,10 +3801,10 @@
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N22" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -3818,10 +3845,10 @@
         <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N23" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -3862,10 +3889,10 @@
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N24" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -3906,10 +3933,10 @@
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N25" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -3950,10 +3977,10 @@
         <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N26" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -3994,10 +4021,10 @@
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N27" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -4038,10 +4065,10 @@
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N28" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -4082,10 +4109,10 @@
         <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N29" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -4126,10 +4153,10 @@
         <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N30" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -4170,10 +4197,10 @@
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N31" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -4258,10 +4285,10 @@
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N33" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -4296,16 +4323,16 @@
         <v>522</v>
       </c>
       <c r="K34" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N34" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -4340,16 +4367,16 @@
         <v>523</v>
       </c>
       <c r="K35" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N35" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -4390,10 +4417,10 @@
         <v>1</v>
       </c>
       <c r="M36" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N36" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -4434,10 +4461,10 @@
         <v>1</v>
       </c>
       <c r="M37" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N37" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -4478,10 +4505,10 @@
         <v>1</v>
       </c>
       <c r="M38" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N38" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -4522,10 +4549,10 @@
         <v>1</v>
       </c>
       <c r="M39" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N39" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -4566,10 +4593,10 @@
         <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N40" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -4610,10 +4637,10 @@
         <v>1</v>
       </c>
       <c r="M41" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N41" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -4654,10 +4681,10 @@
         <v>1</v>
       </c>
       <c r="M42" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N42" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -4692,16 +4719,16 @@
         <v>531</v>
       </c>
       <c r="K43" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="L43">
         <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N43" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -4736,16 +4763,16 @@
         <v>532</v>
       </c>
       <c r="K44" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="L44">
         <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N44" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -4780,16 +4807,16 @@
         <v>533</v>
       </c>
       <c r="K45" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="L45">
         <v>1</v>
       </c>
       <c r="M45" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N45" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -4830,10 +4857,10 @@
         <v>1</v>
       </c>
       <c r="M46" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N46" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -4874,10 +4901,10 @@
         <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N47" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -4918,10 +4945,10 @@
         <v>1</v>
       </c>
       <c r="M48" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N48" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -4962,10 +4989,10 @@
         <v>1</v>
       </c>
       <c r="M49" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N49" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -5006,10 +5033,10 @@
         <v>1</v>
       </c>
       <c r="M50" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N50" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -5050,10 +5077,10 @@
         <v>1</v>
       </c>
       <c r="M51" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N51" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -5094,10 +5121,10 @@
         <v>1</v>
       </c>
       <c r="M52" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N52" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -5132,16 +5159,16 @@
         <v>541</v>
       </c>
       <c r="K53" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="L53">
         <v>1</v>
       </c>
       <c r="M53" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N53" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -5176,16 +5203,16 @@
         <v>542</v>
       </c>
       <c r="K54" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="L54">
         <v>1</v>
       </c>
       <c r="M54" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N54" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -5220,16 +5247,16 @@
         <v>543</v>
       </c>
       <c r="K55" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="L55">
         <v>1</v>
       </c>
       <c r="M55" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N55" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -5264,16 +5291,16 @@
         <v>544</v>
       </c>
       <c r="K56" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="L56">
         <v>1</v>
       </c>
       <c r="M56" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N56" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -5308,16 +5335,16 @@
         <v>545</v>
       </c>
       <c r="K57" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="L57">
         <v>1</v>
       </c>
       <c r="M57" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N57" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -5352,16 +5379,16 @@
         <v>546</v>
       </c>
       <c r="K58" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="L58">
         <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N58" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -5396,16 +5423,16 @@
         <v>547</v>
       </c>
       <c r="K59" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="L59">
         <v>1</v>
       </c>
       <c r="M59" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N59" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -5440,16 +5467,16 @@
         <v>548</v>
       </c>
       <c r="K60" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="L60">
         <v>1</v>
       </c>
       <c r="M60" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N60" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -5487,10 +5514,10 @@
         <v>1</v>
       </c>
       <c r="M61" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N61" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -5525,16 +5552,16 @@
         <v>549</v>
       </c>
       <c r="K62" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="L62">
         <v>1</v>
       </c>
       <c r="M62" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N62" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -7669,16 +7696,16 @@
         <v>550</v>
       </c>
       <c r="K111" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L111">
         <v>1</v>
       </c>
       <c r="M111" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N111" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -7701,16 +7728,16 @@
         <v>551</v>
       </c>
       <c r="K112" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L112">
         <v>1</v>
       </c>
       <c r="M112" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N112" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -7733,16 +7760,16 @@
         <v>552</v>
       </c>
       <c r="K113" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L113">
         <v>1</v>
       </c>
       <c r="M113" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N113" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -7765,16 +7792,16 @@
         <v>553</v>
       </c>
       <c r="K114" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L114">
         <v>1</v>
       </c>
       <c r="M114" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N114" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -7797,16 +7824,16 @@
         <v>550</v>
       </c>
       <c r="K115" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L115">
         <v>1</v>
       </c>
       <c r="M115" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N115" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -7829,16 +7856,16 @@
         <v>554</v>
       </c>
       <c r="K116" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L116">
         <v>1</v>
       </c>
       <c r="M116" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N116" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -7861,16 +7888,16 @@
         <v>551</v>
       </c>
       <c r="K117" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L117">
         <v>1</v>
       </c>
       <c r="M117" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N117" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -7893,16 +7920,16 @@
         <v>555</v>
       </c>
       <c r="K118" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L118">
         <v>1</v>
       </c>
       <c r="M118" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N118" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -7925,16 +7952,16 @@
         <v>554</v>
       </c>
       <c r="K119" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L119">
         <v>1</v>
       </c>
       <c r="M119" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N119" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -7957,16 +7984,16 @@
         <v>556</v>
       </c>
       <c r="K120" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L120">
         <v>1</v>
       </c>
       <c r="M120" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N120" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -7989,16 +8016,16 @@
         <v>550</v>
       </c>
       <c r="K121" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L121">
         <v>1</v>
       </c>
       <c r="M121" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N121" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -8021,16 +8048,16 @@
         <v>551</v>
       </c>
       <c r="K122" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L122">
         <v>1</v>
       </c>
       <c r="M122" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N122" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -8053,16 +8080,16 @@
         <v>556</v>
       </c>
       <c r="K123" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L123">
         <v>1</v>
       </c>
       <c r="M123" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N123" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -8085,16 +8112,16 @@
         <v>554</v>
       </c>
       <c r="K124" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L124">
         <v>1</v>
       </c>
       <c r="M124" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N124" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -8117,16 +8144,16 @@
         <v>555</v>
       </c>
       <c r="K125" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L125">
         <v>1</v>
       </c>
       <c r="M125" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N125" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -8149,16 +8176,16 @@
         <v>556</v>
       </c>
       <c r="K126" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L126">
         <v>1</v>
       </c>
       <c r="M126" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N126" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -8181,16 +8208,16 @@
         <v>550</v>
       </c>
       <c r="K127" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L127">
         <v>1</v>
       </c>
       <c r="M127" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N127" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -8213,16 +8240,16 @@
         <v>556</v>
       </c>
       <c r="K128" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L128">
         <v>1</v>
       </c>
       <c r="M128" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N128" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -8245,16 +8272,16 @@
         <v>551</v>
       </c>
       <c r="K129" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L129">
         <v>1</v>
       </c>
       <c r="M129" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N129" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -8277,16 +8304,16 @@
         <v>554</v>
       </c>
       <c r="K130" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L130">
         <v>1</v>
       </c>
       <c r="M130" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N130" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -8309,16 +8336,16 @@
         <v>555</v>
       </c>
       <c r="K131" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L131">
         <v>1</v>
       </c>
       <c r="M131" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N131" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -8341,16 +8368,16 @@
         <v>556</v>
       </c>
       <c r="K132" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L132">
         <v>1</v>
       </c>
       <c r="M132" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N132" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -8373,16 +8400,16 @@
         <v>551</v>
       </c>
       <c r="K133" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L133">
         <v>1</v>
       </c>
       <c r="M133" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N133" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -8405,16 +8432,16 @@
         <v>550</v>
       </c>
       <c r="K134" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L134">
         <v>1</v>
       </c>
       <c r="M134" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N134" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -8437,16 +8464,16 @@
         <v>554</v>
       </c>
       <c r="K135" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L135">
         <v>1</v>
       </c>
       <c r="M135" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N135" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -8469,16 +8496,16 @@
         <v>550</v>
       </c>
       <c r="K136" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L136">
         <v>1</v>
       </c>
       <c r="M136" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N136" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -8501,16 +8528,16 @@
         <v>551</v>
       </c>
       <c r="K137" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L137">
         <v>1</v>
       </c>
       <c r="M137" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N137" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -8533,16 +8560,16 @@
         <v>554</v>
       </c>
       <c r="K138" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L138">
         <v>1</v>
       </c>
       <c r="M138" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N138" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -8565,16 +8592,16 @@
         <v>555</v>
       </c>
       <c r="K139" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L139">
         <v>1</v>
       </c>
       <c r="M139" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N139" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -8597,16 +8624,16 @@
         <v>551</v>
       </c>
       <c r="K140" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L140">
         <v>1</v>
       </c>
       <c r="M140" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N140" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -10797,16 +10824,16 @@
         <v>550</v>
       </c>
       <c r="K190" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L190">
         <v>1</v>
       </c>
       <c r="M190" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N190" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
     </row>
     <row r="191" spans="1:14">
@@ -10841,16 +10868,16 @@
         <v>557</v>
       </c>
       <c r="K191" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L191">
         <v>1</v>
       </c>
       <c r="M191" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N191" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -10885,16 +10912,16 @@
         <v>555</v>
       </c>
       <c r="K192" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L192">
         <v>1</v>
       </c>
       <c r="M192" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N192" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -10929,16 +10956,16 @@
         <v>551</v>
       </c>
       <c r="K193" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L193">
         <v>1</v>
       </c>
       <c r="M193" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N193" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -10973,16 +11000,16 @@
         <v>558</v>
       </c>
       <c r="K194" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L194">
         <v>1</v>
       </c>
       <c r="M194" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N194" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -11017,16 +11044,16 @@
         <v>550</v>
       </c>
       <c r="K195" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L195">
         <v>1</v>
       </c>
       <c r="M195" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N195" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -11061,16 +11088,16 @@
         <v>559</v>
       </c>
       <c r="K196" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L196">
         <v>1</v>
       </c>
       <c r="M196" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N196" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -11105,16 +11132,16 @@
         <v>560</v>
       </c>
       <c r="K197" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L197">
         <v>1</v>
       </c>
       <c r="M197" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N197" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
     </row>
     <row r="198" spans="1:14">
@@ -11149,16 +11176,16 @@
         <v>561</v>
       </c>
       <c r="K198" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L198">
         <v>1</v>
       </c>
       <c r="M198" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N198" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -11193,16 +11220,16 @@
         <v>562</v>
       </c>
       <c r="K199" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L199">
         <v>1</v>
       </c>
       <c r="M199" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N199" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
     </row>
     <row r="200" spans="1:14">
@@ -11237,16 +11264,16 @@
         <v>563</v>
       </c>
       <c r="K200" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L200">
         <v>1</v>
       </c>
       <c r="M200" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N200" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
     </row>
     <row r="201" spans="1:14">
@@ -11281,16 +11308,16 @@
         <v>551</v>
       </c>
       <c r="K201" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L201">
         <v>1</v>
       </c>
       <c r="M201" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N201" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
     </row>
     <row r="202" spans="1:14">
@@ -11325,16 +11352,16 @@
         <v>564</v>
       </c>
       <c r="K202" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L202">
         <v>1</v>
       </c>
       <c r="M202" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N202" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -11369,16 +11396,16 @@
         <v>555</v>
       </c>
       <c r="K203" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L203">
         <v>1</v>
       </c>
       <c r="M203" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N203" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -11413,16 +11440,16 @@
         <v>550</v>
       </c>
       <c r="K204" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L204">
         <v>1</v>
       </c>
       <c r="M204" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N204" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -11457,16 +11484,16 @@
         <v>556</v>
       </c>
       <c r="K205" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L205">
         <v>1</v>
       </c>
       <c r="M205" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N205" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
     </row>
     <row r="206" spans="1:14">
@@ -11501,16 +11528,16 @@
         <v>551</v>
       </c>
       <c r="K206" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L206">
         <v>1</v>
       </c>
       <c r="M206" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N206" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -11545,16 +11572,16 @@
         <v>550</v>
       </c>
       <c r="K207" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L207">
         <v>1</v>
       </c>
       <c r="M207" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N207" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -11589,16 +11616,16 @@
         <v>551</v>
       </c>
       <c r="K208" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L208">
         <v>1</v>
       </c>
       <c r="M208" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N208" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -11633,16 +11660,16 @@
         <v>556</v>
       </c>
       <c r="K209" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L209">
         <v>1</v>
       </c>
       <c r="M209" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N209" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -11677,16 +11704,16 @@
         <v>551</v>
       </c>
       <c r="K210" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L210">
         <v>1</v>
       </c>
       <c r="M210" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N210" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -11721,16 +11748,16 @@
         <v>550</v>
       </c>
       <c r="K211" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L211">
         <v>1</v>
       </c>
       <c r="M211" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N211" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -11762,13 +11789,13 @@
         <v>506</v>
       </c>
       <c r="K212" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L212">
         <v>1</v>
       </c>
       <c r="M212" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N212" t="s">
         <v>380</v>
@@ -11803,13 +11830,13 @@
         <v>506</v>
       </c>
       <c r="K213" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L213">
         <v>1</v>
       </c>
       <c r="M213" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N213" t="s">
         <v>380</v>
@@ -11847,16 +11874,16 @@
         <v>555</v>
       </c>
       <c r="K214" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L214">
         <v>1</v>
       </c>
       <c r="M214" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N214" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
     </row>
     <row r="215" spans="1:14">
@@ -11891,16 +11918,16 @@
         <v>550</v>
       </c>
       <c r="K215" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L215">
         <v>1</v>
       </c>
       <c r="M215" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N215" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
     </row>
     <row r="216" spans="1:14">
@@ -11935,16 +11962,16 @@
         <v>565</v>
       </c>
       <c r="K216" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L216">
         <v>1</v>
       </c>
       <c r="M216" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N216" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -11979,16 +12006,16 @@
         <v>554</v>
       </c>
       <c r="K217" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L217">
         <v>1</v>
       </c>
       <c r="M217" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N217" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -12023,16 +12050,16 @@
         <v>555</v>
       </c>
       <c r="K218" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L218">
         <v>1</v>
       </c>
       <c r="M218" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N218" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
     </row>
     <row r="219" spans="1:14">
@@ -12067,16 +12094,16 @@
         <v>566</v>
       </c>
       <c r="K219" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L219">
         <v>1</v>
       </c>
       <c r="M219" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N219" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -12111,16 +12138,16 @@
         <v>556</v>
       </c>
       <c r="K220" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L220">
         <v>1</v>
       </c>
       <c r="M220" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N220" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -12155,16 +12182,16 @@
         <v>551</v>
       </c>
       <c r="K221" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L221">
         <v>1</v>
       </c>
       <c r="M221" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N221" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
     </row>
     <row r="222" spans="1:14">
@@ -12199,16 +12226,16 @@
         <v>555</v>
       </c>
       <c r="K222" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L222">
         <v>1</v>
       </c>
       <c r="M222" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N222" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -12243,16 +12270,16 @@
         <v>567</v>
       </c>
       <c r="K223" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L223">
         <v>1</v>
       </c>
       <c r="M223" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N223" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -12287,16 +12314,16 @@
         <v>568</v>
       </c>
       <c r="K224" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L224">
         <v>1</v>
       </c>
       <c r="M224" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N224" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
     </row>
     <row r="225" spans="1:14">
@@ -12331,16 +12358,16 @@
         <v>569</v>
       </c>
       <c r="K225" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L225">
         <v>1</v>
       </c>
       <c r="M225" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N225" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -12375,16 +12402,16 @@
         <v>570</v>
       </c>
       <c r="K226" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L226">
         <v>2</v>
       </c>
       <c r="M226" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N226" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
     </row>
     <row r="227" spans="1:14">
@@ -12419,16 +12446,16 @@
         <v>571</v>
       </c>
       <c r="K227" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L227">
         <v>2</v>
       </c>
       <c r="M227" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N227" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -12463,16 +12490,16 @@
         <v>572</v>
       </c>
       <c r="K228" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L228">
         <v>2</v>
       </c>
       <c r="M228" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N228" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -12507,16 +12534,16 @@
         <v>573</v>
       </c>
       <c r="K229" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L229">
         <v>2</v>
       </c>
       <c r="M229" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N229" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -12551,16 +12578,16 @@
         <v>574</v>
       </c>
       <c r="K230" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L230">
         <v>2</v>
       </c>
       <c r="M230" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N230" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
     </row>
     <row r="231" spans="1:14">
@@ -12595,16 +12622,16 @@
         <v>575</v>
       </c>
       <c r="K231" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L231">
         <v>2</v>
       </c>
       <c r="M231" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N231" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -12639,16 +12666,16 @@
         <v>576</v>
       </c>
       <c r="K232" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L232">
         <v>2</v>
       </c>
       <c r="M232" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N232" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -12683,16 +12710,16 @@
         <v>577</v>
       </c>
       <c r="K233" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L233">
         <v>2</v>
       </c>
       <c r="M233" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N233" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -12727,16 +12754,16 @@
         <v>578</v>
       </c>
       <c r="K234" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L234">
         <v>2</v>
       </c>
       <c r="M234" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N234" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
     </row>
     <row r="235" spans="1:14">
@@ -12771,16 +12798,16 @@
         <v>579</v>
       </c>
       <c r="K235" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L235">
         <v>2</v>
       </c>
       <c r="M235" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N235" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -12815,16 +12842,16 @@
         <v>580</v>
       </c>
       <c r="K236" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L236">
         <v>2</v>
       </c>
       <c r="M236" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N236" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -12859,16 +12886,16 @@
         <v>581</v>
       </c>
       <c r="K237" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L237">
         <v>3</v>
       </c>
       <c r="M237" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N237" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
     </row>
     <row r="238" spans="1:14">
@@ -12903,16 +12930,16 @@
         <v>582</v>
       </c>
       <c r="K238" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L238">
         <v>3</v>
       </c>
       <c r="M238" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N238" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -12947,16 +12974,16 @@
         <v>583</v>
       </c>
       <c r="K239" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L239">
         <v>3</v>
       </c>
       <c r="M239" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N239" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
     </row>
     <row r="240" spans="1:14">
@@ -12991,16 +13018,16 @@
         <v>584</v>
       </c>
       <c r="K240" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L240">
         <v>3</v>
       </c>
       <c r="M240" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N240" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -13035,16 +13062,16 @@
         <v>585</v>
       </c>
       <c r="K241" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L241">
         <v>3</v>
       </c>
       <c r="M241" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N241" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="242" spans="1:14">
@@ -13079,16 +13106,16 @@
         <v>586</v>
       </c>
       <c r="K242" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L242">
         <v>3</v>
       </c>
       <c r="M242" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N242" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
     </row>
     <row r="243" spans="1:14">
@@ -13123,16 +13150,16 @@
         <v>587</v>
       </c>
       <c r="K243" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L243">
         <v>3</v>
       </c>
       <c r="M243" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N243" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
     </row>
     <row r="244" spans="1:14">
@@ -13167,16 +13194,16 @@
         <v>588</v>
       </c>
       <c r="K244" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L244">
         <v>3</v>
       </c>
       <c r="M244" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N244" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
     </row>
     <row r="245" spans="1:14">
@@ -13211,16 +13238,16 @@
         <v>589</v>
       </c>
       <c r="K245" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L245">
         <v>3</v>
       </c>
       <c r="M245" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N245" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
     </row>
     <row r="246" spans="1:14">
@@ -13255,16 +13282,16 @@
         <v>590</v>
       </c>
       <c r="K246" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L246">
         <v>3</v>
       </c>
       <c r="M246" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N246" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
     </row>
     <row r="247" spans="1:14">
@@ -13299,16 +13326,16 @@
         <v>591</v>
       </c>
       <c r="K247" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L247">
         <v>3</v>
       </c>
       <c r="M247" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N247" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -13343,16 +13370,16 @@
         <v>592</v>
       </c>
       <c r="K248" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L248">
         <v>3</v>
       </c>
       <c r="M248" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N248" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -13387,16 +13414,16 @@
         <v>593</v>
       </c>
       <c r="K249" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L249">
         <v>3</v>
       </c>
       <c r="M249" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N249" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -13431,16 +13458,16 @@
         <v>594</v>
       </c>
       <c r="K250" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L250">
         <v>3</v>
       </c>
       <c r="M250" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N250" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -13475,16 +13502,16 @@
         <v>595</v>
       </c>
       <c r="K251" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L251">
         <v>3</v>
       </c>
       <c r="M251" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N251" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -13519,16 +13546,16 @@
         <v>596</v>
       </c>
       <c r="K252" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L252">
         <v>3</v>
       </c>
       <c r="M252" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N252" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
     </row>
     <row r="253" spans="1:14">
@@ -13563,16 +13590,16 @@
         <v>597</v>
       </c>
       <c r="K253" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L253">
         <v>3</v>
       </c>
       <c r="M253" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N253" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
     </row>
     <row r="254" spans="1:14">
@@ -13607,16 +13634,16 @@
         <v>598</v>
       </c>
       <c r="K254" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L254">
         <v>3</v>
       </c>
       <c r="M254" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N254" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
     </row>
     <row r="255" spans="1:14">
@@ -13651,16 +13678,16 @@
         <v>599</v>
       </c>
       <c r="K255" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L255">
         <v>4</v>
       </c>
       <c r="M255" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N255" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -13695,16 +13722,16 @@
         <v>599</v>
       </c>
       <c r="K256" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L256">
         <v>4</v>
       </c>
       <c r="M256" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N256" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -13739,16 +13766,16 @@
         <v>600</v>
       </c>
       <c r="K257" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L257">
         <v>4</v>
       </c>
       <c r="M257" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N257" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -13783,16 +13810,16 @@
         <v>599</v>
       </c>
       <c r="K258" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L258">
         <v>4</v>
       </c>
       <c r="M258" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N258" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
     </row>
     <row r="259" spans="1:14">
@@ -13827,16 +13854,16 @@
         <v>600</v>
       </c>
       <c r="K259" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L259">
         <v>4</v>
       </c>
       <c r="M259" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N259" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -13871,16 +13898,16 @@
         <v>601</v>
       </c>
       <c r="K260" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L260">
         <v>4</v>
       </c>
       <c r="M260" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N260" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -13915,16 +13942,16 @@
         <v>602</v>
       </c>
       <c r="K261" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L261">
         <v>4</v>
       </c>
       <c r="M261" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N261" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
     </row>
     <row r="262" spans="1:14">
@@ -13959,16 +13986,16 @@
         <v>603</v>
       </c>
       <c r="K262" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L262">
         <v>4</v>
       </c>
       <c r="M262" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N262" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
     </row>
     <row r="263" spans="1:14">
@@ -14003,16 +14030,16 @@
         <v>604</v>
       </c>
       <c r="K263" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L263">
         <v>4</v>
       </c>
       <c r="M263" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N263" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
     </row>
     <row r="264" spans="1:14">
@@ -14047,16 +14074,16 @@
         <v>551</v>
       </c>
       <c r="K264" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L264">
         <v>4</v>
       </c>
       <c r="M264" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N264" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
     </row>
     <row r="265" spans="1:14">
@@ -14091,16 +14118,16 @@
         <v>605</v>
       </c>
       <c r="K265" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L265">
         <v>4</v>
       </c>
       <c r="M265" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N265" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
     </row>
     <row r="266" spans="1:14">
@@ -14135,16 +14162,16 @@
         <v>606</v>
       </c>
       <c r="K266" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L266">
         <v>4</v>
       </c>
       <c r="M266" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N266" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
     </row>
     <row r="267" spans="1:14">
@@ -14179,16 +14206,16 @@
         <v>607</v>
       </c>
       <c r="K267" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L267">
         <v>4</v>
       </c>
       <c r="M267" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N267" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
     </row>
     <row r="268" spans="1:14">
@@ -14223,16 +14250,16 @@
         <v>608</v>
       </c>
       <c r="K268" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L268">
         <v>4</v>
       </c>
       <c r="M268" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N268" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
     </row>
     <row r="269" spans="1:14">
@@ -14267,16 +14294,16 @@
         <v>609</v>
       </c>
       <c r="K269" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L269">
         <v>4</v>
       </c>
       <c r="M269" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N269" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
     </row>
     <row r="270" spans="1:14">
@@ -14311,16 +14338,16 @@
         <v>610</v>
       </c>
       <c r="K270" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L270">
         <v>4</v>
       </c>
       <c r="M270" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N270" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
     </row>
     <row r="271" spans="1:14">
@@ -14355,16 +14382,16 @@
         <v>611</v>
       </c>
       <c r="K271" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L271">
         <v>4</v>
       </c>
       <c r="M271" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N271" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
     </row>
     <row r="272" spans="1:14">
@@ -14399,16 +14426,16 @@
         <v>612</v>
       </c>
       <c r="K272" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L272">
         <v>4</v>
       </c>
       <c r="M272" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="N272" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
     </row>
   </sheetData>

--- a/docs/content_sample/problems.xlsx
+++ b/docs/content_sample/problems.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="763">
   <si>
     <t>URL</t>
   </si>
@@ -1700,7 +1700,7 @@
     print(spaces + stars)</t>
   </si>
   <si>
-    <t>print('"Python\\test"')</t>
+    <t>print('"Python:\test"')</t>
   </si>
   <si>
     <t>seconds = int(input())
@@ -2070,6 +2070,9 @@
     <t>[{"input": "3", "output": "  *\n ***\n*****"}, {"input": "5", "output": "    *\n   ***\n  *****\n *******\n*********"}]</t>
   </si>
   <si>
+    <t>[{"input": "", "output": "\"Python:\\test\""}]</t>
+  </si>
+  <si>
     <t>[{"input": "", "output": "      name       kor       mat       tot       avg\n       aaa        55        95       150        75\n       bbb       100        90       190        95\n       ggg        88       100       188        94"}]</t>
   </si>
   <si>
@@ -2152,6 +2155,9 @@
   </si>
   <si>
     <t>loop,print,pattern,input,math</t>
+  </si>
+  <si>
+    <t>print,escape_sequence</t>
   </si>
   <si>
     <t>print,format</t>
@@ -3801,10 +3807,10 @@
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N22" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -3845,10 +3851,10 @@
         <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N23" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -3889,10 +3895,10 @@
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N24" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -3933,10 +3939,10 @@
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N25" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -3977,10 +3983,10 @@
         <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N26" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -4021,10 +4027,10 @@
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N27" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -4065,10 +4071,10 @@
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N28" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -4109,10 +4115,10 @@
         <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -4153,10 +4159,10 @@
         <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N30" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -4197,10 +4203,10 @@
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N31" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -4285,10 +4291,10 @@
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N33" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -4329,10 +4335,10 @@
         <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N34" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -4373,10 +4379,10 @@
         <v>1</v>
       </c>
       <c r="M35" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N35" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -4417,10 +4423,10 @@
         <v>1</v>
       </c>
       <c r="M36" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N36" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -4461,10 +4467,10 @@
         <v>1</v>
       </c>
       <c r="M37" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N37" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -4505,10 +4511,10 @@
         <v>1</v>
       </c>
       <c r="M38" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N38" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -4549,10 +4555,10 @@
         <v>1</v>
       </c>
       <c r="M39" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N39" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -4593,10 +4599,10 @@
         <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N40" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -4637,10 +4643,10 @@
         <v>1</v>
       </c>
       <c r="M41" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N41" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -4681,10 +4687,10 @@
         <v>1</v>
       </c>
       <c r="M42" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N42" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -4725,10 +4731,10 @@
         <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N43" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -4769,10 +4775,10 @@
         <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N44" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -4813,10 +4819,10 @@
         <v>1</v>
       </c>
       <c r="M45" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N45" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -4851,16 +4857,16 @@
         <v>534</v>
       </c>
       <c r="K46" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="L46">
         <v>1</v>
       </c>
       <c r="M46" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N46" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -4901,10 +4907,10 @@
         <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N47" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -4945,10 +4951,10 @@
         <v>1</v>
       </c>
       <c r="M48" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N48" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -4989,10 +4995,10 @@
         <v>1</v>
       </c>
       <c r="M49" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N49" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -5033,10 +5039,10 @@
         <v>1</v>
       </c>
       <c r="M50" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N50" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -5077,10 +5083,10 @@
         <v>1</v>
       </c>
       <c r="M51" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N51" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -5121,10 +5127,10 @@
         <v>1</v>
       </c>
       <c r="M52" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N52" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -5159,16 +5165,16 @@
         <v>541</v>
       </c>
       <c r="K53" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="L53">
         <v>1</v>
       </c>
       <c r="M53" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N53" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -5203,16 +5209,16 @@
         <v>542</v>
       </c>
       <c r="K54" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L54">
         <v>1</v>
       </c>
       <c r="M54" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N54" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -5247,16 +5253,16 @@
         <v>543</v>
       </c>
       <c r="K55" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L55">
         <v>1</v>
       </c>
       <c r="M55" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N55" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -5291,16 +5297,16 @@
         <v>544</v>
       </c>
       <c r="K56" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="L56">
         <v>1</v>
       </c>
       <c r="M56" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N56" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -5335,16 +5341,16 @@
         <v>545</v>
       </c>
       <c r="K57" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L57">
         <v>1</v>
       </c>
       <c r="M57" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N57" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -5379,16 +5385,16 @@
         <v>546</v>
       </c>
       <c r="K58" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L58">
         <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N58" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -5423,16 +5429,16 @@
         <v>547</v>
       </c>
       <c r="K59" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="L59">
         <v>1</v>
       </c>
       <c r="M59" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N59" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -5467,16 +5473,16 @@
         <v>548</v>
       </c>
       <c r="K60" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="L60">
         <v>1</v>
       </c>
       <c r="M60" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N60" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -5514,10 +5520,10 @@
         <v>1</v>
       </c>
       <c r="M61" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N61" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -5552,16 +5558,16 @@
         <v>549</v>
       </c>
       <c r="K62" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L62">
         <v>1</v>
       </c>
       <c r="M62" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N62" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -7696,16 +7702,16 @@
         <v>550</v>
       </c>
       <c r="K111" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L111">
         <v>1</v>
       </c>
       <c r="M111" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N111" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -7728,16 +7734,16 @@
         <v>551</v>
       </c>
       <c r="K112" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L112">
         <v>1</v>
       </c>
       <c r="M112" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N112" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -7760,16 +7766,16 @@
         <v>552</v>
       </c>
       <c r="K113" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L113">
         <v>1</v>
       </c>
       <c r="M113" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N113" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -7792,16 +7798,16 @@
         <v>553</v>
       </c>
       <c r="K114" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L114">
         <v>1</v>
       </c>
       <c r="M114" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N114" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -7824,16 +7830,16 @@
         <v>550</v>
       </c>
       <c r="K115" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L115">
         <v>1</v>
       </c>
       <c r="M115" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N115" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -7856,16 +7862,16 @@
         <v>554</v>
       </c>
       <c r="K116" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L116">
         <v>1</v>
       </c>
       <c r="M116" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N116" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -7888,16 +7894,16 @@
         <v>551</v>
       </c>
       <c r="K117" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L117">
         <v>1</v>
       </c>
       <c r="M117" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N117" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -7920,16 +7926,16 @@
         <v>555</v>
       </c>
       <c r="K118" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L118">
         <v>1</v>
       </c>
       <c r="M118" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N118" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -7952,16 +7958,16 @@
         <v>554</v>
       </c>
       <c r="K119" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L119">
         <v>1</v>
       </c>
       <c r="M119" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N119" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -7984,16 +7990,16 @@
         <v>556</v>
       </c>
       <c r="K120" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L120">
         <v>1</v>
       </c>
       <c r="M120" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N120" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -8016,16 +8022,16 @@
         <v>550</v>
       </c>
       <c r="K121" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L121">
         <v>1</v>
       </c>
       <c r="M121" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N121" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -8048,16 +8054,16 @@
         <v>551</v>
       </c>
       <c r="K122" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L122">
         <v>1</v>
       </c>
       <c r="M122" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N122" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -8080,16 +8086,16 @@
         <v>556</v>
       </c>
       <c r="K123" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L123">
         <v>1</v>
       </c>
       <c r="M123" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N123" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -8112,16 +8118,16 @@
         <v>554</v>
       </c>
       <c r="K124" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L124">
         <v>1</v>
       </c>
       <c r="M124" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N124" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -8144,16 +8150,16 @@
         <v>555</v>
       </c>
       <c r="K125" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L125">
         <v>1</v>
       </c>
       <c r="M125" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N125" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -8176,16 +8182,16 @@
         <v>556</v>
       </c>
       <c r="K126" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L126">
         <v>1</v>
       </c>
       <c r="M126" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N126" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -8208,16 +8214,16 @@
         <v>550</v>
       </c>
       <c r="K127" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L127">
         <v>1</v>
       </c>
       <c r="M127" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N127" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -8240,16 +8246,16 @@
         <v>556</v>
       </c>
       <c r="K128" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L128">
         <v>1</v>
       </c>
       <c r="M128" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N128" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -8272,16 +8278,16 @@
         <v>551</v>
       </c>
       <c r="K129" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L129">
         <v>1</v>
       </c>
       <c r="M129" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N129" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -8304,16 +8310,16 @@
         <v>554</v>
       </c>
       <c r="K130" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L130">
         <v>1</v>
       </c>
       <c r="M130" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N130" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -8336,16 +8342,16 @@
         <v>555</v>
       </c>
       <c r="K131" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L131">
         <v>1</v>
       </c>
       <c r="M131" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N131" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -8368,16 +8374,16 @@
         <v>556</v>
       </c>
       <c r="K132" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L132">
         <v>1</v>
       </c>
       <c r="M132" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N132" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -8400,16 +8406,16 @@
         <v>551</v>
       </c>
       <c r="K133" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L133">
         <v>1</v>
       </c>
       <c r="M133" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N133" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -8432,16 +8438,16 @@
         <v>550</v>
       </c>
       <c r="K134" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L134">
         <v>1</v>
       </c>
       <c r="M134" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N134" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -8464,16 +8470,16 @@
         <v>554</v>
       </c>
       <c r="K135" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L135">
         <v>1</v>
       </c>
       <c r="M135" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N135" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -8496,16 +8502,16 @@
         <v>550</v>
       </c>
       <c r="K136" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L136">
         <v>1</v>
       </c>
       <c r="M136" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N136" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -8528,16 +8534,16 @@
         <v>551</v>
       </c>
       <c r="K137" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L137">
         <v>1</v>
       </c>
       <c r="M137" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N137" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -8560,16 +8566,16 @@
         <v>554</v>
       </c>
       <c r="K138" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L138">
         <v>1</v>
       </c>
       <c r="M138" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N138" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -8592,16 +8598,16 @@
         <v>555</v>
       </c>
       <c r="K139" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L139">
         <v>1</v>
       </c>
       <c r="M139" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N139" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -8624,16 +8630,16 @@
         <v>551</v>
       </c>
       <c r="K140" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L140">
         <v>1</v>
       </c>
       <c r="M140" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N140" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -10824,16 +10830,16 @@
         <v>550</v>
       </c>
       <c r="K190" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L190">
         <v>1</v>
       </c>
       <c r="M190" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N190" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="191" spans="1:14">
@@ -10868,16 +10874,16 @@
         <v>557</v>
       </c>
       <c r="K191" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L191">
         <v>1</v>
       </c>
       <c r="M191" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N191" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -10912,16 +10918,16 @@
         <v>555</v>
       </c>
       <c r="K192" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L192">
         <v>1</v>
       </c>
       <c r="M192" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N192" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -10956,16 +10962,16 @@
         <v>551</v>
       </c>
       <c r="K193" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L193">
         <v>1</v>
       </c>
       <c r="M193" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N193" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -11000,16 +11006,16 @@
         <v>558</v>
       </c>
       <c r="K194" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L194">
         <v>1</v>
       </c>
       <c r="M194" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N194" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -11044,16 +11050,16 @@
         <v>550</v>
       </c>
       <c r="K195" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L195">
         <v>1</v>
       </c>
       <c r="M195" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N195" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -11088,16 +11094,16 @@
         <v>559</v>
       </c>
       <c r="K196" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L196">
         <v>1</v>
       </c>
       <c r="M196" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N196" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -11132,16 +11138,16 @@
         <v>560</v>
       </c>
       <c r="K197" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L197">
         <v>1</v>
       </c>
       <c r="M197" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N197" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="198" spans="1:14">
@@ -11176,16 +11182,16 @@
         <v>561</v>
       </c>
       <c r="K198" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L198">
         <v>1</v>
       </c>
       <c r="M198" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N198" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -11220,16 +11226,16 @@
         <v>562</v>
       </c>
       <c r="K199" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L199">
         <v>1</v>
       </c>
       <c r="M199" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N199" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="200" spans="1:14">
@@ -11264,16 +11270,16 @@
         <v>563</v>
       </c>
       <c r="K200" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L200">
         <v>1</v>
       </c>
       <c r="M200" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N200" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="201" spans="1:14">
@@ -11308,16 +11314,16 @@
         <v>551</v>
       </c>
       <c r="K201" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L201">
         <v>1</v>
       </c>
       <c r="M201" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N201" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="202" spans="1:14">
@@ -11352,16 +11358,16 @@
         <v>564</v>
       </c>
       <c r="K202" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L202">
         <v>1</v>
       </c>
       <c r="M202" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N202" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -11396,16 +11402,16 @@
         <v>555</v>
       </c>
       <c r="K203" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L203">
         <v>1</v>
       </c>
       <c r="M203" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N203" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -11440,16 +11446,16 @@
         <v>550</v>
       </c>
       <c r="K204" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L204">
         <v>1</v>
       </c>
       <c r="M204" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N204" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -11484,16 +11490,16 @@
         <v>556</v>
       </c>
       <c r="K205" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L205">
         <v>1</v>
       </c>
       <c r="M205" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N205" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="206" spans="1:14">
@@ -11528,16 +11534,16 @@
         <v>551</v>
       </c>
       <c r="K206" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L206">
         <v>1</v>
       </c>
       <c r="M206" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N206" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -11572,16 +11578,16 @@
         <v>550</v>
       </c>
       <c r="K207" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L207">
         <v>1</v>
       </c>
       <c r="M207" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N207" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -11616,16 +11622,16 @@
         <v>551</v>
       </c>
       <c r="K208" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L208">
         <v>1</v>
       </c>
       <c r="M208" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N208" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -11660,16 +11666,16 @@
         <v>556</v>
       </c>
       <c r="K209" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L209">
         <v>1</v>
       </c>
       <c r="M209" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N209" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -11704,16 +11710,16 @@
         <v>551</v>
       </c>
       <c r="K210" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L210">
         <v>1</v>
       </c>
       <c r="M210" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N210" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -11748,16 +11754,16 @@
         <v>550</v>
       </c>
       <c r="K211" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L211">
         <v>1</v>
       </c>
       <c r="M211" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N211" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -11789,13 +11795,13 @@
         <v>506</v>
       </c>
       <c r="K212" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L212">
         <v>1</v>
       </c>
       <c r="M212" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N212" t="s">
         <v>380</v>
@@ -11830,13 +11836,13 @@
         <v>506</v>
       </c>
       <c r="K213" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L213">
         <v>1</v>
       </c>
       <c r="M213" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N213" t="s">
         <v>380</v>
@@ -11874,16 +11880,16 @@
         <v>555</v>
       </c>
       <c r="K214" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L214">
         <v>1</v>
       </c>
       <c r="M214" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N214" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="215" spans="1:14">
@@ -11918,16 +11924,16 @@
         <v>550</v>
       </c>
       <c r="K215" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L215">
         <v>1</v>
       </c>
       <c r="M215" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N215" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="216" spans="1:14">
@@ -11962,16 +11968,16 @@
         <v>565</v>
       </c>
       <c r="K216" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L216">
         <v>1</v>
       </c>
       <c r="M216" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N216" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -12006,16 +12012,16 @@
         <v>554</v>
       </c>
       <c r="K217" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L217">
         <v>1</v>
       </c>
       <c r="M217" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N217" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -12050,16 +12056,16 @@
         <v>555</v>
       </c>
       <c r="K218" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L218">
         <v>1</v>
       </c>
       <c r="M218" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N218" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="219" spans="1:14">
@@ -12094,16 +12100,16 @@
         <v>566</v>
       </c>
       <c r="K219" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L219">
         <v>1</v>
       </c>
       <c r="M219" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N219" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -12138,16 +12144,16 @@
         <v>556</v>
       </c>
       <c r="K220" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L220">
         <v>1</v>
       </c>
       <c r="M220" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N220" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -12182,16 +12188,16 @@
         <v>551</v>
       </c>
       <c r="K221" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L221">
         <v>1</v>
       </c>
       <c r="M221" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N221" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="222" spans="1:14">
@@ -12226,16 +12232,16 @@
         <v>555</v>
       </c>
       <c r="K222" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L222">
         <v>1</v>
       </c>
       <c r="M222" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N222" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -12270,16 +12276,16 @@
         <v>567</v>
       </c>
       <c r="K223" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L223">
         <v>1</v>
       </c>
       <c r="M223" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N223" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -12314,16 +12320,16 @@
         <v>568</v>
       </c>
       <c r="K224" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L224">
         <v>1</v>
       </c>
       <c r="M224" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N224" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="225" spans="1:14">
@@ -12358,16 +12364,16 @@
         <v>569</v>
       </c>
       <c r="K225" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L225">
         <v>1</v>
       </c>
       <c r="M225" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N225" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -12402,16 +12408,16 @@
         <v>570</v>
       </c>
       <c r="K226" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L226">
         <v>2</v>
       </c>
       <c r="M226" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N226" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="227" spans="1:14">
@@ -12446,16 +12452,16 @@
         <v>571</v>
       </c>
       <c r="K227" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L227">
         <v>2</v>
       </c>
       <c r="M227" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N227" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -12490,16 +12496,16 @@
         <v>572</v>
       </c>
       <c r="K228" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L228">
         <v>2</v>
       </c>
       <c r="M228" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N228" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -12534,16 +12540,16 @@
         <v>573</v>
       </c>
       <c r="K229" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L229">
         <v>2</v>
       </c>
       <c r="M229" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N229" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -12578,16 +12584,16 @@
         <v>574</v>
       </c>
       <c r="K230" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L230">
         <v>2</v>
       </c>
       <c r="M230" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N230" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="231" spans="1:14">
@@ -12622,16 +12628,16 @@
         <v>575</v>
       </c>
       <c r="K231" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L231">
         <v>2</v>
       </c>
       <c r="M231" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N231" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -12666,16 +12672,16 @@
         <v>576</v>
       </c>
       <c r="K232" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L232">
         <v>2</v>
       </c>
       <c r="M232" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N232" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -12710,16 +12716,16 @@
         <v>577</v>
       </c>
       <c r="K233" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L233">
         <v>2</v>
       </c>
       <c r="M233" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N233" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -12754,16 +12760,16 @@
         <v>578</v>
       </c>
       <c r="K234" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L234">
         <v>2</v>
       </c>
       <c r="M234" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N234" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="235" spans="1:14">
@@ -12798,16 +12804,16 @@
         <v>579</v>
       </c>
       <c r="K235" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L235">
         <v>2</v>
       </c>
       <c r="M235" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N235" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -12842,16 +12848,16 @@
         <v>580</v>
       </c>
       <c r="K236" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L236">
         <v>2</v>
       </c>
       <c r="M236" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N236" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -12886,16 +12892,16 @@
         <v>581</v>
       </c>
       <c r="K237" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L237">
         <v>3</v>
       </c>
       <c r="M237" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N237" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="238" spans="1:14">
@@ -12930,16 +12936,16 @@
         <v>582</v>
       </c>
       <c r="K238" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L238">
         <v>3</v>
       </c>
       <c r="M238" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N238" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -12974,16 +12980,16 @@
         <v>583</v>
       </c>
       <c r="K239" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L239">
         <v>3</v>
       </c>
       <c r="M239" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N239" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="240" spans="1:14">
@@ -13018,16 +13024,16 @@
         <v>584</v>
       </c>
       <c r="K240" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L240">
         <v>3</v>
       </c>
       <c r="M240" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N240" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -13062,16 +13068,16 @@
         <v>585</v>
       </c>
       <c r="K241" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L241">
         <v>3</v>
       </c>
       <c r="M241" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N241" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="242" spans="1:14">
@@ -13106,16 +13112,16 @@
         <v>586</v>
       </c>
       <c r="K242" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L242">
         <v>3</v>
       </c>
       <c r="M242" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N242" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="243" spans="1:14">
@@ -13150,16 +13156,16 @@
         <v>587</v>
       </c>
       <c r="K243" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L243">
         <v>3</v>
       </c>
       <c r="M243" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N243" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="244" spans="1:14">
@@ -13194,16 +13200,16 @@
         <v>588</v>
       </c>
       <c r="K244" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L244">
         <v>3</v>
       </c>
       <c r="M244" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N244" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="245" spans="1:14">
@@ -13238,16 +13244,16 @@
         <v>589</v>
       </c>
       <c r="K245" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L245">
         <v>3</v>
       </c>
       <c r="M245" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N245" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="246" spans="1:14">
@@ -13282,16 +13288,16 @@
         <v>590</v>
       </c>
       <c r="K246" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L246">
         <v>3</v>
       </c>
       <c r="M246" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N246" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="247" spans="1:14">
@@ -13326,16 +13332,16 @@
         <v>591</v>
       </c>
       <c r="K247" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L247">
         <v>3</v>
       </c>
       <c r="M247" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N247" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -13370,16 +13376,16 @@
         <v>592</v>
       </c>
       <c r="K248" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L248">
         <v>3</v>
       </c>
       <c r="M248" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N248" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -13414,16 +13420,16 @@
         <v>593</v>
       </c>
       <c r="K249" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L249">
         <v>3</v>
       </c>
       <c r="M249" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N249" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -13458,16 +13464,16 @@
         <v>594</v>
       </c>
       <c r="K250" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L250">
         <v>3</v>
       </c>
       <c r="M250" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N250" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -13502,16 +13508,16 @@
         <v>595</v>
       </c>
       <c r="K251" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L251">
         <v>3</v>
       </c>
       <c r="M251" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N251" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -13546,16 +13552,16 @@
         <v>596</v>
       </c>
       <c r="K252" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L252">
         <v>3</v>
       </c>
       <c r="M252" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N252" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="253" spans="1:14">
@@ -13590,16 +13596,16 @@
         <v>597</v>
       </c>
       <c r="K253" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L253">
         <v>3</v>
       </c>
       <c r="M253" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N253" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="254" spans="1:14">
@@ -13634,16 +13640,16 @@
         <v>598</v>
       </c>
       <c r="K254" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L254">
         <v>3</v>
       </c>
       <c r="M254" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N254" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="255" spans="1:14">
@@ -13678,16 +13684,16 @@
         <v>599</v>
       </c>
       <c r="K255" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L255">
         <v>4</v>
       </c>
       <c r="M255" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N255" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -13722,16 +13728,16 @@
         <v>599</v>
       </c>
       <c r="K256" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L256">
         <v>4</v>
       </c>
       <c r="M256" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N256" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -13766,16 +13772,16 @@
         <v>600</v>
       </c>
       <c r="K257" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L257">
         <v>4</v>
       </c>
       <c r="M257" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N257" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -13810,16 +13816,16 @@
         <v>599</v>
       </c>
       <c r="K258" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L258">
         <v>4</v>
       </c>
       <c r="M258" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N258" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="259" spans="1:14">
@@ -13854,16 +13860,16 @@
         <v>600</v>
       </c>
       <c r="K259" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L259">
         <v>4</v>
       </c>
       <c r="M259" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N259" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -13898,16 +13904,16 @@
         <v>601</v>
       </c>
       <c r="K260" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L260">
         <v>4</v>
       </c>
       <c r="M260" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N260" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -13942,16 +13948,16 @@
         <v>602</v>
       </c>
       <c r="K261" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L261">
         <v>4</v>
       </c>
       <c r="M261" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N261" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="262" spans="1:14">
@@ -13986,16 +13992,16 @@
         <v>603</v>
       </c>
       <c r="K262" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L262">
         <v>4</v>
       </c>
       <c r="M262" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N262" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="263" spans="1:14">
@@ -14030,16 +14036,16 @@
         <v>604</v>
       </c>
       <c r="K263" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L263">
         <v>4</v>
       </c>
       <c r="M263" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N263" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="264" spans="1:14">
@@ -14074,16 +14080,16 @@
         <v>551</v>
       </c>
       <c r="K264" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L264">
         <v>4</v>
       </c>
       <c r="M264" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N264" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="265" spans="1:14">
@@ -14118,16 +14124,16 @@
         <v>605</v>
       </c>
       <c r="K265" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L265">
         <v>4</v>
       </c>
       <c r="M265" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N265" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="266" spans="1:14">
@@ -14162,16 +14168,16 @@
         <v>606</v>
       </c>
       <c r="K266" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L266">
         <v>4</v>
       </c>
       <c r="M266" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N266" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="267" spans="1:14">
@@ -14206,16 +14212,16 @@
         <v>607</v>
       </c>
       <c r="K267" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L267">
         <v>4</v>
       </c>
       <c r="M267" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N267" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="268" spans="1:14">
@@ -14250,16 +14256,16 @@
         <v>608</v>
       </c>
       <c r="K268" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L268">
         <v>4</v>
       </c>
       <c r="M268" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N268" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="269" spans="1:14">
@@ -14294,16 +14300,16 @@
         <v>609</v>
       </c>
       <c r="K269" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L269">
         <v>4</v>
       </c>
       <c r="M269" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N269" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="270" spans="1:14">
@@ -14338,16 +14344,16 @@
         <v>610</v>
       </c>
       <c r="K270" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L270">
         <v>4</v>
       </c>
       <c r="M270" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N270" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="271" spans="1:14">
@@ -14382,16 +14388,16 @@
         <v>611</v>
       </c>
       <c r="K271" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L271">
         <v>4</v>
       </c>
       <c r="M271" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N271" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="272" spans="1:14">
@@ -14426,16 +14432,16 @@
         <v>612</v>
       </c>
       <c r="K272" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L272">
         <v>4</v>
       </c>
       <c r="M272" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N272" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
   </sheetData>

--- a/docs/content_sample/problems.xlsx
+++ b/docs/content_sample/problems.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="765">
   <si>
     <t>URL</t>
   </si>
@@ -2073,6 +2073,9 @@
     <t>[{"input": "", "output": "\"Python:\\test\""}]</t>
   </si>
   <si>
+    <t>[{"input": "7\n12 4 2 10 83 6 8", "output": "12 2 83 8\n4 10 6"}]</t>
+  </si>
+  <si>
     <t>[{"input": "", "output": "      name       kor       mat       tot       avg\n       aaa        55        95       150        75\n       bbb       100        90       190        95\n       ggg        88       100       188        94"}]</t>
   </si>
   <si>
@@ -2158,6 +2161,9 @@
   </si>
   <si>
     <t>print,escape_sequence</t>
+  </si>
+  <si>
+    <t>loop,list,modulo</t>
   </si>
   <si>
     <t>print,format</t>
@@ -3807,10 +3813,10 @@
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N22" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -3851,10 +3857,10 @@
         <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N23" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -3895,10 +3901,10 @@
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N24" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -3939,10 +3945,10 @@
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N25" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -3983,10 +3989,10 @@
         <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N26" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -4027,10 +4033,10 @@
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N27" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -4071,10 +4077,10 @@
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N28" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -4115,10 +4121,10 @@
         <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -4159,10 +4165,10 @@
         <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N30" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -4203,10 +4209,10 @@
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N31" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -4291,10 +4297,10 @@
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N33" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -4335,10 +4341,10 @@
         <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N34" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -4379,10 +4385,10 @@
         <v>1</v>
       </c>
       <c r="M35" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N35" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -4423,10 +4429,10 @@
         <v>1</v>
       </c>
       <c r="M36" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N36" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -4467,10 +4473,10 @@
         <v>1</v>
       </c>
       <c r="M37" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N37" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -4511,10 +4517,10 @@
         <v>1</v>
       </c>
       <c r="M38" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N38" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -4555,10 +4561,10 @@
         <v>1</v>
       </c>
       <c r="M39" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N39" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -4599,10 +4605,10 @@
         <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N40" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -4643,10 +4649,10 @@
         <v>1</v>
       </c>
       <c r="M41" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N41" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -4687,10 +4693,10 @@
         <v>1</v>
       </c>
       <c r="M42" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N42" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -4731,10 +4737,10 @@
         <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N43" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -4775,10 +4781,10 @@
         <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N44" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -4819,10 +4825,10 @@
         <v>1</v>
       </c>
       <c r="M45" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N45" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -4863,10 +4869,10 @@
         <v>1</v>
       </c>
       <c r="M46" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N46" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -4907,10 +4913,10 @@
         <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N47" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -4951,10 +4957,10 @@
         <v>1</v>
       </c>
       <c r="M48" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N48" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -4995,10 +5001,10 @@
         <v>1</v>
       </c>
       <c r="M49" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N49" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -5039,10 +5045,10 @@
         <v>1</v>
       </c>
       <c r="M50" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N50" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -5077,16 +5083,16 @@
         <v>539</v>
       </c>
       <c r="K51" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="L51">
         <v>1</v>
       </c>
       <c r="M51" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N51" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -5127,10 +5133,10 @@
         <v>1</v>
       </c>
       <c r="M52" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N52" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -5165,16 +5171,16 @@
         <v>541</v>
       </c>
       <c r="K53" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L53">
         <v>1</v>
       </c>
       <c r="M53" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N53" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -5209,16 +5215,16 @@
         <v>542</v>
       </c>
       <c r="K54" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L54">
         <v>1</v>
       </c>
       <c r="M54" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N54" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -5253,16 +5259,16 @@
         <v>543</v>
       </c>
       <c r="K55" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="L55">
         <v>1</v>
       </c>
       <c r="M55" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N55" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -5297,16 +5303,16 @@
         <v>544</v>
       </c>
       <c r="K56" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L56">
         <v>1</v>
       </c>
       <c r="M56" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N56" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -5341,16 +5347,16 @@
         <v>545</v>
       </c>
       <c r="K57" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L57">
         <v>1</v>
       </c>
       <c r="M57" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N57" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -5385,16 +5391,16 @@
         <v>546</v>
       </c>
       <c r="K58" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="L58">
         <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N58" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -5429,16 +5435,16 @@
         <v>547</v>
       </c>
       <c r="K59" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="L59">
         <v>1</v>
       </c>
       <c r="M59" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N59" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -5473,16 +5479,16 @@
         <v>548</v>
       </c>
       <c r="K60" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L60">
         <v>1</v>
       </c>
       <c r="M60" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N60" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -5520,10 +5526,10 @@
         <v>1</v>
       </c>
       <c r="M61" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N61" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -5558,16 +5564,16 @@
         <v>549</v>
       </c>
       <c r="K62" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L62">
         <v>1</v>
       </c>
       <c r="M62" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N62" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -7702,16 +7708,16 @@
         <v>550</v>
       </c>
       <c r="K111" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L111">
         <v>1</v>
       </c>
       <c r="M111" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N111" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -7734,16 +7740,16 @@
         <v>551</v>
       </c>
       <c r="K112" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L112">
         <v>1</v>
       </c>
       <c r="M112" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N112" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -7766,16 +7772,16 @@
         <v>552</v>
       </c>
       <c r="K113" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L113">
         <v>1</v>
       </c>
       <c r="M113" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N113" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -7798,16 +7804,16 @@
         <v>553</v>
       </c>
       <c r="K114" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L114">
         <v>1</v>
       </c>
       <c r="M114" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N114" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -7830,16 +7836,16 @@
         <v>550</v>
       </c>
       <c r="K115" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L115">
         <v>1</v>
       </c>
       <c r="M115" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N115" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -7862,16 +7868,16 @@
         <v>554</v>
       </c>
       <c r="K116" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L116">
         <v>1</v>
       </c>
       <c r="M116" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N116" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -7894,16 +7900,16 @@
         <v>551</v>
       </c>
       <c r="K117" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L117">
         <v>1</v>
       </c>
       <c r="M117" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N117" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -7926,16 +7932,16 @@
         <v>555</v>
       </c>
       <c r="K118" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L118">
         <v>1</v>
       </c>
       <c r="M118" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N118" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -7958,16 +7964,16 @@
         <v>554</v>
       </c>
       <c r="K119" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L119">
         <v>1</v>
       </c>
       <c r="M119" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N119" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -7990,16 +7996,16 @@
         <v>556</v>
       </c>
       <c r="K120" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L120">
         <v>1</v>
       </c>
       <c r="M120" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N120" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -8022,16 +8028,16 @@
         <v>550</v>
       </c>
       <c r="K121" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L121">
         <v>1</v>
       </c>
       <c r="M121" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N121" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -8054,16 +8060,16 @@
         <v>551</v>
       </c>
       <c r="K122" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L122">
         <v>1</v>
       </c>
       <c r="M122" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N122" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -8086,16 +8092,16 @@
         <v>556</v>
       </c>
       <c r="K123" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L123">
         <v>1</v>
       </c>
       <c r="M123" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N123" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -8118,16 +8124,16 @@
         <v>554</v>
       </c>
       <c r="K124" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L124">
         <v>1</v>
       </c>
       <c r="M124" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N124" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -8150,16 +8156,16 @@
         <v>555</v>
       </c>
       <c r="K125" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L125">
         <v>1</v>
       </c>
       <c r="M125" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N125" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -8182,16 +8188,16 @@
         <v>556</v>
       </c>
       <c r="K126" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L126">
         <v>1</v>
       </c>
       <c r="M126" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N126" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -8214,16 +8220,16 @@
         <v>550</v>
       </c>
       <c r="K127" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L127">
         <v>1</v>
       </c>
       <c r="M127" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N127" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -8246,16 +8252,16 @@
         <v>556</v>
       </c>
       <c r="K128" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L128">
         <v>1</v>
       </c>
       <c r="M128" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N128" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -8278,16 +8284,16 @@
         <v>551</v>
       </c>
       <c r="K129" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L129">
         <v>1</v>
       </c>
       <c r="M129" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N129" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -8310,16 +8316,16 @@
         <v>554</v>
       </c>
       <c r="K130" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L130">
         <v>1</v>
       </c>
       <c r="M130" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N130" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -8342,16 +8348,16 @@
         <v>555</v>
       </c>
       <c r="K131" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L131">
         <v>1</v>
       </c>
       <c r="M131" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N131" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -8374,16 +8380,16 @@
         <v>556</v>
       </c>
       <c r="K132" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L132">
         <v>1</v>
       </c>
       <c r="M132" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N132" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -8406,16 +8412,16 @@
         <v>551</v>
       </c>
       <c r="K133" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L133">
         <v>1</v>
       </c>
       <c r="M133" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N133" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -8438,16 +8444,16 @@
         <v>550</v>
       </c>
       <c r="K134" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L134">
         <v>1</v>
       </c>
       <c r="M134" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N134" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -8470,16 +8476,16 @@
         <v>554</v>
       </c>
       <c r="K135" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L135">
         <v>1</v>
       </c>
       <c r="M135" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N135" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -8502,16 +8508,16 @@
         <v>550</v>
       </c>
       <c r="K136" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L136">
         <v>1</v>
       </c>
       <c r="M136" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N136" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -8534,16 +8540,16 @@
         <v>551</v>
       </c>
       <c r="K137" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L137">
         <v>1</v>
       </c>
       <c r="M137" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N137" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -8566,16 +8572,16 @@
         <v>554</v>
       </c>
       <c r="K138" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L138">
         <v>1</v>
       </c>
       <c r="M138" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N138" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -8598,16 +8604,16 @@
         <v>555</v>
       </c>
       <c r="K139" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L139">
         <v>1</v>
       </c>
       <c r="M139" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N139" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -8630,16 +8636,16 @@
         <v>551</v>
       </c>
       <c r="K140" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L140">
         <v>1</v>
       </c>
       <c r="M140" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N140" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -10830,16 +10836,16 @@
         <v>550</v>
       </c>
       <c r="K190" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L190">
         <v>1</v>
       </c>
       <c r="M190" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N190" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="191" spans="1:14">
@@ -10874,16 +10880,16 @@
         <v>557</v>
       </c>
       <c r="K191" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L191">
         <v>1</v>
       </c>
       <c r="M191" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N191" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -10918,16 +10924,16 @@
         <v>555</v>
       </c>
       <c r="K192" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L192">
         <v>1</v>
       </c>
       <c r="M192" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N192" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -10962,16 +10968,16 @@
         <v>551</v>
       </c>
       <c r="K193" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L193">
         <v>1</v>
       </c>
       <c r="M193" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N193" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -11006,16 +11012,16 @@
         <v>558</v>
       </c>
       <c r="K194" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L194">
         <v>1</v>
       </c>
       <c r="M194" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N194" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -11050,16 +11056,16 @@
         <v>550</v>
       </c>
       <c r="K195" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L195">
         <v>1</v>
       </c>
       <c r="M195" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N195" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -11094,16 +11100,16 @@
         <v>559</v>
       </c>
       <c r="K196" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L196">
         <v>1</v>
       </c>
       <c r="M196" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N196" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -11138,16 +11144,16 @@
         <v>560</v>
       </c>
       <c r="K197" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L197">
         <v>1</v>
       </c>
       <c r="M197" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N197" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="198" spans="1:14">
@@ -11182,16 +11188,16 @@
         <v>561</v>
       </c>
       <c r="K198" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L198">
         <v>1</v>
       </c>
       <c r="M198" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N198" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -11226,16 +11232,16 @@
         <v>562</v>
       </c>
       <c r="K199" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L199">
         <v>1</v>
       </c>
       <c r="M199" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N199" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="200" spans="1:14">
@@ -11270,16 +11276,16 @@
         <v>563</v>
       </c>
       <c r="K200" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L200">
         <v>1</v>
       </c>
       <c r="M200" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N200" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="201" spans="1:14">
@@ -11314,16 +11320,16 @@
         <v>551</v>
       </c>
       <c r="K201" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L201">
         <v>1</v>
       </c>
       <c r="M201" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N201" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="202" spans="1:14">
@@ -11358,16 +11364,16 @@
         <v>564</v>
       </c>
       <c r="K202" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L202">
         <v>1</v>
       </c>
       <c r="M202" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N202" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -11402,16 +11408,16 @@
         <v>555</v>
       </c>
       <c r="K203" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L203">
         <v>1</v>
       </c>
       <c r="M203" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N203" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -11446,16 +11452,16 @@
         <v>550</v>
       </c>
       <c r="K204" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L204">
         <v>1</v>
       </c>
       <c r="M204" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N204" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -11490,16 +11496,16 @@
         <v>556</v>
       </c>
       <c r="K205" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L205">
         <v>1</v>
       </c>
       <c r="M205" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N205" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="206" spans="1:14">
@@ -11534,16 +11540,16 @@
         <v>551</v>
       </c>
       <c r="K206" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L206">
         <v>1</v>
       </c>
       <c r="M206" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N206" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -11578,16 +11584,16 @@
         <v>550</v>
       </c>
       <c r="K207" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L207">
         <v>1</v>
       </c>
       <c r="M207" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N207" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -11622,16 +11628,16 @@
         <v>551</v>
       </c>
       <c r="K208" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L208">
         <v>1</v>
       </c>
       <c r="M208" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N208" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -11666,16 +11672,16 @@
         <v>556</v>
       </c>
       <c r="K209" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L209">
         <v>1</v>
       </c>
       <c r="M209" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N209" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -11710,16 +11716,16 @@
         <v>551</v>
       </c>
       <c r="K210" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L210">
         <v>1</v>
       </c>
       <c r="M210" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N210" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -11754,16 +11760,16 @@
         <v>550</v>
       </c>
       <c r="K211" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L211">
         <v>1</v>
       </c>
       <c r="M211" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N211" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -11795,13 +11801,13 @@
         <v>506</v>
       </c>
       <c r="K212" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L212">
         <v>1</v>
       </c>
       <c r="M212" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N212" t="s">
         <v>380</v>
@@ -11836,13 +11842,13 @@
         <v>506</v>
       </c>
       <c r="K213" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L213">
         <v>1</v>
       </c>
       <c r="M213" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N213" t="s">
         <v>380</v>
@@ -11880,16 +11886,16 @@
         <v>555</v>
       </c>
       <c r="K214" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L214">
         <v>1</v>
       </c>
       <c r="M214" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N214" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="215" spans="1:14">
@@ -11924,16 +11930,16 @@
         <v>550</v>
       </c>
       <c r="K215" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L215">
         <v>1</v>
       </c>
       <c r="M215" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N215" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="216" spans="1:14">
@@ -11968,16 +11974,16 @@
         <v>565</v>
       </c>
       <c r="K216" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L216">
         <v>1</v>
       </c>
       <c r="M216" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N216" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -12012,16 +12018,16 @@
         <v>554</v>
       </c>
       <c r="K217" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L217">
         <v>1</v>
       </c>
       <c r="M217" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N217" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -12056,16 +12062,16 @@
         <v>555</v>
       </c>
       <c r="K218" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L218">
         <v>1</v>
       </c>
       <c r="M218" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N218" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="219" spans="1:14">
@@ -12100,16 +12106,16 @@
         <v>566</v>
       </c>
       <c r="K219" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L219">
         <v>1</v>
       </c>
       <c r="M219" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N219" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -12144,16 +12150,16 @@
         <v>556</v>
       </c>
       <c r="K220" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L220">
         <v>1</v>
       </c>
       <c r="M220" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N220" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -12188,16 +12194,16 @@
         <v>551</v>
       </c>
       <c r="K221" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L221">
         <v>1</v>
       </c>
       <c r="M221" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N221" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="222" spans="1:14">
@@ -12232,16 +12238,16 @@
         <v>555</v>
       </c>
       <c r="K222" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L222">
         <v>1</v>
       </c>
       <c r="M222" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N222" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -12276,16 +12282,16 @@
         <v>567</v>
       </c>
       <c r="K223" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L223">
         <v>1</v>
       </c>
       <c r="M223" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N223" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -12320,16 +12326,16 @@
         <v>568</v>
       </c>
       <c r="K224" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L224">
         <v>1</v>
       </c>
       <c r="M224" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N224" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="225" spans="1:14">
@@ -12364,16 +12370,16 @@
         <v>569</v>
       </c>
       <c r="K225" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L225">
         <v>1</v>
       </c>
       <c r="M225" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N225" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -12408,16 +12414,16 @@
         <v>570</v>
       </c>
       <c r="K226" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L226">
         <v>2</v>
       </c>
       <c r="M226" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N226" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="227" spans="1:14">
@@ -12452,16 +12458,16 @@
         <v>571</v>
       </c>
       <c r="K227" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L227">
         <v>2</v>
       </c>
       <c r="M227" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N227" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -12496,16 +12502,16 @@
         <v>572</v>
       </c>
       <c r="K228" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L228">
         <v>2</v>
       </c>
       <c r="M228" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N228" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -12540,16 +12546,16 @@
         <v>573</v>
       </c>
       <c r="K229" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L229">
         <v>2</v>
       </c>
       <c r="M229" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N229" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -12584,16 +12590,16 @@
         <v>574</v>
       </c>
       <c r="K230" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L230">
         <v>2</v>
       </c>
       <c r="M230" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N230" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="231" spans="1:14">
@@ -12628,16 +12634,16 @@
         <v>575</v>
       </c>
       <c r="K231" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L231">
         <v>2</v>
       </c>
       <c r="M231" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N231" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -12672,16 +12678,16 @@
         <v>576</v>
       </c>
       <c r="K232" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L232">
         <v>2</v>
       </c>
       <c r="M232" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N232" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -12716,16 +12722,16 @@
         <v>577</v>
       </c>
       <c r="K233" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L233">
         <v>2</v>
       </c>
       <c r="M233" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N233" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -12760,16 +12766,16 @@
         <v>578</v>
       </c>
       <c r="K234" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L234">
         <v>2</v>
       </c>
       <c r="M234" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N234" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="235" spans="1:14">
@@ -12804,16 +12810,16 @@
         <v>579</v>
       </c>
       <c r="K235" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L235">
         <v>2</v>
       </c>
       <c r="M235" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N235" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -12848,16 +12854,16 @@
         <v>580</v>
       </c>
       <c r="K236" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L236">
         <v>2</v>
       </c>
       <c r="M236" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N236" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -12892,16 +12898,16 @@
         <v>581</v>
       </c>
       <c r="K237" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L237">
         <v>3</v>
       </c>
       <c r="M237" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N237" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="238" spans="1:14">
@@ -12936,16 +12942,16 @@
         <v>582</v>
       </c>
       <c r="K238" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L238">
         <v>3</v>
       </c>
       <c r="M238" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N238" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -12980,16 +12986,16 @@
         <v>583</v>
       </c>
       <c r="K239" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L239">
         <v>3</v>
       </c>
       <c r="M239" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N239" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="240" spans="1:14">
@@ -13024,16 +13030,16 @@
         <v>584</v>
       </c>
       <c r="K240" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L240">
         <v>3</v>
       </c>
       <c r="M240" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N240" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -13068,16 +13074,16 @@
         <v>585</v>
       </c>
       <c r="K241" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L241">
         <v>3</v>
       </c>
       <c r="M241" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N241" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="242" spans="1:14">
@@ -13112,16 +13118,16 @@
         <v>586</v>
       </c>
       <c r="K242" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L242">
         <v>3</v>
       </c>
       <c r="M242" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N242" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="243" spans="1:14">
@@ -13156,16 +13162,16 @@
         <v>587</v>
       </c>
       <c r="K243" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L243">
         <v>3</v>
       </c>
       <c r="M243" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N243" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="244" spans="1:14">
@@ -13200,16 +13206,16 @@
         <v>588</v>
       </c>
       <c r="K244" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L244">
         <v>3</v>
       </c>
       <c r="M244" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N244" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="245" spans="1:14">
@@ -13244,16 +13250,16 @@
         <v>589</v>
       </c>
       <c r="K245" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L245">
         <v>3</v>
       </c>
       <c r="M245" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N245" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="246" spans="1:14">
@@ -13288,16 +13294,16 @@
         <v>590</v>
       </c>
       <c r="K246" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L246">
         <v>3</v>
       </c>
       <c r="M246" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N246" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="247" spans="1:14">
@@ -13332,16 +13338,16 @@
         <v>591</v>
       </c>
       <c r="K247" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L247">
         <v>3</v>
       </c>
       <c r="M247" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N247" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -13376,16 +13382,16 @@
         <v>592</v>
       </c>
       <c r="K248" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L248">
         <v>3</v>
       </c>
       <c r="M248" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N248" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -13420,16 +13426,16 @@
         <v>593</v>
       </c>
       <c r="K249" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L249">
         <v>3</v>
       </c>
       <c r="M249" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N249" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -13464,16 +13470,16 @@
         <v>594</v>
       </c>
       <c r="K250" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L250">
         <v>3</v>
       </c>
       <c r="M250" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N250" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -13508,16 +13514,16 @@
         <v>595</v>
       </c>
       <c r="K251" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L251">
         <v>3</v>
       </c>
       <c r="M251" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N251" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -13552,16 +13558,16 @@
         <v>596</v>
       </c>
       <c r="K252" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L252">
         <v>3</v>
       </c>
       <c r="M252" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N252" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="253" spans="1:14">
@@ -13596,16 +13602,16 @@
         <v>597</v>
       </c>
       <c r="K253" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L253">
         <v>3</v>
       </c>
       <c r="M253" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N253" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="254" spans="1:14">
@@ -13640,16 +13646,16 @@
         <v>598</v>
       </c>
       <c r="K254" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L254">
         <v>3</v>
       </c>
       <c r="M254" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N254" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="255" spans="1:14">
@@ -13684,16 +13690,16 @@
         <v>599</v>
       </c>
       <c r="K255" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L255">
         <v>4</v>
       </c>
       <c r="M255" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N255" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -13728,16 +13734,16 @@
         <v>599</v>
       </c>
       <c r="K256" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L256">
         <v>4</v>
       </c>
       <c r="M256" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N256" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -13772,16 +13778,16 @@
         <v>600</v>
       </c>
       <c r="K257" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L257">
         <v>4</v>
       </c>
       <c r="M257" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N257" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -13816,16 +13822,16 @@
         <v>599</v>
       </c>
       <c r="K258" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L258">
         <v>4</v>
       </c>
       <c r="M258" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N258" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="259" spans="1:14">
@@ -13860,16 +13866,16 @@
         <v>600</v>
       </c>
       <c r="K259" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L259">
         <v>4</v>
       </c>
       <c r="M259" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N259" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -13904,16 +13910,16 @@
         <v>601</v>
       </c>
       <c r="K260" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L260">
         <v>4</v>
       </c>
       <c r="M260" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N260" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -13948,16 +13954,16 @@
         <v>602</v>
       </c>
       <c r="K261" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L261">
         <v>4</v>
       </c>
       <c r="M261" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N261" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="262" spans="1:14">
@@ -13992,16 +13998,16 @@
         <v>603</v>
       </c>
       <c r="K262" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L262">
         <v>4</v>
       </c>
       <c r="M262" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N262" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="263" spans="1:14">
@@ -14036,16 +14042,16 @@
         <v>604</v>
       </c>
       <c r="K263" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L263">
         <v>4</v>
       </c>
       <c r="M263" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N263" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="264" spans="1:14">
@@ -14080,16 +14086,16 @@
         <v>551</v>
       </c>
       <c r="K264" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L264">
         <v>4</v>
       </c>
       <c r="M264" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N264" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="265" spans="1:14">
@@ -14124,16 +14130,16 @@
         <v>605</v>
       </c>
       <c r="K265" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L265">
         <v>4</v>
       </c>
       <c r="M265" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N265" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="266" spans="1:14">
@@ -14168,16 +14174,16 @@
         <v>606</v>
       </c>
       <c r="K266" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L266">
         <v>4</v>
       </c>
       <c r="M266" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N266" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="267" spans="1:14">
@@ -14212,16 +14218,16 @@
         <v>607</v>
       </c>
       <c r="K267" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L267">
         <v>4</v>
       </c>
       <c r="M267" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N267" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="268" spans="1:14">
@@ -14256,16 +14262,16 @@
         <v>608</v>
       </c>
       <c r="K268" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L268">
         <v>4</v>
       </c>
       <c r="M268" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N268" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="269" spans="1:14">
@@ -14300,16 +14306,16 @@
         <v>609</v>
       </c>
       <c r="K269" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L269">
         <v>4</v>
       </c>
       <c r="M269" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N269" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="270" spans="1:14">
@@ -14344,16 +14350,16 @@
         <v>610</v>
       </c>
       <c r="K270" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L270">
         <v>4</v>
       </c>
       <c r="M270" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N270" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="271" spans="1:14">
@@ -14388,16 +14394,16 @@
         <v>611</v>
       </c>
       <c r="K271" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L271">
         <v>4</v>
       </c>
       <c r="M271" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N271" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="272" spans="1:14">
@@ -14432,16 +14438,16 @@
         <v>612</v>
       </c>
       <c r="K272" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L272">
         <v>4</v>
       </c>
       <c r="M272" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N272" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>

--- a/docs/content_sample/problems.xlsx
+++ b/docs/content_sample/problems.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="766">
   <si>
     <t>URL</t>
   </si>
@@ -2085,7 +2085,7 @@
     <t>[{"input": "3", "output": "  *\n **\n***"}, {"input": "5", "output": "    *\n   **\n  ***\n ****\n*****"}]</t>
   </si>
   <si>
-    <t>[{"input": "확인 필요", "output": "실행 오류", "desc": "입력값 탐색 실패"}]</t>
+    <t>[{"input": "70 85 61 99", "output": "sum = 315\navg = 78.8"}, {"input": "50 60 70 80", "output": "sum = 260\navg = 65.0"}]</t>
   </si>
   <si>
     <t>[{"input": "5 3", "output": "-2", "desc": "자동 생성된 예시"}]</t>
@@ -2173,6 +2173,9 @@
   </si>
   <si>
     <t>loop,print,pattern,input,alignment</t>
+  </si>
+  <si>
+    <t>input,print,math</t>
   </si>
   <si>
     <t>basic</t>
@@ -5312,7 +5315,7 @@
         <v>637</v>
       </c>
       <c r="N56" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -5529,7 +5532,7 @@
         <v>637</v>
       </c>
       <c r="N61" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -7717,7 +7720,7 @@
         <v>638</v>
       </c>
       <c r="N111" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -7749,7 +7752,7 @@
         <v>638</v>
       </c>
       <c r="N112" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -7781,7 +7784,7 @@
         <v>637</v>
       </c>
       <c r="N113" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -7813,7 +7816,7 @@
         <v>637</v>
       </c>
       <c r="N114" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -7845,7 +7848,7 @@
         <v>638</v>
       </c>
       <c r="N115" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -7877,7 +7880,7 @@
         <v>638</v>
       </c>
       <c r="N116" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -7909,7 +7912,7 @@
         <v>638</v>
       </c>
       <c r="N117" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -7941,7 +7944,7 @@
         <v>638</v>
       </c>
       <c r="N118" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -7973,7 +7976,7 @@
         <v>638</v>
       </c>
       <c r="N119" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -8005,7 +8008,7 @@
         <v>638</v>
       </c>
       <c r="N120" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -8037,7 +8040,7 @@
         <v>638</v>
       </c>
       <c r="N121" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -8069,7 +8072,7 @@
         <v>638</v>
       </c>
       <c r="N122" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -8101,7 +8104,7 @@
         <v>638</v>
       </c>
       <c r="N123" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -8133,7 +8136,7 @@
         <v>638</v>
       </c>
       <c r="N124" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -8165,7 +8168,7 @@
         <v>638</v>
       </c>
       <c r="N125" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -8197,7 +8200,7 @@
         <v>638</v>
       </c>
       <c r="N126" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -8229,7 +8232,7 @@
         <v>638</v>
       </c>
       <c r="N127" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -8261,7 +8264,7 @@
         <v>638</v>
       </c>
       <c r="N128" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -8293,7 +8296,7 @@
         <v>638</v>
       </c>
       <c r="N129" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -8325,7 +8328,7 @@
         <v>638</v>
       </c>
       <c r="N130" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -8357,7 +8360,7 @@
         <v>638</v>
       </c>
       <c r="N131" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -8389,7 +8392,7 @@
         <v>638</v>
       </c>
       <c r="N132" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -8421,7 +8424,7 @@
         <v>638</v>
       </c>
       <c r="N133" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -8453,7 +8456,7 @@
         <v>638</v>
       </c>
       <c r="N134" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -8485,7 +8488,7 @@
         <v>638</v>
       </c>
       <c r="N135" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -8517,7 +8520,7 @@
         <v>638</v>
       </c>
       <c r="N136" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -8549,7 +8552,7 @@
         <v>638</v>
       </c>
       <c r="N137" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -8581,7 +8584,7 @@
         <v>638</v>
       </c>
       <c r="N138" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -8613,7 +8616,7 @@
         <v>638</v>
       </c>
       <c r="N139" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -8645,7 +8648,7 @@
         <v>638</v>
       </c>
       <c r="N140" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -10845,7 +10848,7 @@
         <v>638</v>
       </c>
       <c r="N190" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="191" spans="1:14">
@@ -10889,7 +10892,7 @@
         <v>638</v>
       </c>
       <c r="N191" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -10933,7 +10936,7 @@
         <v>638</v>
       </c>
       <c r="N192" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -10977,7 +10980,7 @@
         <v>638</v>
       </c>
       <c r="N193" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -11021,7 +11024,7 @@
         <v>638</v>
       </c>
       <c r="N194" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -11065,7 +11068,7 @@
         <v>638</v>
       </c>
       <c r="N195" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -11109,7 +11112,7 @@
         <v>638</v>
       </c>
       <c r="N196" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -11153,7 +11156,7 @@
         <v>638</v>
       </c>
       <c r="N197" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="198" spans="1:14">
@@ -11197,7 +11200,7 @@
         <v>638</v>
       </c>
       <c r="N198" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -11241,7 +11244,7 @@
         <v>638</v>
       </c>
       <c r="N199" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="200" spans="1:14">
@@ -11285,7 +11288,7 @@
         <v>638</v>
       </c>
       <c r="N200" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="201" spans="1:14">
@@ -11329,7 +11332,7 @@
         <v>638</v>
       </c>
       <c r="N201" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="202" spans="1:14">
@@ -11373,7 +11376,7 @@
         <v>638</v>
       </c>
       <c r="N202" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -11417,7 +11420,7 @@
         <v>638</v>
       </c>
       <c r="N203" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -11461,7 +11464,7 @@
         <v>638</v>
       </c>
       <c r="N204" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -11505,7 +11508,7 @@
         <v>638</v>
       </c>
       <c r="N205" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="206" spans="1:14">
@@ -11549,7 +11552,7 @@
         <v>638</v>
       </c>
       <c r="N206" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -11593,7 +11596,7 @@
         <v>638</v>
       </c>
       <c r="N207" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -11637,7 +11640,7 @@
         <v>638</v>
       </c>
       <c r="N208" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -11681,7 +11684,7 @@
         <v>638</v>
       </c>
       <c r="N209" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -11725,7 +11728,7 @@
         <v>638</v>
       </c>
       <c r="N210" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -11769,7 +11772,7 @@
         <v>638</v>
       </c>
       <c r="N211" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -11895,7 +11898,7 @@
         <v>638</v>
       </c>
       <c r="N214" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="215" spans="1:14">
@@ -11939,7 +11942,7 @@
         <v>638</v>
       </c>
       <c r="N215" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="216" spans="1:14">
@@ -11983,7 +11986,7 @@
         <v>638</v>
       </c>
       <c r="N216" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -12027,7 +12030,7 @@
         <v>638</v>
       </c>
       <c r="N217" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -12071,7 +12074,7 @@
         <v>638</v>
       </c>
       <c r="N218" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="219" spans="1:14">
@@ -12115,7 +12118,7 @@
         <v>638</v>
       </c>
       <c r="N219" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -12159,7 +12162,7 @@
         <v>638</v>
       </c>
       <c r="N220" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -12203,7 +12206,7 @@
         <v>638</v>
       </c>
       <c r="N221" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="222" spans="1:14">
@@ -12247,7 +12250,7 @@
         <v>638</v>
       </c>
       <c r="N222" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -12291,7 +12294,7 @@
         <v>638</v>
       </c>
       <c r="N223" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -12335,7 +12338,7 @@
         <v>638</v>
       </c>
       <c r="N224" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="225" spans="1:14">
@@ -12379,7 +12382,7 @@
         <v>638</v>
       </c>
       <c r="N225" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -12423,7 +12426,7 @@
         <v>638</v>
       </c>
       <c r="N226" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="227" spans="1:14">
@@ -12467,7 +12470,7 @@
         <v>638</v>
       </c>
       <c r="N227" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -12511,7 +12514,7 @@
         <v>638</v>
       </c>
       <c r="N228" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -12555,7 +12558,7 @@
         <v>638</v>
       </c>
       <c r="N229" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -12599,7 +12602,7 @@
         <v>638</v>
       </c>
       <c r="N230" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="231" spans="1:14">
@@ -12643,7 +12646,7 @@
         <v>638</v>
       </c>
       <c r="N231" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -12687,7 +12690,7 @@
         <v>638</v>
       </c>
       <c r="N232" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -12731,7 +12734,7 @@
         <v>638</v>
       </c>
       <c r="N233" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -12775,7 +12778,7 @@
         <v>638</v>
       </c>
       <c r="N234" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="235" spans="1:14">
@@ -12819,7 +12822,7 @@
         <v>638</v>
       </c>
       <c r="N235" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -12863,7 +12866,7 @@
         <v>638</v>
       </c>
       <c r="N236" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -12907,7 +12910,7 @@
         <v>638</v>
       </c>
       <c r="N237" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="238" spans="1:14">
@@ -12951,7 +12954,7 @@
         <v>638</v>
       </c>
       <c r="N238" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -12995,7 +12998,7 @@
         <v>638</v>
       </c>
       <c r="N239" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="240" spans="1:14">
@@ -13039,7 +13042,7 @@
         <v>638</v>
       </c>
       <c r="N240" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -13083,7 +13086,7 @@
         <v>638</v>
       </c>
       <c r="N241" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="242" spans="1:14">
@@ -13127,7 +13130,7 @@
         <v>638</v>
       </c>
       <c r="N242" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="243" spans="1:14">
@@ -13171,7 +13174,7 @@
         <v>637</v>
       </c>
       <c r="N243" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="244" spans="1:14">
@@ -13215,7 +13218,7 @@
         <v>637</v>
       </c>
       <c r="N244" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="245" spans="1:14">
@@ -13259,7 +13262,7 @@
         <v>637</v>
       </c>
       <c r="N245" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="246" spans="1:14">
@@ -13303,7 +13306,7 @@
         <v>637</v>
       </c>
       <c r="N246" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="247" spans="1:14">
@@ -13347,7 +13350,7 @@
         <v>637</v>
       </c>
       <c r="N247" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -13391,7 +13394,7 @@
         <v>637</v>
       </c>
       <c r="N248" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -13435,7 +13438,7 @@
         <v>638</v>
       </c>
       <c r="N249" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -13479,7 +13482,7 @@
         <v>638</v>
       </c>
       <c r="N250" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -13523,7 +13526,7 @@
         <v>638</v>
       </c>
       <c r="N251" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -13567,7 +13570,7 @@
         <v>638</v>
       </c>
       <c r="N252" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="253" spans="1:14">
@@ -13611,7 +13614,7 @@
         <v>638</v>
       </c>
       <c r="N253" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="254" spans="1:14">
@@ -13655,7 +13658,7 @@
         <v>638</v>
       </c>
       <c r="N254" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="255" spans="1:14">
@@ -13699,7 +13702,7 @@
         <v>637</v>
       </c>
       <c r="N255" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -13743,7 +13746,7 @@
         <v>637</v>
       </c>
       <c r="N256" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -13787,7 +13790,7 @@
         <v>637</v>
       </c>
       <c r="N257" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -13831,7 +13834,7 @@
         <v>637</v>
       </c>
       <c r="N258" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="259" spans="1:14">
@@ -13875,7 +13878,7 @@
         <v>637</v>
       </c>
       <c r="N259" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -13919,7 +13922,7 @@
         <v>637</v>
       </c>
       <c r="N260" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -13963,7 +13966,7 @@
         <v>637</v>
       </c>
       <c r="N261" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="262" spans="1:14">
@@ -14007,7 +14010,7 @@
         <v>638</v>
       </c>
       <c r="N262" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="263" spans="1:14">
@@ -14051,7 +14054,7 @@
         <v>638</v>
       </c>
       <c r="N263" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="264" spans="1:14">
@@ -14095,7 +14098,7 @@
         <v>638</v>
       </c>
       <c r="N264" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="265" spans="1:14">
@@ -14139,7 +14142,7 @@
         <v>637</v>
       </c>
       <c r="N265" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="266" spans="1:14">
@@ -14183,7 +14186,7 @@
         <v>637</v>
       </c>
       <c r="N266" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="267" spans="1:14">
@@ -14227,7 +14230,7 @@
         <v>638</v>
       </c>
       <c r="N267" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="268" spans="1:14">
@@ -14271,7 +14274,7 @@
         <v>638</v>
       </c>
       <c r="N268" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="269" spans="1:14">
@@ -14315,7 +14318,7 @@
         <v>637</v>
       </c>
       <c r="N269" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="270" spans="1:14">
@@ -14359,7 +14362,7 @@
         <v>637</v>
       </c>
       <c r="N270" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="271" spans="1:14">
@@ -14403,7 +14406,7 @@
         <v>637</v>
       </c>
       <c r="N271" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="272" spans="1:14">
@@ -14447,7 +14450,7 @@
         <v>637</v>
       </c>
       <c r="N272" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
   </sheetData>

--- a/docs/content_sample/problems.xlsx
+++ b/docs/content_sample/problems.xlsx
@@ -7,6 +7,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="itq" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -39,6 +40,9 @@
       <sz val="8"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -48,7 +52,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -71,13 +75,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -26404,4 +26417,5396 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E199"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>카테고리</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>콘텐츠명</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>기능</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>파일명</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 11월 C형</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20251110_itq_pc_q.pdf</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251110_itq_pc_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 11월 C형</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20251110_itq_pc_a.pptx</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251110_itq_pc_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 11월 B형</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20251110_itq_pb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251110_itq_pb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 11월 B형</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20251110_itq_pb_a.pptx</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251110_itq_pb_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 11월 A형</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20251110_itq_pa_q.pdf</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251110_itq_pa_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 11월 A형</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20251110_itq_pa_a.pptx</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251110_itq_pa_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 11월 C형</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20251110_itq_hc_q.pdf</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251110_itq_hc_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 11월 C형</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20251110_itq_hc_a.hwpx</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251110_itq_hc_a.hwpx</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 11월 B형</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20251110_itq_hb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251110_itq_hb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 11월 B형</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20251110_itq_hb_a.hwpx</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251110_itq_hb_a.hwpx</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 11월 A형</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20251110_itq_ha_q.pdf</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251110_itq_ha_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 11월 A형</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20251110_itq_ha_a.hwpx</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251110_itq_ha_a.hwpx</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 11월 C형</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20251110_itq_ec_q.pdf</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251110_itq_ec_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 11월 C형</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20251110_itq_ec_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251110_itq_ec_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 11월 B형</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20251110_itq_eb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251110_itq_eb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 11월 B형</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20251110_itq_eb_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251110_itq_eb_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 11월 A형</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20251110_itq_ea_q.pdf</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251110_itq_ea_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 11월 A형</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20251110_itq_ea_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251110_itq_ea_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 10월 C형</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20251020_itq_pc_q.pdf</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251020_itq_pc_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 10월 C형</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20251020_itq_pc_a.pptx</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251020_itq_pc_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 10월 B형</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20251020_itq_pb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251020_itq_pb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 10월 B형</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20251020_itq_pb_a.pptx</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251020_itq_pb_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 10월 A형</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20251020_itq_pa_q.pdf</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251020_itq_pa_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 10월 A형</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>20251020_itq_pa_a.pptx</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251020_itq_pa_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 10월 C형</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20251020_itq_hc_q.pdf</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251020_itq_hc_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 10월 C형</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20251020_itq_hc_a.hwpx</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251020_itq_hc_a.hwpx</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 10월 B형</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>20251020_itq_hb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251020_itq_hb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 10월 B형</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>20251020_itq_hb_a.hwpx</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251020_itq_hb_a.hwpx</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 10월 A형</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>20251020_itq_ha_q.pdf</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251020_itq_ha_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 10월 A형</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>20251020_itq_ha_a.hwpx</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251020_itq_ha_a.hwpx</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 10월 C형</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>20251020_itq_ec_q.pdf</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251020_itq_ec_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 10월 C형</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>20251020_itq_ec_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251020_itq_ec_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 10월 B형</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>20251020_itq_eb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251020_itq_eb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 10월 B형</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>20251020_itq_eb_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251020_itq_eb_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 10월 A형</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>20251020_itq_ea_q.pdf</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251020_itq_ea_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 10월 A형</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>20251020_itq_ea_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20251020_itq_ea_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 9월 C형</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>20250915_itq_pc_q.pdf</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250915_itq_pc_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 9월 C형</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>20250915_itq_pc_a.pptx</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250915_itq_pc_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 9월 B형</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>20250915_itq_pb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250915_itq_pb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 9월 B형</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>20250915_itq_pb_a.pptx</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250915_itq_pb_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 9월 A형</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>20250915_itq_pa_q.pdf</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250915_itq_pa_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 9월 A형</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>20250915_itq_pa_a.pptx</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250915_itq_pa_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 9월 C형</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>20250915_itq_hc_q.pdf</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250915_itq_hc_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 9월 C형</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>20250915_itq_hc_a.hwpx</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250915_itq_hc_a.hwpx</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 9월 B형</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>20250915_itq_hb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250915_itq_hb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 9월 B형</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>20250915_itq_hb_a.hwpx</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250915_itq_hb_a.hwpx</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 9월 A형</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>20250915_itq_ha_q.pdf</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250915_itq_ha_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 9월 A형</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>20250915_itq_ha_a.hwpx</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250915_itq_ha_a.hwpx</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 9월 C형</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>20250915_itq_ec_q.pdf</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250915_itq_ec_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 9월 C형</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>20250915_itq_ec_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250915_itq_ec_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 9월 B형</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>20250915_itq_eb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250915_itq_eb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 9월 B형</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>20250915_itq_eb_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250915_itq_eb_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 9월 A형</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>20250915_itq_ea_q.pdf</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250915_itq_ea_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 9월 A형</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>20250915_itq_ea_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250915_itq_ea_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 8월 C형</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>20250811_itq_pc_q.pdf</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250811_itq_pc_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 8월 C형</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>20250811_itq_pc_a.pptx</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250811_itq_pc_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 8월 B형</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>20250811_itq_pb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250811_itq_pb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 8월 B형</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>20250811_itq_pb_a.pptx</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250811_itq_pb_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 8월 A형</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>20250811_itq_pa_q.pdf</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250811_itq_pa_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 8월 A형</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>20250811_itq_pa_a.pptx</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250811_itq_pa_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 8월 C형</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>20250811_itq_hc_q.pdf</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250811_itq_hc_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 8월 C형</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>20250811_itq_hc_a.hwpx</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250811_itq_hc_a.hwpx</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 8월 B형</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>20250811_itq_hb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250811_itq_hb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 8월 B형</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>20250811_itq_hb_a.hwpx</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250811_itq_hb_a.hwpx</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 8월 A형</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>20250811_itq_ha_q.pdf</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250811_itq_ha_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 8월 A형</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>20250811_itq_ha_a.hwpx</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250811_itq_ha_a.hwpx</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 8월 C형</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>20250811_itq_ec_q.pdf</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250811_itq_ec_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 8월 C형</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>20250811_itq_ec_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250811_itq_ec_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 8월 B형</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>20250811_itq_eb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250811_itq_eb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 8월 B형</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>20250811_itq_eb_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250811_itq_eb_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 8월 A형</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>20250811_itq_ea_q.pdf</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250811_itq_ea_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 8월 A형</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>20250811_itq_ea_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250811_itq_ea_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 7월 C형</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>20250714_itq_pc_q.pdf</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250714_itq_pc_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 7월 C형</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>20250714_itq_pc_a.pptx</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250714_itq_pc_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 7월 B형</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>20250714_itq_pb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250714_itq_pb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 7월 B형</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>20250714_itq_pb_a.pptx</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250714_itq_pb_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 7월 A형</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>20250714_itq_pa_q.pdf</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250714_itq_pa_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 7월 A형</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>20250714_itq_pa_a.pptx</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250714_itq_pa_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 7월 C형</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>20250714_itq_hc_q.pdf</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250714_itq_hc_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 7월 C형</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>20250714_itq_hc_a.hwpx</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250714_itq_hc_a.hwpx</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 7월 B형</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>20250714_itq_hb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250714_itq_hb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 7월 B형</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>20250714_itq_hb_a.hwpx</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250714_itq_hb_a.hwpx</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 7월 A형</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>20250714_itq_ha_q.pdf</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250714_itq_ha_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 7월 A형</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>20250714_itq_ha_a.hwpx</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250714_itq_ha_a.hwpx</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 7월 C형</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>20250714_itq_ec_q.pdf</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250714_itq_ec_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 7월 C형</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>20250714_itq_ec_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250714_itq_ec_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 7월 B형</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>20250714_itq_eb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250714_itq_eb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 7월 B형</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>20250714_itq_eb_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250714_itq_eb_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 7월 A형</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>20250714_itq_ea_q.pdf</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250714_itq_ea_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 7월 A형</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>20250714_itq_ea_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250714_itq_ea_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 6월 C형</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>20250616_itq_pc_q.pdf</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250616_itq_pc_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 6월 C형</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>20250616_itq_pc_a.pptx</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250616_itq_pc_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 6월 B형</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>20250616_itq_pb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250616_itq_pb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 6월 B형</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>20250616_itq_pb_a.pptx</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250616_itq_pb_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 6월 A형</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>20250616_itq_pa_q.pdf</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250616_itq_pa_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 6월 A형</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>20250616_itq_pa_a.pptx</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250616_itq_pa_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 6월 C형</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>20250616_itq_hc_q.pdf</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250616_itq_hc_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 6월 C형</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>20250616_itq_hc_a.hwpx</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250616_itq_hc_a.hwpx</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 6월 B형</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>20250616_itq_hb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250616_itq_hb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 6월 B형</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>20250616_itq_hb_a.hwpx</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250616_itq_hb_a.hwpx</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 6월 A형</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>20250616_itq_ha_q.pdf</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250616_itq_ha_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 6월 A형</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>20250616_itq_ha_a.hwpx</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250616_itq_ha_a.hwpx</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 6월 C형</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>20250616_itq_ec_q.pdf</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250616_itq_ec_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 6월 C형</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>20250616_itq_ec_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250616_itq_ec_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 6월 B형</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>20250616_itq_eb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250616_itq_eb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 6월 B형</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>20250616_itq_eb_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250616_itq_eb_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 6월 A형</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>20250616_itq_ea_q.pdf</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250616_itq_ea_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 6월 A형</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>20250616_itq_ea_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250616_itq_ea_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 5월 C형</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>20250512_itq_pc_q.pdf</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250512_itq_pc_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 5월 C형</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>20250512_itq_pc_a.pptx</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250512_itq_pc_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 5월 B형</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>20250512_itq_pb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250512_itq_pb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 5월 B형</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>20250512_itq_pb_a.pptx</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250512_itq_pb_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 5월 A형</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>20250512_itq_pa_q.pdf</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250512_itq_pa_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 5월 A형</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>20250512_itq_pa_a.pptx</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250512_itq_pa_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 5월 C형</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>20250512_itq_hc_q.pdf</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250512_itq_hc_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 5월 C형</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>20250512_itq_hc_a.hwp</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250512_itq_hc_a.hwp</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 5월 B형</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>20250512_itq_hb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250512_itq_hb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 5월 B형</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>20250512_itq_hb_a.hwp</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250512_itq_hb_a.hwp</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 5월 A형</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>20250512_itq_ha_q.pdf</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250512_itq_ha_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 5월 A형</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>20250512_itq_ha_a.hwp</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250512_itq_ha_a.hwp</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 5월 C형</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>20250512_itq_ec_q.pdf</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250512_itq_ec_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 5월 C형</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>20250512_itq_ec_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250512_itq_ec_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 5월 B형</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>20250512_itq_eb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250512_itq_eb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 5월 B형</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>20250512_itq_eb_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250512_itq_eb_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 5월 A형</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>20250512_itq_ea_q.pdf</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250512_itq_ea_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 5월 A형</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>20250512_itq_ea_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250512_itq_ea_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 4월 C형</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>20250414_itq_pc_q.pdf</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250414_itq_pc_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 4월 C형</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>20250414_itq_pc_a.pptx</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250414_itq_pc_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 4월 B형</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>20250414_itq_pb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250414_itq_pb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 4월 B형</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>20250414_itq_pb_a.pptx</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250414_itq_pb_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 4월 A형</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>20250414_itq_pa_q.pdf</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250414_itq_pa_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 4월 A형</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>20250414_itq_pa_a.pptx</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250414_itq_pa_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 4월 C형</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>20250414_itq_hc_q.pdf</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250414_itq_hc_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 4월 C형</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>20250414_itq_hc_a.hwp</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250414_itq_hc_a.hwp</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 4월 B형</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>20250414_itq_hb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250414_itq_hb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 4월 B형</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>20250414_itq_hb_a.hwp</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250414_itq_hb_a.hwp</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 4월 A형</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>20250414_itq_ha_q.pdf</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250414_itq_ha_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 4월 A형</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>20250414_itq_ha_a.hwp</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250414_itq_ha_a.hwp</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 4월 C형</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>20250414_itq_ec_q.pdf</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250414_itq_ec_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 4월 C형</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>20250414_itq_ec_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250414_itq_ec_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 4월 B형</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>20250414_itq_eb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250414_itq_eb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 4월 B형</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>20250414_itq_eb_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250414_itq_eb_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 4월 A형</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>20250414_itq_ea_q.pdf</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250414_itq_ea_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 4월 A형</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>20250414_itq_ea_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250414_itq_ea_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 3월 C형</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>20250317_itq_pc_q.pdf</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250317_itq_pc_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 3월 C형</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>20250317_itq_pc_a.pptx</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250317_itq_pc_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 3월 B형</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>20250317_itq_pb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250317_itq_pb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 3월 B형</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>20250317_itq_pb_a.pptx</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250317_itq_pb_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 3월 A형</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>20250317_itq_pa_q.pdf</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250317_itq_pa_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 3월 A형</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>20250317_itq_pa_a.pptx</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250317_itq_pa_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 3월 C형</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>20250317_itq_hc_q.pdf</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250317_itq_hc_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 3월 C형</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>20250317_itq_hc_a.hwp</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250317_itq_hc_a.hwp</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 3월 B형</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>20250317_itq_hb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250317_itq_hb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 3월 B형</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>20250317_itq_hb_a.hwp</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250317_itq_hb_a.hwp</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 3월 A형</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>20250317_itq_ha_q.pdf</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250317_itq_ha_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 3월 A형</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>20250317_itq_ha_a.hwp</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250317_itq_ha_a.hwp</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 3월 C형</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>20250317_itq_ec_q.pdf</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250317_itq_ec_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 3월 C형</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>20250317_itq_ec_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250317_itq_ec_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 3월 B형</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>20250317_itq_eb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250317_itq_eb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 3월 B형</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>20250317_itq_eb_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250317_itq_eb_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 3월 A형</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>20250317_itq_ea_q.pdf</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250317_itq_ea_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 3월 A형</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>20250317_itq_ea_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250317_itq_ea_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 2월 C형</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>20250210_itq_pc_q.pdf</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250210_itq_pc_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 2월 C형</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>20250210_itq_pc_a.pptx</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250210_itq_pc_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 2월 B형</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>20250210_itq_pb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250210_itq_pb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 2월 B형</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>20250210_itq_pb_a.pptx</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250210_itq_pb_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 2월 A형</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>20250210_itq_pa_q.pdf</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250210_itq_pa_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 2월 A형</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>20250210_itq_pa_a.pptx</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250210_itq_pa_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 2월 C형</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>20250210_itq_hc_q.pdf</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250210_itq_hc_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 2월 C형</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>20250210_itq_hc_a.hwp</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250210_itq_hc_a.hwp</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 2월 B형</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>20250210_itq_hb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250210_itq_hb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 2월 B형</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>20250210_itq_hb_a.hwp</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250210_itq_hb_a.hwp</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 2월 A형</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>20250210_itq_ha_q.pdf</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250210_itq_ha_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 2월 A형</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>20250210_itq_ha_a.hwp</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250210_itq_ha_a.hwp</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 2월 C형</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>20250210_itq_ec_q.pdf</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250210_itq_ec_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 2월 C형</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>20250210_itq_ec_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250210_itq_ec_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 2월 B형</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>20250210_itq_eb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250210_itq_eb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 2월 B형</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>20250210_itq_eb_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250210_itq_eb_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 2월 A형</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>20250210_itq_ea_q.pdf</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250210_itq_ea_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 2월 A형</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>20250210_itq_ea_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250210_itq_ea_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 1월 C형</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>20250113_itq_pc_q.pdf</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250113_itq_pc_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 1월 C형</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>20250113_itq_pc_a.pptx</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250113_itq_pc_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 1월 B형</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>20250113_itq_pb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250113_itq_pb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 1월 B형</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>20250113_itq_pb_a.pptx</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250113_itq_pb_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 1월 A형</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>20250113_itq_pa_q.pdf</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250113_itq_pa_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>ITQ 파워포인트 2025년 1월 A형</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>20250113_itq_pa_a.pptx</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250113_itq_pa_a.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 1월 C형</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>20250113_itq_hc_q.pdf</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250113_itq_hc_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 1월 C형</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>20250113_itq_hc_a.hwp</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250113_itq_hc_a.hwp</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 1월 B형</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>20250113_itq_hb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250113_itq_hb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 1월 B형</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>20250113_itq_hb_a.hwp</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250113_itq_hb_a.hwp</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 1월 A형</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>20250113_itq_ha_q.pdf</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250113_itq_ha_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>ITQ 아래한글 2025년 1월 A형</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>20250113_itq_ha_a.hwp</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250113_itq_ha_a.hwp</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 1월 C형</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>20250113_itq_ec_q.pdf</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250113_itq_ec_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 1월 C형</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>20250113_itq_ec_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250113_itq_ec_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 1월 B형</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>20250113_itq_eb_q.pdf</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250113_itq_eb_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 1월 B형</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>20250113_itq_eb_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250113_itq_eb_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 1월 A형</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>문제</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>20250113_itq_ea_q.pdf</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250113_itq_ea_q.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>ITQ</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>ITQ 한글엑셀 2025년 1월 A형</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>정답</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>20250113_itq_ea_a.xlsx</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/20250113_itq_ea_a.xlsx</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/docs/content_sample/problems.xlsx
+++ b/docs/content_sample/problems.xlsx
@@ -26425,7 +26425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E199"/>
+  <dimension ref="A1:E207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31806,6 +31806,222 @@
         </is>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>ITQ 한글 수업자료</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>1. 글꼴/저장</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>ppt</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>ITQ_hangeul2020_ch1.pdf</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/ITQ_hangeul2020_ch1.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>ITQ 한글 수업자료</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2. 문단/스타일</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>ppt</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>ITQ_hangeul2020_ch2.pdf</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/ITQ_hangeul2020_ch2.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>ITQ 한글 수업자료</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>3. 표</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>ppt</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>ITQ_hangeul2020_ch3.pdf</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/ITQ_hangeul2020_ch3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>ITQ 한글 수업자료</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>4. 차트</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>ppt</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>ITQ_hangeul2020_ch4.pdf</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/ITQ_hangeul2020_ch4.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>ITQ 한글 수업자료</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>5. 쪽설정하기</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>ppt</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>ITQ_hangeul2020_ch5.pdf</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/ITQ_hangeul2020_ch5.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>ITQ 한글 수업자료</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>6. 문단번호/이미지삽입</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>ppt</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>ITQ_hangeul2020_ch6.pdf</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/ITQ_hangeul2020_ch6.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>ITQ 한글 수업자료</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>7. 수식편집기</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>ppt</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>ITQ_hangeul2020_ch7.pdf</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/ITQ_hangeul2020_ch7.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>ITQ 한글 수업자료</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>8. 글상자/도형그리기</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>ppt</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>ITQ_hangeul2020_ch8.pdf</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>https://kr.object.ncloudstorage.com/educodingnplaycontents/ITQ/ITQ_hangeul2020_ch8.pdf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
